--- a/spec/models/cfsi/sample_cmrts/2.01/2.01_-_green.xlsx
+++ b/spec/models/cfsi/sample_cmrts/2.01/2.01_-_green.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\gsp_office_conv\tmp\all_cmrt_versions\all_cmrt_versions\2.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\gsp_office_conv\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="10980" tabRatio="675" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="10980" tabRatio="675" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="2460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="2463">
   <si>
     <t>6.各金属について、御社サプライチェーンの製錬業者と、CFS適合製錬業者リストを比較した上で、適切な答えを選択してください。</t>
   </si>
@@ -9602,6 +9602,15 @@
   </si>
   <si>
     <t>We run GSP</t>
+  </si>
+  <si>
+    <t>ABCDEFG12345678</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>This is the main product</t>
   </si>
 </sst>
 </file>
@@ -10659,7 +10668,7 @@
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11343,6 +11352,18 @@
       <alignment wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11434,6 +11455,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -11442,31 +11473,58 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -11547,64 +11605,27 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -11679,10 +11700,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -11736,6 +11753,10 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -14889,18 +14910,18 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="230"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="228"/>
+      <c r="A2" s="233"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="231"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="230"/>
+      <c r="A3" s="233"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -14908,10 +14929,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="228"/>
+      <c r="I3" s="231"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="230"/>
+      <c r="A4" s="233"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -14919,10 +14940,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="228"/>
+      <c r="I4" s="231"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="230"/>
+      <c r="A5" s="233"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -14930,10 +14951,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="228"/>
+      <c r="I5" s="231"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="230"/>
+      <c r="A6" s="233"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -14941,10 +14962,10 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="228"/>
+      <c r="I6" s="231"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="230"/>
+      <c r="A7" s="233"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -14952,10 +14973,10 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="228"/>
+      <c r="I7" s="231"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="230"/>
+      <c r="A8" s="233"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -14963,10 +14984,10 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="228"/>
+      <c r="I8" s="231"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A9" s="230"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -14974,34 +14995,34 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="228"/>
+      <c r="I9" s="231"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A10" s="230"/>
-      <c r="F10" s="235" t="s">
+      <c r="A10" s="233"/>
+      <c r="F10" s="238" t="s">
         <v>1053</v>
       </c>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="228"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="231"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1">
-      <c r="A11" s="230"/>
+      <c r="A11" s="233"/>
       <c r="B11" s="13" t="s">
         <v>1057</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="238" t="s">
+      <c r="F11" s="241" t="s">
         <v>1004</v>
       </c>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="228"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="231"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A12" s="230"/>
+      <c r="A12" s="233"/>
       <c r="B12" s="14" t="s">
         <v>1055</v>
       </c>
@@ -15014,13 +15035,13 @@
       <c r="E12" s="16" t="s">
         <v>1060</v>
       </c>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="228"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="231"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A13" s="230"/>
+      <c r="A13" s="233"/>
       <c r="B13" s="17">
         <v>1</v>
       </c>
@@ -15033,13 +15054,13 @@
       <c r="E13" s="19" t="s">
         <v>1183</v>
       </c>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="228"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="231"/>
     </row>
     <row r="14" spans="1:9" ht="135.75" thickBot="1">
-      <c r="A14" s="230"/>
+      <c r="A14" s="233"/>
       <c r="B14" s="17">
         <v>2</v>
       </c>
@@ -15052,13 +15073,13 @@
       <c r="E14" s="19" t="s">
         <v>1287</v>
       </c>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="228"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="231"/>
     </row>
     <row r="15" spans="1:9" ht="75.75" thickBot="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="20">
         <v>2.0099999999999998</v>
       </c>
@@ -15071,35 +15092,35 @@
       <c r="E15" s="22" t="s">
         <v>2206</v>
       </c>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="228"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="231"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="230"/>
+      <c r="A16" s="233"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="228"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="231"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="228"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="231"/>
     </row>
     <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="230"/>
+      <c r="A18" s="233"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -15113,10 +15134,10 @@
       <c r="H18" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="I18" s="228"/>
+      <c r="I18" s="231"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -15128,10 +15149,10 @@
       <c r="H19" s="11" t="s">
         <v>1380</v>
       </c>
-      <c r="I19" s="228"/>
+      <c r="I19" s="231"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="230"/>
+      <c r="A20" s="233"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -15139,20 +15160,20 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="228"/>
+      <c r="I20" s="231"/>
     </row>
     <row r="21" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A21" s="231"/>
-      <c r="B21" s="232" t="s">
+      <c r="A21" s="234"/>
+      <c r="B21" s="235" t="s">
         <v>1077</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="229"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="232"/>
     </row>
     <row r="22" spans="1:9" ht="13.5" thickTop="1">
       <c r="A22" s="4"/>
@@ -15215,13 +15236,13 @@
         <v>EICC Extractives website: (www.eicc.info/extractives.htm)
 training, request template, FAQs, Conflict-Free Smelters (CFS) list</v>
       </c>
-      <c r="C1" s="246" t="s">
+      <c r="C1" s="249" t="s">
         <v>1471</v>
       </c>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
       <c r="I1" s="95" t="s">
         <v>1081</v>
       </c>
@@ -15252,11 +15273,11 @@
         <f>IF($C$4="English",I3,IF($C$4="中文 Chinese",J3,IF($C$4="日本語 Japanese",K3,IF($C$4="한국어 Korean",L3,IF($C$4="Français",M3,IF($C$4="Português",N3,IF($C$4="Deutsch",O3,IF($C$4="Español",P3))))))))</f>
         <v>Introduction</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
       <c r="I2" s="84" t="s">
         <v>1080</v>
       </c>
@@ -15287,11 +15308,11 @@
         <f>IF($C$4="English",I4,IF($C$4="中文 Chinese",J4,IF($C$4="日本語 Japanese",K4,IF($C$4="한국어 Korean",L4,IF($C$4="Français",M4,IF($C$4="Português",N4,IF($C$4="Deutsch",O4,IF($C$4="Español",P4))))))))</f>
         <v>This EICC-GeSI Conflict Minerals Reporting Template (the Template) was created by the Electronic Industry Citizenship Coalition® (EICC®) and the Global e-Sustainability Initiative (GeSI) as a common means for the collection of sourcing information related to “Conflict Minerals”.  Companies in the electronics and all other industries may adopt this Template as an element of their due diligence program to verify the responsible sourcing of materials and to support compliance to new legislation*. This Template is consistent with EICC and GeSI’s related activities including the Conflict Free Smelter (CFS) Program**.</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
       <c r="I3" s="85" t="s">
         <v>1062</v>
       </c>
@@ -15323,13 +15344,13 @@
         <v>* In 2010, the U.S. Dodd-Frank Act was passed concerning “Conflict Minerals” originating from the Democratic Republic of the Congo (DRC) or adjoining countries. The SEC has published final rules associated with the disclosure of the source of Conflict Minerals by U.S. publicly traded companies (see the rules at http://www.sec.gov/rules/final/2012/34-67716.pdf). The rules reference the OECD Due Diligence Guidance for Responsible Supply Chains of Minerals from Conflict-Affected and High-Risk Areas, (http://www.oecd.org/dataoecd/62/30/46740847.pdf), which guides suppliers to establish policies, due diligence frameworks, and management systems. 
 ** See information on the Conflict-Free Smelter (CFS) Program (www.conflictfreesmelter.org/) and other information (www.eicc.info/extractives.htm).</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="243" t="s">
         <v>1081</v>
       </c>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="I4" s="86" t="s">
         <v>271</v>
       </c>
@@ -15418,13 +15439,13 @@
         <f t="shared" ref="A7:A14" si="0">IF($C$4="English",I7,IF($C$4="中文 Chinese",J7,IF($C$4="日本語 Japanese",K7,IF($C$4="한국어 Korean",L7,IF($C$4="Français",M7,IF($C$4="Português",N7,IF($C$4="Deutsch",O7,IF($C$4="Español",P7))))))))</f>
         <v xml:space="preserve">     Note:  Entries with (*) are mandatory fields. </v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="246" t="s">
         <v>2207</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="245"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="248"/>
       <c r="I7" s="90" t="s">
         <v>1079</v>
       </c>
@@ -17152,17 +17173,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" thickTop="1">
-      <c r="A1" s="255"/>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="257"/>
-      <c r="F1" s="252" t="s">
+      <c r="A1" s="258"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="F1" s="255" t="s">
         <v>1471</v>
       </c>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
       <c r="L1" s="31" t="s">
         <v>1081</v>
       </c>
@@ -17213,7 +17234,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="15">
-      <c r="A2" s="250"/>
+      <c r="A2" s="253"/>
       <c r="B2" s="99" t="str">
         <f>IF($F$5="English",L2,IF($F$5="中文 Chinese",M2,IF($F$5="日本語 Japanese",N2,IF($F$5="한국어 Korean",O2,IF($F$5="Français",P2,IF($F$5="Português",Q2,IF($F$5="Deutsch",R2,IF($F$5="Español",S2))))))))</f>
         <v>ITEM</v>
@@ -17222,12 +17243,12 @@
         <f>IF($F$5="English",T2,IF($F$5="中文 Chinese",U2,IF($F$5="日本語 Japanese",V2,IF($F$5="한국어 Korean",W2,IF($F$5="Français",X2,IF($F$5="Português",Y2,IF($F$5="Deutsch",Z2,IF($F$5="Español",AA2))))))))</f>
         <v>DEFINITION</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
+      <c r="D2" s="251"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
       <c r="L2" s="100" t="s">
         <v>108</v>
       </c>
@@ -17278,7 +17299,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="58.15" customHeight="1">
-      <c r="A3" s="250"/>
+      <c r="A3" s="253"/>
       <c r="B3" s="99" t="str">
         <f t="shared" ref="B3:B23" si="0">IF($F$5="English",L3,IF($F$5="中文 Chinese",M3,IF($F$5="日本語 Japanese",N3,IF($F$5="한국어 Korean",O3,IF($F$5="Français",P3,IF($F$5="Português",Q3,IF($F$5="Deutsch",R3,IF($F$5="Español",S3))))))))</f>
         <v>Adjoining Country</v>
@@ -17287,12 +17308,12 @@
         <f t="shared" ref="C3:C23" si="1">IF($F$5="English",T3,IF($F$5="中文 Chinese",U3,IF($F$5="日本語 Japanese",V3,IF($F$5="한국어 Korean",W3,IF($F$5="Français",X3,IF($F$5="Português",Y3,IF($F$5="Deutsch",Z3,IF($F$5="Español",AA3))))))))</f>
         <v>A country that shares an internationally recognized border with the Democratic Republic of Congo is considered an “adjoining country”.</v>
       </c>
-      <c r="D3" s="248"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
+      <c r="D3" s="251"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
       <c r="L3" s="102" t="s">
         <v>1071</v>
       </c>
@@ -17343,7 +17364,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="88.9" customHeight="1">
-      <c r="A4" s="250"/>
+      <c r="A4" s="253"/>
       <c r="B4" s="99" t="str">
         <f t="shared" si="0"/>
         <v>CFS Compliant Smelter List</v>
@@ -17352,12 +17373,12 @@
         <f t="shared" si="1"/>
         <v>Conflict-Free Smelter Program Compliant Smelter List is a list of smelters which have been independently audited and determined to be compliant to a CFS protocol. The list and protocols can be found here: (http://www.conflictfreesmelter.org/)</v>
       </c>
-      <c r="D4" s="248"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
+      <c r="D4" s="251"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
       <c r="L4" s="102" t="s">
         <v>278</v>
       </c>
@@ -17408,7 +17429,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="87.6" customHeight="1">
-      <c r="A5" s="250"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="99" t="str">
         <f t="shared" si="0"/>
         <v>CFS Program</v>
@@ -17417,14 +17438,14 @@
         <f t="shared" si="1"/>
         <v>The Conflict-Free Smelter (CFS) Program is a program developed by EICC and GeSI to enhance company capability to verify the responsible sourcing of metals. Further details of the CFS Program can be found here: (http://www.conflictfreesmelter.org/)</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="F5" s="240" t="s">
+      <c r="D5" s="251"/>
+      <c r="F5" s="243" t="s">
         <v>1081</v>
       </c>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="242"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245"/>
       <c r="L5" s="102" t="s">
         <v>1169</v>
       </c>
@@ -17475,7 +17496,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="206.45" customHeight="1">
-      <c r="A6" s="250"/>
+      <c r="A6" s="253"/>
       <c r="B6" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Conflict Mineral</v>
@@ -17487,7 +17508,7 @@
 (A) columbite-tantalite (coltan), cassiterite, gold, wolframite, or their derivatives; or
 (B) any other mineral or its derivatives determined by the Secretary of State to be financing conflict in the Democratic Republic of the Congo or an adjoining country.  (available at http://www.sec.gov/about/laws/wallstreetreform-cpa.pdf)</v>
       </c>
-      <c r="D6" s="248"/>
+      <c r="D6" s="251"/>
       <c r="L6" s="102" t="s">
         <v>1069</v>
       </c>
@@ -17538,7 +17559,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="122.45" customHeight="1">
-      <c r="A7" s="250"/>
+      <c r="A7" s="253"/>
       <c r="B7" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Declaration Scope</v>
@@ -17547,14 +17568,14 @@
         <f t="shared" si="1"/>
         <v>For purposes of this template, the Scope describes the applicability of the information provided by the reporting company.  The scope may encompass the entirety of a company’s services and/or products, or at a company’s discretion, the template may be used to address the company’s specific Division, Category of Products, or Product(s).</v>
       </c>
-      <c r="D7" s="248"/>
-      <c r="F7" s="243" t="s">
+      <c r="D7" s="251"/>
+      <c r="F7" s="246" t="s">
         <v>2207</v>
       </c>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="248"/>
       <c r="L7" s="102" t="s">
         <v>281</v>
       </c>
@@ -17605,7 +17626,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="54.6" customHeight="1">
-      <c r="A8" s="250"/>
+      <c r="A8" s="253"/>
       <c r="B8" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Division</v>
@@ -17614,7 +17635,7 @@
         <f t="shared" si="1"/>
         <v>A division is a defined unit of a business which performs a specific service or produces a specific category of products.</v>
       </c>
-      <c r="D8" s="248"/>
+      <c r="D8" s="251"/>
       <c r="L8" s="102" t="s">
         <v>23</v>
       </c>
@@ -17665,7 +17686,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="58.15" customHeight="1">
-      <c r="A9" s="250"/>
+      <c r="A9" s="253"/>
       <c r="B9" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Dodd-Frank</v>
@@ -17674,7 +17695,7 @@
         <f t="shared" si="1"/>
         <v>2010 United States legislation, Dodd-Frank Wall Street Reform and Consumer Protection Act, Section 1502 (“Dodd-Frank”) (http://www.sec.gov/about/laws/wallstreetreform-cpa.pdf)</v>
       </c>
-      <c r="D9" s="248"/>
+      <c r="D9" s="251"/>
       <c r="L9" s="102" t="s">
         <v>1110</v>
       </c>
@@ -17725,7 +17746,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15">
-      <c r="A10" s="250"/>
+      <c r="A10" s="253"/>
       <c r="B10" s="99" t="str">
         <f t="shared" si="0"/>
         <v>DRC</v>
@@ -17734,7 +17755,7 @@
         <f t="shared" si="1"/>
         <v>Democratic Republic of Congo</v>
       </c>
-      <c r="D10" s="248"/>
+      <c r="D10" s="251"/>
       <c r="L10" s="102" t="s">
         <v>1070</v>
       </c>
@@ -17785,7 +17806,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="121.9" customHeight="1">
-      <c r="A11" s="250"/>
+      <c r="A11" s="253"/>
       <c r="B11" s="99" t="str">
         <f t="shared" si="0"/>
         <v>DRC Conflict-Free</v>
@@ -17794,7 +17815,7 @@
         <f t="shared" si="1"/>
         <v>Is defined to mean the products that do not contain minerals that directly or indirectly finance or benefit armed groups in the Democratic Republic of the Congo or an adjoining country.  Source: 2010 United States legislation, Dodd-Frank Wall Street Reform and Consumer Protection Act, Section 1502 (http://www.sec.gov/about/laws/wallstreetreform-cpa.pdf)</v>
       </c>
-      <c r="D11" s="248"/>
+      <c r="D11" s="251"/>
       <c r="L11" s="102" t="s">
         <v>1072</v>
       </c>
@@ -17845,7 +17866,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="40.9" customHeight="1">
-      <c r="A12" s="250"/>
+      <c r="A12" s="253"/>
       <c r="B12" s="99" t="str">
         <f t="shared" si="0"/>
         <v>EICC</v>
@@ -17854,7 +17875,7 @@
         <f t="shared" si="1"/>
         <v>Electronics Industry Citizenship Coalition (www.eicc.info)</v>
       </c>
-      <c r="D12" s="248"/>
+      <c r="D12" s="251"/>
       <c r="L12" s="102" t="s">
         <v>1065</v>
       </c>
@@ -17905,7 +17926,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="43.9" customHeight="1">
-      <c r="A13" s="250"/>
+      <c r="A13" s="253"/>
       <c r="B13" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">GeSI </v>
@@ -17914,7 +17935,7 @@
         <f t="shared" si="1"/>
         <v>Global e-Sustainability Initiative (www.gesi.org)</v>
       </c>
-      <c r="D13" s="248"/>
+      <c r="D13" s="251"/>
       <c r="L13" s="102" t="s">
         <v>1066</v>
       </c>
@@ -17965,7 +17986,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="70.150000000000006" customHeight="1">
-      <c r="A14" s="250"/>
+      <c r="A14" s="253"/>
       <c r="B14" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Gold Refiner (smelter)</v>
@@ -17974,7 +17995,7 @@
         <f t="shared" si="1"/>
         <v>A gold refiner is a metallurgical operation that produces fine gold with a concentration of 99.5% or higher from gold and gold-bearing materials with lower concentrations.</v>
       </c>
-      <c r="D14" s="248"/>
+      <c r="D14" s="251"/>
       <c r="L14" s="100" t="s">
         <v>804</v>
       </c>
@@ -18025,7 +18046,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="38.450000000000003" customHeight="1">
-      <c r="A15" s="250"/>
+      <c r="A15" s="253"/>
       <c r="B15" s="99" t="str">
         <f t="shared" si="0"/>
         <v>OECD</v>
@@ -18034,7 +18055,7 @@
         <f t="shared" si="1"/>
         <v>Organization for Economic Co-operation and Development</v>
       </c>
-      <c r="D15" s="248"/>
+      <c r="D15" s="251"/>
       <c r="L15" s="102" t="s">
         <v>1068</v>
       </c>
@@ -18085,7 +18106,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="70.150000000000006" customHeight="1">
-      <c r="A16" s="250"/>
+      <c r="A16" s="253"/>
       <c r="B16" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Product</v>
@@ -18094,7 +18115,7 @@
         <f t="shared" si="1"/>
         <v>A company’s Product or Finished good is a material or item which has completed the final stage of manufacturing and/or processing and is available for distribution or sale to customers.</v>
       </c>
-      <c r="D16" s="248"/>
+      <c r="D16" s="251"/>
       <c r="L16" s="102" t="s">
         <v>27</v>
       </c>
@@ -18145,7 +18166,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="30">
-      <c r="A17" s="250"/>
+      <c r="A17" s="253"/>
       <c r="B17" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Product Category</v>
@@ -18154,7 +18175,7 @@
         <f t="shared" si="1"/>
         <v>A group of products which can be described by an industry recognized generic term (ex. capacitors).</v>
       </c>
-      <c r="D17" s="248"/>
+      <c r="D17" s="251"/>
       <c r="L17" s="102" t="s">
         <v>29</v>
       </c>
@@ -18205,7 +18226,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="101.45" customHeight="1">
-      <c r="A18" s="250"/>
+      <c r="A18" s="253"/>
       <c r="B18" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Recycled and Scrap Materials</v>
@@ -18214,7 +18235,7 @@
         <f t="shared" si="1"/>
         <v>Conflict Minerals are considered "recycled" that are reclaimed end-user or post-consumer products, but not considered "recycled" are minerals that are partially processed, or a byproduct from another ore. For full definition see SEC Rules (http://www.sec.gov/rules/final/2012/34-67716.pdf).</v>
       </c>
-      <c r="D18" s="248"/>
+      <c r="D18" s="251"/>
       <c r="L18" s="100" t="s">
         <v>1173</v>
       </c>
@@ -18265,7 +18286,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="37.9" customHeight="1">
-      <c r="A19" s="250"/>
+      <c r="A19" s="253"/>
       <c r="B19" s="99" t="str">
         <f t="shared" si="0"/>
         <v>SEC</v>
@@ -18274,7 +18295,7 @@
         <f t="shared" si="1"/>
         <v>Security Exchange Commision (www.sec.gov)</v>
       </c>
-      <c r="D19" s="248"/>
+      <c r="D19" s="251"/>
       <c r="L19" s="102" t="s">
         <v>1067</v>
       </c>
@@ -18325,7 +18346,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="91.15" customHeight="1">
-      <c r="A20" s="250"/>
+      <c r="A20" s="253"/>
       <c r="B20" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Smelter</v>
@@ -18334,7 +18355,7 @@
         <f t="shared" si="1"/>
         <v>A smelter is a company that procures and processes mineral ore, slag and / or recycled materials and scrap into refined metal or metal containing intermediate products.  The output can be pure (99.5% or greater) metals, powders, ingots, bars, grains, oxides or salts.</v>
       </c>
-      <c r="D20" s="248"/>
+      <c r="D20" s="251"/>
       <c r="E20" s="104"/>
       <c r="L20" s="100" t="s">
         <v>1175</v>
@@ -18386,7 +18407,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="132" customHeight="1">
-      <c r="A21" s="250"/>
+      <c r="A21" s="253"/>
       <c r="B21" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Tantalum Smelter</v>
@@ -18395,7 +18416,7 @@
         <f t="shared" si="1"/>
         <v>A tantalum smelter is a company which converts tantalum (Ta) containing ores, slags, powder or scrap into Ta containing products (such as Ta powders, Ta components, Ta oxides, alloys, wires, sintered bar or similar final products) or intermediate products (such as KTaF(also known as KSalt), Ta hydroxides and Ta unrefined powders, synthetic ores and other Ta digestion materials).</v>
       </c>
-      <c r="D21" s="248"/>
+      <c r="D21" s="251"/>
       <c r="L21" s="100" t="s">
         <v>1177</v>
       </c>
@@ -18446,7 +18467,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="157.15" customHeight="1">
-      <c r="A22" s="250"/>
+      <c r="A22" s="253"/>
       <c r="B22" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Tin Smelter</v>
@@ -18455,7 +18476,7 @@
         <f t="shared" si="1"/>
         <v>A tin smelter is referred to as companies treating tin containing ore concentrates in order to produce crude or fully refined tin (≥99.85% pure). Secondary smelters are companies which treat secondary materials for the production of crude or fully refined tin. Refiners are companies that treat crude tin or suitable secondary materials to produce fully refined tin. Tin smelters may be one of, or a combination of the above.</v>
       </c>
-      <c r="D22" s="248"/>
+      <c r="D22" s="251"/>
       <c r="L22" s="100" t="s">
         <v>1179</v>
       </c>
@@ -18506,7 +18527,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="125.45" customHeight="1">
-      <c r="A23" s="250"/>
+      <c r="A23" s="253"/>
       <c r="B23" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Tungsten Smelter</v>
@@ -18515,7 +18536,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">A tungsten (W) refiner is defined as a company converting W ore (wolframite and scheelite), W concentrates, or W-bearing secondary material for conversion to tungsten containing intermediates such as Ammonium Para-Tungstate (APT), Ammonium Meta-Tungstate (AMT), ferrotungsten, and tungsten oxides.  APT production is the typical identifying capability of a tungsten smelter.  </v>
       </c>
-      <c r="D23" s="248"/>
+      <c r="D23" s="251"/>
       <c r="L23" s="100" t="s">
         <v>34</v>
       </c>
@@ -18566,13 +18587,13 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A24" s="251"/>
-      <c r="B24" s="232" t="str">
+      <c r="A24" s="254"/>
+      <c r="B24" s="235" t="str">
         <f>IF($F$5="English",T24,IF($F$5="中文 Chinese",U24,IF($F$5="日本語 Japanese",V24,IF($F$5="한국어 Korean",W24,IF($F$5="Français",X24,IF($F$5="Português",Y24,IF($F$5="Deutsch",Z24,IF($F$5="Español",AA24))))))))</f>
         <v>© 2011 Electronic Industry Citizenship Coalition, Incorporated and Global e-Sustainability Initiative. All rights reserved.</v>
       </c>
-      <c r="C24" s="232"/>
-      <c r="D24" s="249"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="252"/>
       <c r="T24" s="165" t="s">
         <v>36</v>
       </c>
@@ -18634,7 +18655,7 @@
   </sheetPr>
   <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A65" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A65" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -18659,32 +18680,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickTop="1">
-      <c r="A1" s="267"/>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="269"/>
+      <c r="A1" s="281"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="283"/>
     </row>
     <row r="2" spans="1:20" ht="116.25" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="270" t="str">
+      <c r="D2" s="284" t="str">
         <f>IF($D$3="English",B82,IF($D$3="中文 Chinese",C82,IF($D$3="日本語 Japanese",D82,IF($D$3="한국어 Korean",E82,IF($D$3="Français",F82,IF($D$3="Português",G82,IF($D$3="Deutsch",H82,IF($D$3="Español",I82))))))))</f>
         <v>Conflict Minerals Reporting Template</v>
       </c>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="284"/>
       <c r="K2" s="105"/>
       <c r="L2" s="31"/>
       <c r="M2" s="109"/>
@@ -18704,12 +18725,12 @@
       <c r="D3" s="222" t="s">
         <v>1081</v>
       </c>
-      <c r="F3" s="279" t="str">
+      <c r="F3" s="293" t="str">
         <f>IF(D8="","","Click here to check required fields completion")</f>
         <v>Click here to check required fields completion</v>
       </c>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="293"/>
       <c r="I3" s="132" t="e">
         <f>IF(Checker!D2=0,"",IF(Checker!D2=Checker!F56,"",IF(Checker!D2&gt;0,"1 or more required fields need to be populated")))</f>
         <v>#VALUE!</v>
@@ -18722,22 +18743,22 @@
     </row>
     <row r="4" spans="1:20" ht="36.75" customHeight="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="274" t="str">
+      <c r="B4" s="288" t="str">
         <f>IF($D$3="English",B84,IF($D$3="中文 Chinese",C84,IF($D$3="日本語 Japanese",D84,IF($D$3="한국어 Korean",E84,IF($D$3="Français",F84,IF($D$3="Português",G84,IF($D$3="Deutsch",H84,IF($D$3="Español",I84))))))))</f>
         <v>The purpose of this document is to collect sourcing information on tin, tantalum, tungsten and gold used in products</v>
       </c>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="275" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="289" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="275"/>
+      <c r="J4" s="289"/>
       <c r="K4" s="105"/>
-      <c r="L4" s="288"/>
+      <c r="L4" s="262"/>
     </row>
     <row r="5" spans="1:20" s="59" customFormat="1" ht="3" customHeight="1">
       <c r="A5" s="28"/>
@@ -18751,39 +18772,39 @@
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
       <c r="K5" s="105"/>
-      <c r="L5" s="288"/>
+      <c r="L5" s="262"/>
     </row>
     <row r="6" spans="1:20" ht="32.25" customHeight="1">
       <c r="A6" s="28"/>
-      <c r="B6" s="293" t="str">
+      <c r="B6" s="275" t="str">
         <f>IF($D$3="English",B86,IF($D$3="中文 Chinese",C86,IF($D$3="日本語 Japanese",D86,IF($D$3="한국어 Korean",E86,IF($D$3="Français",F86,IF($D$3="Português",G86,IF($D$3="Deutsch",H86,IF($D$3="Español",I86))))))))</f>
         <v>Mandatory fields are noted with an asterisk (*). The information collected in this template should be updated annually. Any changes within the annual cycle should be provided to your customers</v>
       </c>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="275"/>
       <c r="K6" s="105"/>
-      <c r="L6" s="288"/>
+      <c r="L6" s="262"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" customHeight="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="280" t="str">
+      <c r="B7" s="294" t="str">
         <f>IF($D$3="English",B87,IF($D$3="中文 Chinese",C87,IF($D$3="日本語 Japanese",D87,IF($D$3="한국어 Korean",E87,IF($D$3="Français",F87,IF($D$3="Português",G87,IF($D$3="Deutsch",H87,IF($D$3="Español",I87))))))))</f>
         <v>Company Information</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="280"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294"/>
       <c r="K7" s="105"/>
       <c r="L7" s="143"/>
     </row>
@@ -18794,17 +18815,17 @@
         <v>Company Name (*):</v>
       </c>
       <c r="C8" s="60"/>
-      <c r="D8" s="271" t="s">
+      <c r="D8" s="285" t="s">
         <v>2445</v>
       </c>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="273"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="287"/>
       <c r="K8" s="160"/>
-      <c r="L8" s="288"/>
+      <c r="L8" s="262"/>
     </row>
     <row r="9" spans="1:20" ht="15.75">
       <c r="A9" s="159"/>
@@ -18813,17 +18834,17 @@
         <v>Declaration Scope (*):</v>
       </c>
       <c r="C9" s="60"/>
-      <c r="D9" s="276" t="s">
+      <c r="D9" s="290" t="s">
         <v>802</v>
       </c>
-      <c r="E9" s="277"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="278"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="292"/>
       <c r="H9" s="142"/>
       <c r="I9" s="142"/>
       <c r="J9" s="142"/>
       <c r="K9" s="105"/>
-      <c r="L9" s="288"/>
+      <c r="L9" s="262"/>
       <c r="N9" s="27">
         <f>IF(D9=B127,1,0)</f>
         <v>0</v>
@@ -18831,20 +18852,20 @@
     </row>
     <row r="10" spans="1:20" ht="15.75">
       <c r="A10" s="159"/>
-      <c r="B10" s="297" t="str">
+      <c r="B10" s="279" t="str">
         <f>IF($D$3="English",B90,IF($D$3="中文 Chinese",C90,IF($D$3="日本語 Japanese",D90,IF($D$3="한국어 Korean",E90,IF($D$3="Français",F90,IF($D$3="Português",G90,IF($D$3="Deutsch",H90,IF($D$3="Español",I90))))))))</f>
         <v>Description of Scope:</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="296"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="278"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="288"/>
+      <c r="L10" s="262"/>
       <c r="N10" s="27">
         <f>IF(D9=B128,1,0)</f>
         <v>0</v>
@@ -18852,20 +18873,20 @@
     </row>
     <row r="11" spans="1:20" ht="19.5">
       <c r="A11" s="159"/>
-      <c r="B11" s="298"/>
+      <c r="B11" s="280"/>
       <c r="C11" s="110"/>
-      <c r="D11" s="283" t="str">
+      <c r="D11" s="297" t="str">
         <f>IF(N11&gt;0,"Click here to enter the products this declaration applies to","")</f>
         <v/>
       </c>
-      <c r="E11" s="284"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="284"/>
-      <c r="H11" s="284"/>
-      <c r="I11" s="284"/>
-      <c r="J11" s="285"/>
+      <c r="E11" s="298"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="299"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="288"/>
+      <c r="L11" s="262"/>
       <c r="N11" s="27">
         <f>IF(D9=B129,2,0)</f>
         <v>0</v>
@@ -18878,17 +18899,17 @@
         <v>Company Unique Identifier:</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="258" t="s">
+      <c r="D12" s="264" t="s">
         <v>2446</v>
       </c>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="259"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="267"/>
+      <c r="J12" s="265"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="288"/>
+      <c r="L12" s="262"/>
       <c r="N12" s="27">
         <f>SUM(N9:N11)</f>
         <v>0</v>
@@ -18901,17 +18922,17 @@
         <v>Address:</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="258" t="s">
+      <c r="D13" s="264" t="s">
         <v>2447</v>
       </c>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="259"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="267"/>
+      <c r="J13" s="265"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="288"/>
+      <c r="L13" s="262"/>
     </row>
     <row r="14" spans="1:20" ht="15.75">
       <c r="A14" s="159"/>
@@ -18920,17 +18941,17 @@
         <v>Authorized Company Representative Name (*):</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="258" t="s">
+      <c r="D14" s="264" t="s">
         <v>2448</v>
       </c>
-      <c r="E14" s="261"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="259"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="265"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="288"/>
+      <c r="L14" s="262"/>
     </row>
     <row r="15" spans="1:20" ht="15.75">
       <c r="A15" s="159"/>
@@ -18939,17 +18960,17 @@
         <v>Representative Title:</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="258" t="s">
+      <c r="D15" s="264" t="s">
         <v>2458</v>
       </c>
-      <c r="E15" s="261"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="261"/>
-      <c r="J15" s="259"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="267"/>
+      <c r="J15" s="265"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="288"/>
+      <c r="L15" s="262"/>
     </row>
     <row r="16" spans="1:20" ht="24.75" customHeight="1">
       <c r="A16" s="159"/>
@@ -18958,17 +18979,17 @@
         <v>Representative Email (*):</v>
       </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="289" t="s">
+      <c r="D16" s="271" t="s">
         <v>2449</v>
       </c>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="291"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="272"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="273"/>
       <c r="K16" s="105"/>
-      <c r="L16" s="288"/>
+      <c r="L16" s="262"/>
       <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:16" ht="15.75">
@@ -18978,17 +18999,17 @@
         <v>Representative Phone:</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="292" t="s">
+      <c r="D17" s="274" t="s">
         <v>2450</v>
       </c>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="259"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
+      <c r="H17" s="267"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="265"/>
       <c r="K17" s="105"/>
-      <c r="L17" s="288"/>
+      <c r="L17" s="262"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="159"/>
@@ -18997,10 +19018,10 @@
         <v>Date of Completion (*):</v>
       </c>
       <c r="C18" s="151"/>
-      <c r="D18" s="286">
+      <c r="D18" s="300">
         <v>40328</v>
       </c>
-      <c r="E18" s="287"/>
+      <c r="E18" s="301"/>
       <c r="F18" s="161"/>
       <c r="G18" s="147"/>
       <c r="H18" s="147"/>
@@ -19012,8 +19033,8 @@
       <c r="A19" s="33"/>
       <c r="B19" s="135"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
       <c r="F19" s="35"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
@@ -19025,18 +19046,18 @@
     </row>
     <row r="20" spans="1:16" ht="17.25" customHeight="1">
       <c r="A20" s="150"/>
-      <c r="B20" s="281" t="str">
+      <c r="B20" s="295" t="str">
         <f>IF($D$3="English",B98,IF($D$3="中文 Chinese",C98,IF($D$3="日本語 Japanese",D98,IF($D$3="한국어 Korean",E98,IF($D$3="Français",F98,IF($D$3="Português",G98,IF($D$3="Deutsch",H98,IF($D$3="Español",I98))))))))</f>
         <v>Answer the following questions 1 - 6 based on the declaration scope indicated above</v>
       </c>
-      <c r="C20" s="281"/>
-      <c r="D20" s="281"/>
-      <c r="E20" s="281"/>
-      <c r="F20" s="281"/>
-      <c r="G20" s="281"/>
-      <c r="H20" s="281"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="281"/>
+      <c r="C20" s="295"/>
+      <c r="D20" s="295"/>
+      <c r="E20" s="295"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="295"/>
+      <c r="H20" s="295"/>
+      <c r="I20" s="295"/>
+      <c r="J20" s="295"/>
       <c r="K20" s="152"/>
       <c r="L20" s="38"/>
       <c r="P20" s="109"/>
@@ -19072,15 +19093,15 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="258" t="s">
+      <c r="D22" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E22" s="259"/>
+      <c r="E22" s="265"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="259"/>
+      <c r="G22" s="264"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="267"/>
+      <c r="J22" s="265"/>
       <c r="K22" s="105"/>
       <c r="L22" s="39"/>
       <c r="M22" s="109"/>
@@ -19092,15 +19113,15 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="258" t="s">
+      <c r="D23" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E23" s="259"/>
+      <c r="E23" s="265"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="259"/>
+      <c r="G23" s="264"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="267"/>
+      <c r="J23" s="265"/>
       <c r="K23" s="105"/>
       <c r="L23" s="39"/>
       <c r="N23" s="27">
@@ -19119,15 +19140,15 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="258" t="s">
+      <c r="D24" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E24" s="259"/>
+      <c r="E24" s="265"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="259"/>
+      <c r="G24" s="264"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
+      <c r="J24" s="265"/>
       <c r="K24" s="105"/>
       <c r="L24" s="39"/>
       <c r="N24" s="27">
@@ -19146,15 +19167,15 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="258" t="s">
+      <c r="D25" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E25" s="259"/>
+      <c r="E25" s="265"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="259"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="265"/>
       <c r="K25" s="105"/>
       <c r="L25" s="39"/>
       <c r="N25" s="27">
@@ -19174,9 +19195,9 @@
       <c r="E26" s="40"/>
       <c r="F26" s="41"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="264"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="264"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="304"/>
       <c r="K26" s="105"/>
       <c r="L26" s="39"/>
       <c r="N26" s="27">
@@ -19226,18 +19247,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="258" t="s">
+      <c r="D28" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E28" s="259"/>
+      <c r="E28" s="265"/>
       <c r="F28" s="176">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="258"/>
-      <c r="H28" s="261"/>
-      <c r="I28" s="261"/>
-      <c r="J28" s="259"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="267"/>
+      <c r="J28" s="265"/>
       <c r="K28" s="105"/>
       <c r="L28" s="39"/>
     </row>
@@ -19248,18 +19269,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C29" s="34"/>
-      <c r="D29" s="258" t="s">
+      <c r="D29" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E29" s="259"/>
+      <c r="E29" s="265"/>
       <c r="F29" s="176">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="258"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="259"/>
+      <c r="G29" s="264"/>
+      <c r="H29" s="267"/>
+      <c r="I29" s="267"/>
+      <c r="J29" s="265"/>
       <c r="K29" s="105"/>
       <c r="L29" s="39"/>
     </row>
@@ -19270,18 +19291,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C30" s="34"/>
-      <c r="D30" s="258" t="s">
+      <c r="D30" s="264" t="s">
         <v>2453</v>
       </c>
-      <c r="E30" s="259"/>
+      <c r="E30" s="265"/>
       <c r="F30" s="176">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="258"/>
-      <c r="H30" s="261"/>
-      <c r="I30" s="261"/>
-      <c r="J30" s="259"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="265"/>
       <c r="K30" s="105"/>
       <c r="L30" s="39"/>
     </row>
@@ -19292,18 +19313,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="258" t="s">
+      <c r="D31" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E31" s="259"/>
+      <c r="E31" s="265"/>
       <c r="F31" s="176">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="258"/>
-      <c r="H31" s="261"/>
-      <c r="I31" s="261"/>
-      <c r="J31" s="259"/>
+      <c r="G31" s="264"/>
+      <c r="H31" s="267"/>
+      <c r="I31" s="267"/>
+      <c r="J31" s="265"/>
       <c r="K31" s="105"/>
       <c r="L31" s="39"/>
     </row>
@@ -19351,18 +19372,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="258" t="s">
+      <c r="D34" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E34" s="259"/>
+      <c r="E34" s="265"/>
       <c r="F34" s="176">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="258"/>
-      <c r="H34" s="261"/>
-      <c r="I34" s="261"/>
-      <c r="J34" s="259"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="267"/>
+      <c r="I34" s="267"/>
+      <c r="J34" s="265"/>
       <c r="K34" s="105"/>
       <c r="L34" s="39"/>
     </row>
@@ -19373,18 +19394,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="258" t="s">
+      <c r="D35" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E35" s="259"/>
+      <c r="E35" s="265"/>
       <c r="F35" s="176">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="262"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="259"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="267"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="265"/>
       <c r="K35" s="105"/>
       <c r="L35" s="39"/>
     </row>
@@ -19395,18 +19416,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="258" t="s">
+      <c r="D36" s="264" t="s">
         <v>2453</v>
       </c>
-      <c r="E36" s="259"/>
+      <c r="E36" s="265"/>
       <c r="F36" s="176">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="258"/>
-      <c r="H36" s="261"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="259"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="267"/>
+      <c r="I36" s="267"/>
+      <c r="J36" s="265"/>
       <c r="K36" s="105"/>
       <c r="L36" s="39"/>
     </row>
@@ -19417,18 +19438,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="258" t="s">
+      <c r="D37" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E37" s="259"/>
+      <c r="E37" s="265"/>
       <c r="F37" s="176">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="258"/>
-      <c r="H37" s="261"/>
-      <c r="I37" s="261"/>
-      <c r="J37" s="259"/>
+      <c r="G37" s="264"/>
+      <c r="H37" s="267"/>
+      <c r="I37" s="267"/>
+      <c r="J37" s="265"/>
       <c r="K37" s="105"/>
       <c r="L37" s="39"/>
     </row>
@@ -19463,12 +19484,12 @@
         <f>IF($D$3="English",$J$85,IF($D$3="中文 Chinese",$K$85,IF($D$3="日本語 Japanese",$L$85,IF($D$3="한국어 Korean",$M$85,IF($D$3="Français",$N$85,IF($D$3="Português",$O$85,IF($D$3="Deutsch",$P$85,IF($D$3="Español",$Q$85))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="H39" s="266" t="str">
+      <c r="H39" s="306" t="str">
         <f>IF(N27&gt;0,"Click here to enter smelter names","")</f>
         <v>Click here to enter smelter names</v>
       </c>
-      <c r="I39" s="266"/>
-      <c r="J39" s="266"/>
+      <c r="I39" s="306"/>
+      <c r="J39" s="306"/>
       <c r="K39" s="105"/>
       <c r="L39" s="39"/>
     </row>
@@ -19479,18 +19500,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C40" s="30"/>
-      <c r="D40" s="258" t="s">
+      <c r="D40" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E40" s="259"/>
+      <c r="E40" s="265"/>
       <c r="F40" s="176">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="258"/>
-      <c r="H40" s="261"/>
-      <c r="I40" s="261"/>
-      <c r="J40" s="259"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="267"/>
+      <c r="J40" s="265"/>
       <c r="K40" s="105"/>
       <c r="L40" s="39"/>
     </row>
@@ -19501,18 +19522,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C41" s="30"/>
-      <c r="D41" s="258" t="s">
+      <c r="D41" s="264" t="s">
         <v>2454</v>
       </c>
-      <c r="E41" s="259"/>
+      <c r="E41" s="265"/>
       <c r="F41" s="176">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="262"/>
-      <c r="H41" s="261"/>
-      <c r="I41" s="261"/>
-      <c r="J41" s="259"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="267"/>
+      <c r="I41" s="267"/>
+      <c r="J41" s="265"/>
       <c r="K41" s="105"/>
       <c r="L41" s="39"/>
     </row>
@@ -19523,18 +19544,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C42" s="30"/>
-      <c r="D42" s="258" t="s">
+      <c r="D42" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E42" s="259"/>
+      <c r="E42" s="265"/>
       <c r="F42" s="176">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="262"/>
-      <c r="H42" s="261"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="259"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="265"/>
       <c r="K42" s="105"/>
       <c r="L42" s="39"/>
     </row>
@@ -19545,18 +19566,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C43" s="30"/>
-      <c r="D43" s="258" t="s">
+      <c r="D43" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E43" s="259"/>
+      <c r="E43" s="265"/>
       <c r="F43" s="176">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="258"/>
-      <c r="H43" s="261"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="259"/>
+      <c r="G43" s="264"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="265"/>
       <c r="K43" s="105"/>
       <c r="L43" s="39"/>
       <c r="M43" s="32"/>
@@ -19593,12 +19614,12 @@
         <f>IF($D$3="English",$J$85,IF($D$3="中文 Chinese",$K$85,IF($D$3="日本語 Japanese",$L$85,IF($D$3="한국어 Korean",$M$85,IF($D$3="Français",$N$85,IF($D$3="Português",$O$85,IF($D$3="Deutsch",$P$85,IF($D$3="Español",$Q$85))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="H45" s="263" t="str">
+      <c r="H45" s="303" t="str">
         <f>IF(N45&gt;0,"Click here to enter smelter names","")</f>
         <v/>
       </c>
-      <c r="I45" s="263"/>
-      <c r="J45" s="263"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
       <c r="K45" s="105"/>
       <c r="L45" s="39"/>
       <c r="M45" s="32"/>
@@ -19610,18 +19631,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C46" s="34"/>
-      <c r="D46" s="258" t="s">
+      <c r="D46" s="264" t="s">
         <v>2455</v>
       </c>
-      <c r="E46" s="259"/>
+      <c r="E46" s="265"/>
       <c r="F46" s="176">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="258"/>
-      <c r="H46" s="261"/>
-      <c r="I46" s="261"/>
-      <c r="J46" s="259"/>
+      <c r="G46" s="264"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="267"/>
+      <c r="J46" s="265"/>
       <c r="K46" s="105"/>
       <c r="L46" s="39"/>
       <c r="M46" s="32"/>
@@ -19633,18 +19654,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C47" s="34"/>
-      <c r="D47" s="258" t="s">
+      <c r="D47" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E47" s="259"/>
+      <c r="E47" s="265"/>
       <c r="F47" s="176">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="258"/>
-      <c r="H47" s="261"/>
-      <c r="I47" s="261"/>
-      <c r="J47" s="259"/>
+      <c r="G47" s="264"/>
+      <c r="H47" s="267"/>
+      <c r="I47" s="267"/>
+      <c r="J47" s="265"/>
       <c r="K47" s="105"/>
       <c r="L47" s="39"/>
       <c r="M47" s="32"/>
@@ -19656,18 +19677,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="258" t="s">
+      <c r="D48" s="264" t="s">
         <v>2455</v>
       </c>
-      <c r="E48" s="259"/>
+      <c r="E48" s="265"/>
       <c r="F48" s="176">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="262"/>
-      <c r="H48" s="261"/>
-      <c r="I48" s="261"/>
-      <c r="J48" s="259"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="267"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="265"/>
       <c r="K48" s="105"/>
       <c r="L48" s="39"/>
       <c r="M48" s="32"/>
@@ -19679,18 +19700,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C49" s="34"/>
-      <c r="D49" s="258" t="s">
+      <c r="D49" s="264" t="s">
         <v>2455</v>
       </c>
-      <c r="E49" s="259"/>
+      <c r="E49" s="265"/>
       <c r="F49" s="176">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="258"/>
-      <c r="H49" s="261"/>
-      <c r="I49" s="261"/>
-      <c r="J49" s="259"/>
+      <c r="G49" s="264"/>
+      <c r="H49" s="267"/>
+      <c r="I49" s="267"/>
+      <c r="J49" s="265"/>
       <c r="K49" s="105"/>
       <c r="L49" s="39"/>
       <c r="M49" s="32"/>
@@ -19727,11 +19748,11 @@
         <f>IF($D$3="English",$J$85,IF($D$3="中文 Chinese",$K$85,IF($D$3="日本語 Japanese",$L$85,IF($D$3="한국어 Korean",$M$85,IF($D$3="Français",$N$85,IF($D$3="Português",$O$85,IF($D$3="Deutsch",$P$85,IF($D$3="Español",$Q$85))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="H51" s="265" t="s">
+      <c r="H51" s="305" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="265"/>
-      <c r="J51" s="265"/>
+      <c r="I51" s="305"/>
+      <c r="J51" s="305"/>
       <c r="K51" s="105"/>
       <c r="L51" s="39"/>
       <c r="M51" s="32"/>
@@ -19743,18 +19764,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="258" t="s">
+      <c r="D52" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E52" s="259"/>
+      <c r="E52" s="265"/>
       <c r="F52" s="178">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="258"/>
-      <c r="H52" s="261"/>
-      <c r="I52" s="261"/>
-      <c r="J52" s="259"/>
+      <c r="G52" s="264"/>
+      <c r="H52" s="267"/>
+      <c r="I52" s="267"/>
+      <c r="J52" s="265"/>
       <c r="K52" s="105"/>
       <c r="L52" s="39"/>
       <c r="M52" s="32"/>
@@ -19766,18 +19787,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C53" s="30"/>
-      <c r="D53" s="258" t="s">
+      <c r="D53" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E53" s="259"/>
+      <c r="E53" s="265"/>
       <c r="F53" s="178">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="258"/>
-      <c r="H53" s="261"/>
-      <c r="I53" s="261"/>
-      <c r="J53" s="259"/>
+      <c r="G53" s="264"/>
+      <c r="H53" s="267"/>
+      <c r="I53" s="267"/>
+      <c r="J53" s="265"/>
       <c r="K53" s="105"/>
       <c r="L53" s="39"/>
       <c r="M53" s="32"/>
@@ -19789,18 +19810,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C54" s="30"/>
-      <c r="D54" s="258" t="s">
+      <c r="D54" s="264" t="s">
         <v>2452</v>
       </c>
-      <c r="E54" s="259"/>
+      <c r="E54" s="265"/>
       <c r="F54" s="178">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="262"/>
-      <c r="H54" s="261"/>
-      <c r="I54" s="261"/>
-      <c r="J54" s="259"/>
+      <c r="G54" s="302"/>
+      <c r="H54" s="267"/>
+      <c r="I54" s="267"/>
+      <c r="J54" s="265"/>
       <c r="K54" s="105"/>
       <c r="L54" s="39"/>
       <c r="M54" s="32"/>
@@ -19812,18 +19833,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C55" s="154"/>
-      <c r="D55" s="258" t="s">
+      <c r="D55" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E55" s="259"/>
+      <c r="E55" s="265"/>
       <c r="F55" s="179">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="258"/>
-      <c r="H55" s="261"/>
-      <c r="I55" s="261"/>
-      <c r="J55" s="259"/>
+      <c r="G55" s="264"/>
+      <c r="H55" s="267"/>
+      <c r="I55" s="267"/>
+      <c r="J55" s="265"/>
       <c r="K55" s="160"/>
       <c r="L55" s="44"/>
     </row>
@@ -19843,18 +19864,18 @@
     </row>
     <row r="57" spans="1:13" ht="15">
       <c r="A57" s="33"/>
-      <c r="B57" s="260" t="str">
+      <c r="B57" s="307" t="str">
         <f>IF($D$3="English",B105,IF($D$3="中文 Chinese",C105,IF($D$3="日本語 Japanese",D105,IF($D$3="한국어 Korean",E105,IF($D$3="Français",F105,IF($D$3="Português",G105,IF($D$3="Deutsch",H105,IF($D$3="Español",I105))))))))</f>
         <v>Answer the Following Questions at a Company Level</v>
       </c>
-      <c r="C57" s="260"/>
-      <c r="D57" s="260"/>
-      <c r="E57" s="260"/>
-      <c r="F57" s="260"/>
-      <c r="G57" s="260"/>
-      <c r="H57" s="260"/>
-      <c r="I57" s="260"/>
-      <c r="J57" s="260"/>
+      <c r="C57" s="307"/>
+      <c r="D57" s="307"/>
+      <c r="E57" s="307"/>
+      <c r="F57" s="307"/>
+      <c r="G57" s="307"/>
+      <c r="H57" s="307"/>
+      <c r="I57" s="307"/>
+      <c r="J57" s="307"/>
       <c r="K57" s="105"/>
       <c r="L57" s="46"/>
     </row>
@@ -19871,12 +19892,12 @@
       </c>
       <c r="E58" s="157"/>
       <c r="F58" s="158"/>
-      <c r="G58" s="300" t="str">
+      <c r="G58" s="263" t="str">
         <f>IF($D$3="English",$J$90,IF($D$3="中文 Chinese",$K$90,IF($D$3="日本語 Japanese",$L$90,IF($D$3="한국어 Korean",$M$90,IF($D$3="Français",$N$90,IF($D$3="Português",$O$90,IF($D$3="Deutsch",$P$90,IF($D$3="Español",$Q$90))))))))</f>
         <v>Comments and Attachments</v>
       </c>
-      <c r="H58" s="300"/>
-      <c r="I58" s="300"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
       <c r="J58" s="51"/>
       <c r="K58" s="149"/>
       <c r="L58" s="48"/>
@@ -19889,15 +19910,15 @@
         <v>A. Do you have a policy in place that includes DRC conflict-free sourcing? (*)</v>
       </c>
       <c r="C59" s="47"/>
-      <c r="D59" s="258" t="s">
+      <c r="D59" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E59" s="259"/>
+      <c r="E59" s="265"/>
       <c r="F59" s="47"/>
-      <c r="G59" s="258"/>
-      <c r="H59" s="261"/>
-      <c r="I59" s="261"/>
-      <c r="J59" s="259"/>
+      <c r="G59" s="264"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="265"/>
       <c r="K59" s="105"/>
       <c r="L59" s="50"/>
       <c r="M59" s="32"/>
@@ -19909,10 +19930,10 @@
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="301"/>
-      <c r="H60" s="301"/>
-      <c r="I60" s="301"/>
-      <c r="J60" s="301"/>
+      <c r="G60" s="266"/>
+      <c r="H60" s="266"/>
+      <c r="I60" s="266"/>
+      <c r="J60" s="266"/>
       <c r="K60" s="105"/>
       <c r="L60" s="50"/>
       <c r="M60" s="32"/>
@@ -19924,15 +19945,15 @@
         <v>B. Is this policy publicly available on your website? (*)</v>
       </c>
       <c r="C61" s="47"/>
-      <c r="D61" s="258" t="s">
+      <c r="D61" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E61" s="259"/>
+      <c r="E61" s="265"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="258"/>
-      <c r="H61" s="261"/>
-      <c r="I61" s="261"/>
-      <c r="J61" s="259"/>
+      <c r="G61" s="264"/>
+      <c r="H61" s="267"/>
+      <c r="I61" s="267"/>
+      <c r="J61" s="265"/>
       <c r="K61" s="105"/>
       <c r="L61" s="50"/>
       <c r="M61" s="32"/>
@@ -19959,15 +19980,15 @@
         <v>C. Do you require your direct suppliers to be DRC conflict-free? (*)</v>
       </c>
       <c r="C63" s="47"/>
-      <c r="D63" s="258" t="s">
+      <c r="D63" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E63" s="259"/>
+      <c r="E63" s="265"/>
       <c r="F63" s="47"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="261"/>
-      <c r="I63" s="261"/>
-      <c r="J63" s="259"/>
+      <c r="G63" s="264"/>
+      <c r="H63" s="267"/>
+      <c r="I63" s="267"/>
+      <c r="J63" s="265"/>
       <c r="K63" s="105"/>
       <c r="L63" s="50"/>
       <c r="M63" s="32"/>
@@ -19994,15 +20015,15 @@
         <v>D. Do you require your direct suppliers to source from smelters validated as compliant to a CFS protocol using the CFS Compliant Smelter List? (*)</v>
       </c>
       <c r="C65" s="47"/>
-      <c r="D65" s="258" t="s">
+      <c r="D65" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E65" s="259"/>
+      <c r="E65" s="265"/>
       <c r="F65" s="47"/>
-      <c r="G65" s="258"/>
-      <c r="H65" s="261"/>
-      <c r="I65" s="261"/>
-      <c r="J65" s="259"/>
+      <c r="G65" s="264"/>
+      <c r="H65" s="267"/>
+      <c r="I65" s="267"/>
+      <c r="J65" s="265"/>
       <c r="K65" s="105"/>
       <c r="L65" s="50"/>
       <c r="M65" s="32"/>
@@ -20029,15 +20050,15 @@
         <v>E. Have you implemented due diligence measures for conflict-free sourcing? (*)</v>
       </c>
       <c r="C67" s="47"/>
-      <c r="D67" s="258" t="s">
+      <c r="D67" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E67" s="259"/>
+      <c r="E67" s="265"/>
       <c r="F67" s="47"/>
-      <c r="G67" s="258"/>
-      <c r="H67" s="261"/>
-      <c r="I67" s="261"/>
-      <c r="J67" s="259"/>
+      <c r="G67" s="264"/>
+      <c r="H67" s="267"/>
+      <c r="I67" s="267"/>
+      <c r="J67" s="265"/>
       <c r="K67" s="105"/>
       <c r="L67" s="50"/>
       <c r="M67" s="32"/>
@@ -20064,15 +20085,15 @@
         <v>F. Do you request your suppliers to fill out this Conflict Minerals Reporting Template? (*)</v>
       </c>
       <c r="C69" s="47"/>
-      <c r="D69" s="258" t="s">
+      <c r="D69" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E69" s="259"/>
+      <c r="E69" s="265"/>
       <c r="F69" s="47"/>
-      <c r="G69" s="258"/>
-      <c r="H69" s="261"/>
-      <c r="I69" s="261"/>
-      <c r="J69" s="259"/>
+      <c r="G69" s="264"/>
+      <c r="H69" s="267"/>
+      <c r="I69" s="267"/>
+      <c r="J69" s="265"/>
       <c r="K69" s="105"/>
       <c r="L69" s="50"/>
       <c r="M69" s="32"/>
@@ -20084,10 +20105,10 @@
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="53"/>
-      <c r="G70" s="301"/>
-      <c r="H70" s="301"/>
-      <c r="I70" s="301"/>
-      <c r="J70" s="301"/>
+      <c r="G70" s="266"/>
+      <c r="H70" s="266"/>
+      <c r="I70" s="266"/>
+      <c r="J70" s="266"/>
       <c r="K70" s="105"/>
       <c r="L70" s="50"/>
       <c r="M70" s="32"/>
@@ -20099,15 +20120,15 @@
         <v>G. Do you request smelter names from your suppliers? (*)</v>
       </c>
       <c r="C71" s="47"/>
-      <c r="D71" s="258" t="s">
+      <c r="D71" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E71" s="259"/>
+      <c r="E71" s="265"/>
       <c r="F71" s="47"/>
-      <c r="G71" s="258"/>
-      <c r="H71" s="261"/>
-      <c r="I71" s="261"/>
-      <c r="J71" s="259"/>
+      <c r="G71" s="264"/>
+      <c r="H71" s="267"/>
+      <c r="I71" s="267"/>
+      <c r="J71" s="265"/>
       <c r="K71" s="105"/>
       <c r="L71" s="50"/>
       <c r="M71" s="32"/>
@@ -20119,10 +20140,10 @@
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
       <c r="F72" s="53"/>
-      <c r="G72" s="301"/>
-      <c r="H72" s="301"/>
-      <c r="I72" s="301"/>
-      <c r="J72" s="301"/>
+      <c r="G72" s="266"/>
+      <c r="H72" s="266"/>
+      <c r="I72" s="266"/>
+      <c r="J72" s="266"/>
       <c r="K72" s="105"/>
       <c r="L72" s="50"/>
       <c r="M72" s="32"/>
@@ -20134,15 +20155,15 @@
         <v>H. Do you verify due diligence information received from your suppliers? (*)</v>
       </c>
       <c r="C73" s="47"/>
-      <c r="D73" s="258" t="s">
+      <c r="D73" s="264" t="s">
         <v>1098</v>
       </c>
-      <c r="E73" s="259"/>
+      <c r="E73" s="265"/>
       <c r="F73" s="47"/>
-      <c r="G73" s="258"/>
-      <c r="H73" s="261"/>
-      <c r="I73" s="261"/>
-      <c r="J73" s="259"/>
+      <c r="G73" s="264"/>
+      <c r="H73" s="267"/>
+      <c r="I73" s="267"/>
+      <c r="J73" s="265"/>
       <c r="K73" s="105"/>
       <c r="L73" s="50"/>
       <c r="M73" s="32"/>
@@ -20169,17 +20190,17 @@
         <v>I. Does your verification process include corrective action management? (*)</v>
       </c>
       <c r="C75" s="47"/>
-      <c r="D75" s="258" t="s">
+      <c r="D75" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E75" s="259"/>
+      <c r="E75" s="265"/>
       <c r="F75" s="47"/>
-      <c r="G75" s="258" t="s">
+      <c r="G75" s="264" t="s">
         <v>2459</v>
       </c>
-      <c r="H75" s="261"/>
-      <c r="I75" s="261"/>
-      <c r="J75" s="259"/>
+      <c r="H75" s="267"/>
+      <c r="I75" s="267"/>
+      <c r="J75" s="265"/>
       <c r="K75" s="105"/>
       <c r="L75" s="50"/>
       <c r="M75" s="32"/>
@@ -20206,47 +20227,47 @@
         <v>J. Are you subject to the SEC Conflict Minerals disclosure requirement rule? (*)</v>
       </c>
       <c r="C77" s="47"/>
-      <c r="D77" s="258" t="s">
+      <c r="D77" s="264" t="s">
         <v>2451</v>
       </c>
-      <c r="E77" s="259"/>
+      <c r="E77" s="265"/>
       <c r="F77" s="47"/>
-      <c r="G77" s="258"/>
-      <c r="H77" s="261"/>
-      <c r="I77" s="261"/>
-      <c r="J77" s="259"/>
+      <c r="G77" s="264"/>
+      <c r="H77" s="267"/>
+      <c r="I77" s="267"/>
+      <c r="J77" s="265"/>
       <c r="K77" s="105"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="33"/>
-      <c r="B78" s="304" t="str">
+      <c r="B78" s="270" t="str">
         <f>IF(D8="","","Click here to check required fields completion")</f>
         <v>Click here to check required fields completion</v>
       </c>
-      <c r="C78" s="304"/>
-      <c r="D78" s="304"/>
-      <c r="E78" s="304"/>
-      <c r="F78" s="304"/>
-      <c r="G78" s="304"/>
-      <c r="H78" s="304"/>
-      <c r="I78" s="304"/>
-      <c r="J78" s="304"/>
+      <c r="C78" s="270"/>
+      <c r="D78" s="270"/>
+      <c r="E78" s="270"/>
+      <c r="F78" s="270"/>
+      <c r="G78" s="270"/>
+      <c r="H78" s="270"/>
+      <c r="I78" s="270"/>
+      <c r="J78" s="270"/>
       <c r="K78" s="105"/>
     </row>
     <row r="79" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A79" s="302" t="str">
+      <c r="A79" s="268" t="str">
         <f>IF($D$3="English",B116,IF($D$3="中文 Chinese",C116,IF($D$3="日本語 Japanese",D116,IF($D$3="한국어 Korean",E116,IF($D$3="Français",F116,IF($D$3="Português",G116,IF($D$3="Deutsch",H116,IF($D$3="Español",I116))))))))</f>
         <v>© 2011 Electronic Industry Citizenship Coalition, Incorporated and Global e-Sustainability Initiative. All rights reserved.</v>
       </c>
-      <c r="B79" s="303"/>
-      <c r="C79" s="303"/>
-      <c r="D79" s="303"/>
-      <c r="E79" s="303"/>
-      <c r="F79" s="303"/>
-      <c r="G79" s="303"/>
-      <c r="H79" s="303"/>
-      <c r="I79" s="303"/>
-      <c r="J79" s="303"/>
+      <c r="B79" s="269"/>
+      <c r="C79" s="269"/>
+      <c r="D79" s="269"/>
+      <c r="E79" s="269"/>
+      <c r="F79" s="269"/>
+      <c r="G79" s="269"/>
+      <c r="H79" s="269"/>
+      <c r="I79" s="269"/>
+      <c r="J79" s="269"/>
       <c r="K79" s="106"/>
     </row>
     <row r="80" spans="1:13" ht="13.5" thickTop="1">
@@ -20279,12 +20300,12 @@
       <c r="I81" s="31" t="s">
         <v>1429</v>
       </c>
-      <c r="J81" s="299" t="s">
+      <c r="J81" s="261" t="s">
         <v>1089</v>
       </c>
-      <c r="K81" s="288"/>
-      <c r="L81" s="288"/>
-      <c r="M81" s="288"/>
+      <c r="K81" s="262"/>
+      <c r="L81" s="262"/>
+      <c r="M81" s="262"/>
       <c r="O81" s="27"/>
       <c r="R81" s="76"/>
     </row>
@@ -21691,6 +21712,90 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="103">
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L8:L17"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="J81:M81"/>
     <mergeCell ref="G58:I58"/>
     <mergeCell ref="D77:E77"/>
@@ -21710,90 +21815,6 @@
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="G61:J61"/>
     <mergeCell ref="G63:J63"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L8:L17"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G54:J54"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D8">
@@ -22116,27 +22137,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" thickTop="1">
-      <c r="A1" s="305"/>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="307"/>
+      <c r="A1" s="308"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="310"/>
       <c r="Q1" s="111"/>
       <c r="R1" s="107"/>
     </row>
     <row r="2" spans="1:18" ht="27.6" customHeight="1">
-      <c r="A2" s="313"/>
-      <c r="B2" s="314" t="str">
+      <c r="A2" s="316"/>
+      <c r="B2" s="317" t="str">
         <f>IF($K$3="English",D1019,IF($K$3="中文 Chinese",E1019,IF($K$3="日本語 Japanese",F1019,IF($K$3="한국어 Korean",G1019,IF($K$3="Français",H1019,IF($K$3="Português",I1019,IF($K$3="Deutsch",J1019,IF($K$3="Español",K1019))))))))</f>
         <v>To begin:
 Step 1. Select Metal in column B
@@ -22144,37 +22165,37 @@
 Step 3. If dropdown selection is "Smelter Not Listed" complete columns D &amp; E
 Step 4. Enter all available smelter information in columns F thru N</v>
       </c>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
       <c r="E2" s="214"/>
       <c r="F2" s="214"/>
       <c r="G2" s="214"/>
       <c r="H2" s="215"/>
-      <c r="I2" s="311" t="str">
+      <c r="I2" s="314" t="str">
         <f>IF($K$3="English",D1018,IF($K$3="中文 Chinese",E1018,IF($K$3="日本語 Japanese",F1018,IF($K$3="한국어 Korean",G1018,IF($K$3="Français",H1018,IF($K$3="Português",I1018,IF($K$3="Deutsch",J1018,IF($K$3="Español",K1018))))))))</f>
         <v>Link to "CFS Compliant Smelter List"</v>
       </c>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315"/>
       <c r="O2" s="138"/>
       <c r="R2" s="111"/>
     </row>
     <row r="3" spans="1:18" ht="92.45" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="316"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
+      <c r="A3" s="316"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
       <c r="E3" s="216"/>
       <c r="F3" s="216"/>
       <c r="G3" s="216"/>
       <c r="H3" s="217"/>
-      <c r="I3" s="309" t="s">
+      <c r="I3" s="312" t="s">
         <v>1471</v>
       </c>
-      <c r="J3" s="310"/>
+      <c r="J3" s="313"/>
       <c r="K3" s="81" t="s">
         <v>1081</v>
       </c>
@@ -22186,7 +22207,7 @@
       <c r="O3" s="138"/>
     </row>
     <row r="4" spans="1:18" s="57" customFormat="1" ht="47.25">
-      <c r="A4" s="313"/>
+      <c r="A4" s="316"/>
       <c r="B4" s="80" t="str">
         <f>IF($K$3="English",D1005,IF($K$3="中文 Chinese",E1005,IF($K$3="日本語 Japanese",F1005,IF($K$3="한국어 Korean",G1005,IF($K$3="Français",H1005,IF($K$3="Português",I1005,IF($K$3="Deutsch",J1005,IF($K$3="Español",K1005))))))))</f>
         <v>Metal (*)</v>
@@ -47996,21 +48017,21 @@
     </row>
     <row r="1002" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1002" s="195"/>
-      <c r="B1002" s="308" t="s">
+      <c r="B1002" s="311" t="s">
         <v>36</v>
       </c>
-      <c r="C1002" s="308"/>
-      <c r="D1002" s="308"/>
-      <c r="E1002" s="308"/>
-      <c r="F1002" s="308"/>
-      <c r="G1002" s="308"/>
-      <c r="H1002" s="308"/>
-      <c r="I1002" s="308"/>
-      <c r="J1002" s="308"/>
-      <c r="K1002" s="308"/>
-      <c r="L1002" s="308"/>
-      <c r="M1002" s="308"/>
-      <c r="N1002" s="308"/>
+      <c r="C1002" s="311"/>
+      <c r="D1002" s="311"/>
+      <c r="E1002" s="311"/>
+      <c r="F1002" s="311"/>
+      <c r="G1002" s="311"/>
+      <c r="H1002" s="311"/>
+      <c r="I1002" s="311"/>
+      <c r="J1002" s="311"/>
+      <c r="K1002" s="311"/>
+      <c r="L1002" s="311"/>
+      <c r="M1002" s="311"/>
+      <c r="N1002" s="311"/>
       <c r="O1002" s="197"/>
     </row>
     <row r="1003" spans="1:15" ht="13.5" thickTop="1">
@@ -55926,13 +55947,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="91.9" customHeight="1">
-      <c r="A1" s="318" t="str">
+      <c r="A1" s="321" t="str">
         <f>IF(Declaration!$D$3="English",H2,IF(Declaration!$D$3="中文 Chinese",I2,IF(Declaration!$D$3="日本語 Japanese",J2,IF(Declaration!$D$3="한국어 Korean",K2,IF(Declaration!$D$3="Français",L2,IF(Declaration!$D$3="Português",M2,IF(Declaration!$D$3="Deutsch",N2,IF(Declaration!$D$3="Español",O2))))))))</f>
         <v>Note: The following list of smelter names does not represent the EICC-GeSI Conflict-Free Smelter (CFS) or all smelters worldwide.</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
       <c r="H1" s="170" t="s">
         <v>1081</v>
       </c>
@@ -60573,12 +60594,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="320" t="str">
+      <c r="A1" s="323" t="str">
         <f>IF(Declaration!$D$3="English",A104,IF(Declaration!$D$3="中文 Chinese",B104,IF(Declaration!$D$3="日本語 Japanese",C104,IF(Declaration!$D$3="한국어 Korean",D104,IF(Declaration!$D$3="Français",E104,IF(Declaration!$D$3="Português",F99,IF(Declaration!$D$3="Deutsch",G99,IF(Declaration!$D$3="Español",H99))))))))</f>
         <v>To ensure all required fields have been populated before submitting to your customers review form for any line items highlighted in red</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
       <c r="D1" s="112" t="str">
         <f>IF(Declaration!$D$3="English",A105,IF(Declaration!$D$3="中文 Chinese",B105,IF(Declaration!$D$3="日本語 Japanese",C105,IF(Declaration!$D$3="한국어 Korean",D105,IF(Declaration!$D$3="Français",E105,IF(Declaration!$D$3="Português",F100,IF(Declaration!$D$3="Deutsch",G100,IF(Declaration!$D$3="Español",H100))))))))</f>
         <v>Required fields remaining to be completed</v>
@@ -61603,17 +61624,17 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="38.25">
-      <c r="A50" s="200">
+      <c r="A50" s="200" t="str">
         <f>'Product List'!B6</f>
-        <v>0</v>
+        <v>ABCDEFG12345678</v>
       </c>
       <c r="B50" s="118" t="str">
         <f>IF('Product List'!B6="","No products or item numbers listed","One or more product / item numbers have been provided")</f>
-        <v>No products or item numbers listed</v>
+        <v>One or more product / item numbers have been provided</v>
       </c>
       <c r="C50" s="118" t="str">
         <f>IF(G50=1,"Completed","Must provide 1 or more Products or Item Numbers this declaration applies to.  From declaration tab select hyperlink in cellG16 to enter Product List tab")</f>
-        <v>Must provide 1 or more Products or Item Numbers this declaration applies to.  From declaration tab select hyperlink in cellG16 to enter Product List tab</v>
+        <v>Completed</v>
       </c>
       <c r="D50" s="119" t="str">
         <f>IF(H6=0,"",IF(C50="Completed","","Click here to enter detail on Product List tab"))</f>
@@ -61621,11 +61642,11 @@
       </c>
       <c r="F50" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="115">
         <f>IF(B50="One or more product / item numbers have been provided",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -61715,11 +61736,11 @@
       <c r="F57" s="174"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="F59" s="321" t="s">
+      <c r="F59" s="324" t="s">
         <v>2335</v>
       </c>
-      <c r="G59" s="321"/>
-      <c r="H59" s="321"/>
+      <c r="G59" s="324"/>
+      <c r="H59" s="324"/>
     </row>
     <row r="60" spans="1:10">
       <c r="F60" s="172" t="s">
@@ -61733,7 +61754,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="F61" s="322" t="s">
+      <c r="F61" s="325" t="s">
         <v>2337</v>
       </c>
       <c r="G61" s="115" t="s">
@@ -61744,7 +61765,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="F62" s="322"/>
+      <c r="F62" s="325"/>
       <c r="G62" s="115" t="s">
         <v>2341</v>
       </c>
@@ -61753,7 +61774,7 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="F63" s="322"/>
+      <c r="F63" s="325"/>
       <c r="G63" s="115" t="s">
         <v>2342</v>
       </c>
@@ -61762,7 +61783,7 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="F64" s="322"/>
+      <c r="F64" s="325"/>
       <c r="G64" s="115" t="s">
         <v>2343</v>
       </c>
@@ -61771,7 +61792,7 @@
       </c>
     </row>
     <row r="65" spans="6:8">
-      <c r="F65" s="322"/>
+      <c r="F65" s="325"/>
       <c r="G65" s="115" t="s">
         <v>2344</v>
       </c>
@@ -61780,7 +61801,7 @@
       </c>
     </row>
     <row r="66" spans="6:8">
-      <c r="F66" s="319" t="s">
+      <c r="F66" s="322" t="s">
         <v>1877</v>
       </c>
       <c r="G66" s="115" t="s">
@@ -61791,7 +61812,7 @@
       </c>
     </row>
     <row r="67" spans="6:8">
-      <c r="F67" s="319"/>
+      <c r="F67" s="322"/>
       <c r="G67" s="115" t="s">
         <v>2341</v>
       </c>
@@ -61800,7 +61821,7 @@
       </c>
     </row>
     <row r="68" spans="6:8" ht="12.6" customHeight="1">
-      <c r="F68" s="319"/>
+      <c r="F68" s="322"/>
       <c r="G68" s="115" t="s">
         <v>2342</v>
       </c>
@@ -61809,7 +61830,7 @@
       </c>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="319"/>
+      <c r="F69" s="322"/>
       <c r="G69" s="115" t="s">
         <v>2343</v>
       </c>
@@ -61818,7 +61839,7 @@
       </c>
     </row>
     <row r="70" spans="6:8">
-      <c r="F70" s="319"/>
+      <c r="F70" s="322"/>
       <c r="G70" s="115" t="s">
         <v>2344</v>
       </c>
@@ -61827,7 +61848,7 @@
       </c>
     </row>
     <row r="71" spans="6:8">
-      <c r="F71" s="319" t="s">
+      <c r="F71" s="322" t="s">
         <v>1878</v>
       </c>
       <c r="G71" s="115" t="s">
@@ -61838,7 +61859,7 @@
       </c>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="319"/>
+      <c r="F72" s="322"/>
       <c r="G72" s="115" t="s">
         <v>2341</v>
       </c>
@@ -61847,7 +61868,7 @@
       </c>
     </row>
     <row r="73" spans="6:8" ht="12.6" customHeight="1">
-      <c r="F73" s="319"/>
+      <c r="F73" s="322"/>
       <c r="G73" s="115" t="s">
         <v>2342</v>
       </c>
@@ -61856,7 +61877,7 @@
       </c>
     </row>
     <row r="74" spans="6:8">
-      <c r="F74" s="319"/>
+      <c r="F74" s="322"/>
       <c r="G74" s="115" t="s">
         <v>2343</v>
       </c>
@@ -61865,7 +61886,7 @@
       </c>
     </row>
     <row r="75" spans="6:8">
-      <c r="F75" s="319"/>
+      <c r="F75" s="322"/>
       <c r="G75" s="115" t="s">
         <v>2344</v>
       </c>
@@ -63023,8 +63044,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -63039,48 +63060,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.9" customHeight="1" thickTop="1">
-      <c r="A1" s="327" t="str">
+      <c r="A1" s="329" t="str">
         <f>IF(Declaration!$D$3="English",A304,IF(Declaration!$D$3="中文 Chinese",B304,IF(Declaration!$D$3="日本語 Japanese",C304,IF(Declaration!$D$3="한국어 Korean",D304,IF(Declaration!$D$3="Français",E304,IF(Declaration!$D$3="Português",F304,IF(Declaration!$D$3="Deutsch",G304,IF(Declaration!$D$3="Español",H304))))))))</f>
         <v>Completion required only if reporting level "Product-level" selected on the 'Declaration' tab.</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="329"/>
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="331"/>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="330"/>
-      <c r="B2" s="332"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="334"/>
+      <c r="A2" s="332"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="336"/>
       <c r="E2" s="128"/>
       <c r="F2" s="129"/>
-      <c r="G2" s="338"/>
+      <c r="G2" s="340"/>
     </row>
     <row r="3" spans="1:7" ht="63" customHeight="1">
-      <c r="A3" s="330"/>
-      <c r="B3" s="335"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="337"/>
+      <c r="A3" s="332"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="339"/>
       <c r="E3" s="169"/>
       <c r="F3" s="130"/>
-      <c r="G3" s="338"/>
+      <c r="G3" s="340"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="330"/>
-      <c r="B4" s="275" t="s">
+      <c r="A4" s="332"/>
+      <c r="B4" s="289" t="s">
         <v>794</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="338"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="340"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="330"/>
+      <c r="A5" s="332"/>
       <c r="B5" s="185" t="str">
         <f>IF(Declaration!$D$3="English",A305,IF(Declaration!$D$3="中文 Chinese",B305,IF(Declaration!$D$3="日本語 Japanese",C305,IF(Declaration!$D$3="한국어 Korean",D305,IF(Declaration!$D$3="Français",E305,IF(Declaration!$D$3="Português",F305,IF(Declaration!$D$3="Deutsch",G305,IF(Declaration!$D$3="Español",H305))))))))</f>
         <v>Product or Item Number (*)</v>
@@ -63089,2679 +63110,2685 @@
         <f>IF(Declaration!$D$3="English",A306,IF(Declaration!$D$3="中文 Chinese",B306,IF(Declaration!$D$3="日本語 Japanese",C306,IF(Declaration!$D$3="한국어 Korean",D306,IF(Declaration!$D$3="Français",E306,IF(Declaration!$D$3="Português",F306,IF(Declaration!$D$3="Deutsch",G306,IF(Declaration!$D$3="Español",H306))))))))</f>
         <v>Product or Item Description</v>
       </c>
-      <c r="D5" s="340" t="str">
+      <c r="D5" s="342" t="str">
         <f>IF(Declaration!$D$3="English",A307,IF(Declaration!$D$3="中文 Chinese",B307,IF(Declaration!$D$3="日本語 Japanese",C307,IF(Declaration!$D$3="한국어 Korean",D307,IF(Declaration!$D$3="Français",E307,IF(Declaration!$D$3="Português",F307,IF(Declaration!$D$3="Deutsch",G307,IF(Declaration!$D$3="Español",H307))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="338"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="340"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="330"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="338"/>
+      <c r="A6" s="332"/>
+      <c r="B6" s="186" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D6" s="228" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E6" s="229"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="340"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="330"/>
+      <c r="A7" s="332"/>
       <c r="B7" s="186"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="338"/>
+      <c r="D7" s="326"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="340"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="330"/>
+      <c r="A8" s="332"/>
       <c r="B8" s="186"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="338"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="328"/>
+      <c r="G8" s="340"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="330"/>
+      <c r="A9" s="332"/>
       <c r="B9" s="186"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="323"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="338"/>
+      <c r="D9" s="326"/>
+      <c r="E9" s="327"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="340"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="330"/>
+      <c r="A10" s="332"/>
       <c r="B10" s="186"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="323"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="325"/>
-      <c r="G10" s="338"/>
+      <c r="D10" s="326"/>
+      <c r="E10" s="327"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="340"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="330"/>
+      <c r="A11" s="332"/>
       <c r="B11" s="186"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="325"/>
-      <c r="G11" s="338"/>
+      <c r="D11" s="326"/>
+      <c r="E11" s="327"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="340"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="330"/>
+      <c r="A12" s="332"/>
       <c r="B12" s="186"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="338"/>
+      <c r="D12" s="326"/>
+      <c r="E12" s="327"/>
+      <c r="F12" s="328"/>
+      <c r="G12" s="340"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" s="330"/>
+      <c r="A13" s="332"/>
       <c r="B13" s="186"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="323"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="325"/>
-      <c r="G13" s="338"/>
+      <c r="D13" s="326"/>
+      <c r="E13" s="327"/>
+      <c r="F13" s="328"/>
+      <c r="G13" s="340"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="330"/>
+      <c r="A14" s="332"/>
       <c r="B14" s="186"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="323"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="338"/>
+      <c r="D14" s="326"/>
+      <c r="E14" s="327"/>
+      <c r="F14" s="328"/>
+      <c r="G14" s="340"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="330"/>
+      <c r="A15" s="332"/>
       <c r="B15" s="186"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="325"/>
-      <c r="G15" s="338"/>
+      <c r="D15" s="326"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="340"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="330"/>
+      <c r="A16" s="332"/>
       <c r="B16" s="186"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="323"/>
-      <c r="E16" s="324"/>
-      <c r="F16" s="325"/>
-      <c r="G16" s="338"/>
+      <c r="D16" s="326"/>
+      <c r="E16" s="327"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="340"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="330"/>
+      <c r="A17" s="332"/>
       <c r="B17" s="186"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="323"/>
-      <c r="E17" s="324"/>
-      <c r="F17" s="325"/>
-      <c r="G17" s="338"/>
+      <c r="D17" s="326"/>
+      <c r="E17" s="327"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="340"/>
     </row>
     <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="330"/>
+      <c r="A18" s="332"/>
       <c r="B18" s="186"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="323"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="325"/>
-      <c r="G18" s="338"/>
+      <c r="D18" s="326"/>
+      <c r="E18" s="327"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="340"/>
     </row>
     <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="330"/>
+      <c r="A19" s="332"/>
       <c r="B19" s="186"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="323"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="325"/>
-      <c r="G19" s="338"/>
+      <c r="D19" s="326"/>
+      <c r="E19" s="327"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="340"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="330"/>
+      <c r="A20" s="332"/>
       <c r="B20" s="186"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="325"/>
-      <c r="G20" s="338"/>
+      <c r="D20" s="326"/>
+      <c r="E20" s="327"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="340"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="330"/>
+      <c r="A21" s="332"/>
       <c r="B21" s="186"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="323"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="325"/>
-      <c r="G21" s="338"/>
+      <c r="D21" s="326"/>
+      <c r="E21" s="327"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="340"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="330"/>
+      <c r="A22" s="332"/>
       <c r="B22" s="186"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="338"/>
+      <c r="D22" s="326"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="340"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="330"/>
+      <c r="A23" s="332"/>
       <c r="B23" s="186"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="323"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="325"/>
-      <c r="G23" s="338"/>
+      <c r="D23" s="326"/>
+      <c r="E23" s="327"/>
+      <c r="F23" s="328"/>
+      <c r="G23" s="340"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
-      <c r="A24" s="330"/>
+      <c r="A24" s="332"/>
       <c r="B24" s="186"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="323"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="325"/>
-      <c r="G24" s="338"/>
+      <c r="D24" s="326"/>
+      <c r="E24" s="327"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="340"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="330"/>
+      <c r="A25" s="332"/>
       <c r="B25" s="186"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="323"/>
-      <c r="E25" s="324"/>
-      <c r="F25" s="325"/>
-      <c r="G25" s="338"/>
+      <c r="D25" s="326"/>
+      <c r="E25" s="327"/>
+      <c r="F25" s="328"/>
+      <c r="G25" s="340"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
-      <c r="A26" s="330"/>
+      <c r="A26" s="332"/>
       <c r="B26" s="186"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="323"/>
-      <c r="E26" s="324"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="338"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="327"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="340"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
-      <c r="A27" s="330"/>
+      <c r="A27" s="332"/>
       <c r="B27" s="186"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="325"/>
-      <c r="G27" s="338"/>
+      <c r="D27" s="326"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="340"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="330"/>
+      <c r="A28" s="332"/>
       <c r="B28" s="186"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="325"/>
-      <c r="G28" s="338"/>
+      <c r="D28" s="326"/>
+      <c r="E28" s="327"/>
+      <c r="F28" s="328"/>
+      <c r="G28" s="340"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" s="330"/>
+      <c r="A29" s="332"/>
       <c r="B29" s="186"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="323"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="325"/>
-      <c r="G29" s="338"/>
+      <c r="D29" s="326"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="340"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
-      <c r="A30" s="330"/>
+      <c r="A30" s="332"/>
       <c r="B30" s="186"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="325"/>
-      <c r="G30" s="338"/>
+      <c r="D30" s="326"/>
+      <c r="E30" s="327"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="340"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
-      <c r="A31" s="330"/>
+      <c r="A31" s="332"/>
       <c r="B31" s="186"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="323"/>
-      <c r="E31" s="324"/>
-      <c r="F31" s="325"/>
-      <c r="G31" s="338"/>
+      <c r="D31" s="326"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="340"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
-      <c r="A32" s="330"/>
+      <c r="A32" s="332"/>
       <c r="B32" s="186"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="323"/>
-      <c r="E32" s="324"/>
-      <c r="F32" s="325"/>
-      <c r="G32" s="338"/>
+      <c r="D32" s="326"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="340"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
-      <c r="A33" s="330"/>
+      <c r="A33" s="332"/>
       <c r="B33" s="186"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="323"/>
-      <c r="E33" s="324"/>
-      <c r="F33" s="325"/>
-      <c r="G33" s="338"/>
+      <c r="D33" s="326"/>
+      <c r="E33" s="327"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="340"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
-      <c r="A34" s="330"/>
+      <c r="A34" s="332"/>
       <c r="B34" s="186"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="323"/>
-      <c r="E34" s="324"/>
-      <c r="F34" s="325"/>
-      <c r="G34" s="338"/>
+      <c r="D34" s="326"/>
+      <c r="E34" s="327"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="340"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
-      <c r="A35" s="330"/>
+      <c r="A35" s="332"/>
       <c r="B35" s="186"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="323"/>
-      <c r="E35" s="324"/>
-      <c r="F35" s="325"/>
-      <c r="G35" s="338"/>
+      <c r="D35" s="326"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="340"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
-      <c r="A36" s="330"/>
+      <c r="A36" s="332"/>
       <c r="B36" s="186"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="323"/>
-      <c r="E36" s="324"/>
-      <c r="F36" s="325"/>
-      <c r="G36" s="338"/>
+      <c r="D36" s="326"/>
+      <c r="E36" s="327"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="340"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
-      <c r="A37" s="330"/>
+      <c r="A37" s="332"/>
       <c r="B37" s="186"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="323"/>
-      <c r="E37" s="324"/>
-      <c r="F37" s="325"/>
-      <c r="G37" s="338"/>
+      <c r="D37" s="326"/>
+      <c r="E37" s="327"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="340"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
-      <c r="A38" s="330"/>
+      <c r="A38" s="332"/>
       <c r="B38" s="186"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="323"/>
-      <c r="E38" s="324"/>
-      <c r="F38" s="325"/>
-      <c r="G38" s="338"/>
+      <c r="D38" s="326"/>
+      <c r="E38" s="327"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="340"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
-      <c r="A39" s="330"/>
+      <c r="A39" s="332"/>
       <c r="B39" s="186"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="323"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="325"/>
-      <c r="G39" s="338"/>
+      <c r="D39" s="326"/>
+      <c r="E39" s="327"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="340"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="330"/>
+      <c r="A40" s="332"/>
       <c r="B40" s="186"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="323"/>
-      <c r="E40" s="324"/>
-      <c r="F40" s="325"/>
-      <c r="G40" s="338"/>
+      <c r="D40" s="326"/>
+      <c r="E40" s="327"/>
+      <c r="F40" s="328"/>
+      <c r="G40" s="340"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
-      <c r="A41" s="330"/>
+      <c r="A41" s="332"/>
       <c r="B41" s="186"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="323"/>
-      <c r="E41" s="324"/>
-      <c r="F41" s="325"/>
-      <c r="G41" s="338"/>
+      <c r="D41" s="326"/>
+      <c r="E41" s="327"/>
+      <c r="F41" s="328"/>
+      <c r="G41" s="340"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
-      <c r="A42" s="330"/>
+      <c r="A42" s="332"/>
       <c r="B42" s="186"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="323"/>
-      <c r="E42" s="324"/>
-      <c r="F42" s="325"/>
-      <c r="G42" s="338"/>
+      <c r="D42" s="326"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="340"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
-      <c r="A43" s="330"/>
+      <c r="A43" s="332"/>
       <c r="B43" s="186"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="323"/>
-      <c r="E43" s="324"/>
-      <c r="F43" s="325"/>
-      <c r="G43" s="338"/>
+      <c r="D43" s="326"/>
+      <c r="E43" s="327"/>
+      <c r="F43" s="328"/>
+      <c r="G43" s="340"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
-      <c r="A44" s="330"/>
+      <c r="A44" s="332"/>
       <c r="B44" s="186"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="323"/>
-      <c r="E44" s="324"/>
-      <c r="F44" s="325"/>
-      <c r="G44" s="338"/>
+      <c r="D44" s="326"/>
+      <c r="E44" s="327"/>
+      <c r="F44" s="328"/>
+      <c r="G44" s="340"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
-      <c r="A45" s="330"/>
+      <c r="A45" s="332"/>
       <c r="B45" s="186"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="323"/>
-      <c r="E45" s="324"/>
-      <c r="F45" s="325"/>
-      <c r="G45" s="338"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="327"/>
+      <c r="F45" s="328"/>
+      <c r="G45" s="340"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
-      <c r="A46" s="330"/>
+      <c r="A46" s="332"/>
       <c r="B46" s="186"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="323"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="325"/>
-      <c r="G46" s="338"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="327"/>
+      <c r="F46" s="328"/>
+      <c r="G46" s="340"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
-      <c r="A47" s="330"/>
+      <c r="A47" s="332"/>
       <c r="B47" s="186"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="323"/>
-      <c r="E47" s="324"/>
-      <c r="F47" s="325"/>
-      <c r="G47" s="338"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="327"/>
+      <c r="F47" s="328"/>
+      <c r="G47" s="340"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
-      <c r="A48" s="330"/>
+      <c r="A48" s="332"/>
       <c r="B48" s="186"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="323"/>
-      <c r="E48" s="324"/>
-      <c r="F48" s="325"/>
-      <c r="G48" s="338"/>
+      <c r="D48" s="326"/>
+      <c r="E48" s="327"/>
+      <c r="F48" s="328"/>
+      <c r="G48" s="340"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
-      <c r="A49" s="330"/>
+      <c r="A49" s="332"/>
       <c r="B49" s="186"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="323"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="325"/>
-      <c r="G49" s="338"/>
+      <c r="D49" s="326"/>
+      <c r="E49" s="327"/>
+      <c r="F49" s="328"/>
+      <c r="G49" s="340"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
-      <c r="A50" s="330"/>
+      <c r="A50" s="332"/>
       <c r="B50" s="186"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="323"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="325"/>
-      <c r="G50" s="338"/>
+      <c r="D50" s="326"/>
+      <c r="E50" s="327"/>
+      <c r="F50" s="328"/>
+      <c r="G50" s="340"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
-      <c r="A51" s="330"/>
+      <c r="A51" s="332"/>
       <c r="B51" s="186"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="323"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="325"/>
-      <c r="G51" s="338"/>
+      <c r="D51" s="326"/>
+      <c r="E51" s="327"/>
+      <c r="F51" s="328"/>
+      <c r="G51" s="340"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
-      <c r="A52" s="330"/>
+      <c r="A52" s="332"/>
       <c r="B52" s="186"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="323"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="325"/>
-      <c r="G52" s="338"/>
+      <c r="D52" s="326"/>
+      <c r="E52" s="327"/>
+      <c r="F52" s="328"/>
+      <c r="G52" s="340"/>
     </row>
     <row r="53" spans="1:7" ht="15.75">
-      <c r="A53" s="330"/>
+      <c r="A53" s="332"/>
       <c r="B53" s="186"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="323"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="325"/>
-      <c r="G53" s="338"/>
+      <c r="D53" s="326"/>
+      <c r="E53" s="327"/>
+      <c r="F53" s="328"/>
+      <c r="G53" s="340"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
-      <c r="A54" s="330"/>
+      <c r="A54" s="332"/>
       <c r="B54" s="186"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="323"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="325"/>
-      <c r="G54" s="338"/>
+      <c r="D54" s="326"/>
+      <c r="E54" s="327"/>
+      <c r="F54" s="328"/>
+      <c r="G54" s="340"/>
     </row>
     <row r="55" spans="1:7" ht="15.75">
-      <c r="A55" s="330"/>
+      <c r="A55" s="332"/>
       <c r="B55" s="186"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="323"/>
-      <c r="E55" s="324"/>
-      <c r="F55" s="325"/>
-      <c r="G55" s="338"/>
+      <c r="D55" s="326"/>
+      <c r="E55" s="327"/>
+      <c r="F55" s="328"/>
+      <c r="G55" s="340"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
-      <c r="A56" s="330"/>
+      <c r="A56" s="332"/>
       <c r="B56" s="186"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="323"/>
-      <c r="E56" s="324"/>
-      <c r="F56" s="325"/>
-      <c r="G56" s="338"/>
+      <c r="D56" s="326"/>
+      <c r="E56" s="327"/>
+      <c r="F56" s="328"/>
+      <c r="G56" s="340"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
-      <c r="A57" s="330"/>
+      <c r="A57" s="332"/>
       <c r="B57" s="186"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="323"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="325"/>
-      <c r="G57" s="338"/>
+      <c r="D57" s="326"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="328"/>
+      <c r="G57" s="340"/>
     </row>
     <row r="58" spans="1:7" ht="15.75">
-      <c r="A58" s="330"/>
+      <c r="A58" s="332"/>
       <c r="B58" s="186"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="323"/>
-      <c r="E58" s="324"/>
-      <c r="F58" s="325"/>
-      <c r="G58" s="338"/>
+      <c r="D58" s="326"/>
+      <c r="E58" s="327"/>
+      <c r="F58" s="328"/>
+      <c r="G58" s="340"/>
     </row>
     <row r="59" spans="1:7" ht="15.75">
-      <c r="A59" s="330"/>
+      <c r="A59" s="332"/>
       <c r="B59" s="186"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="323"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="325"/>
-      <c r="G59" s="338"/>
+      <c r="D59" s="326"/>
+      <c r="E59" s="327"/>
+      <c r="F59" s="328"/>
+      <c r="G59" s="340"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
-      <c r="A60" s="330"/>
+      <c r="A60" s="332"/>
       <c r="B60" s="186"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="323"/>
-      <c r="E60" s="324"/>
-      <c r="F60" s="325"/>
-      <c r="G60" s="338"/>
+      <c r="D60" s="326"/>
+      <c r="E60" s="327"/>
+      <c r="F60" s="328"/>
+      <c r="G60" s="340"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
-      <c r="A61" s="330"/>
+      <c r="A61" s="332"/>
       <c r="B61" s="186"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="323"/>
-      <c r="E61" s="324"/>
-      <c r="F61" s="325"/>
-      <c r="G61" s="338"/>
+      <c r="D61" s="326"/>
+      <c r="E61" s="327"/>
+      <c r="F61" s="328"/>
+      <c r="G61" s="340"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
-      <c r="A62" s="330"/>
+      <c r="A62" s="332"/>
       <c r="B62" s="186"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="323"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="325"/>
-      <c r="G62" s="338"/>
+      <c r="D62" s="326"/>
+      <c r="E62" s="327"/>
+      <c r="F62" s="328"/>
+      <c r="G62" s="340"/>
     </row>
     <row r="63" spans="1:7" ht="15.75">
-      <c r="A63" s="330"/>
+      <c r="A63" s="332"/>
       <c r="B63" s="186"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="323"/>
-      <c r="E63" s="324"/>
-      <c r="F63" s="325"/>
-      <c r="G63" s="338"/>
+      <c r="D63" s="326"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="328"/>
+      <c r="G63" s="340"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
-      <c r="A64" s="330"/>
+      <c r="A64" s="332"/>
       <c r="B64" s="186"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="323"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="325"/>
-      <c r="G64" s="338"/>
+      <c r="D64" s="326"/>
+      <c r="E64" s="327"/>
+      <c r="F64" s="328"/>
+      <c r="G64" s="340"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
-      <c r="A65" s="330"/>
+      <c r="A65" s="332"/>
       <c r="B65" s="186"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="323"/>
-      <c r="E65" s="324"/>
-      <c r="F65" s="325"/>
-      <c r="G65" s="338"/>
+      <c r="D65" s="326"/>
+      <c r="E65" s="327"/>
+      <c r="F65" s="328"/>
+      <c r="G65" s="340"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
-      <c r="A66" s="330"/>
+      <c r="A66" s="332"/>
       <c r="B66" s="186"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="323"/>
-      <c r="E66" s="324"/>
-      <c r="F66" s="325"/>
-      <c r="G66" s="338"/>
+      <c r="D66" s="326"/>
+      <c r="E66" s="327"/>
+      <c r="F66" s="328"/>
+      <c r="G66" s="340"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
-      <c r="A67" s="330"/>
+      <c r="A67" s="332"/>
       <c r="B67" s="186"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="323"/>
-      <c r="E67" s="324"/>
-      <c r="F67" s="325"/>
-      <c r="G67" s="338"/>
+      <c r="D67" s="326"/>
+      <c r="E67" s="327"/>
+      <c r="F67" s="328"/>
+      <c r="G67" s="340"/>
     </row>
     <row r="68" spans="1:7" ht="15.75">
-      <c r="A68" s="330"/>
+      <c r="A68" s="332"/>
       <c r="B68" s="186"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="323"/>
-      <c r="E68" s="324"/>
-      <c r="F68" s="325"/>
-      <c r="G68" s="338"/>
+      <c r="D68" s="326"/>
+      <c r="E68" s="327"/>
+      <c r="F68" s="328"/>
+      <c r="G68" s="340"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
-      <c r="A69" s="330"/>
+      <c r="A69" s="332"/>
       <c r="B69" s="186"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="323"/>
-      <c r="E69" s="324"/>
-      <c r="F69" s="325"/>
-      <c r="G69" s="338"/>
+      <c r="D69" s="326"/>
+      <c r="E69" s="327"/>
+      <c r="F69" s="328"/>
+      <c r="G69" s="340"/>
     </row>
     <row r="70" spans="1:7" ht="15.75">
-      <c r="A70" s="330"/>
+      <c r="A70" s="332"/>
       <c r="B70" s="186"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="323"/>
-      <c r="E70" s="324"/>
-      <c r="F70" s="325"/>
-      <c r="G70" s="338"/>
+      <c r="D70" s="326"/>
+      <c r="E70" s="327"/>
+      <c r="F70" s="328"/>
+      <c r="G70" s="340"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
-      <c r="A71" s="330"/>
+      <c r="A71" s="332"/>
       <c r="B71" s="186"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="323"/>
-      <c r="E71" s="324"/>
-      <c r="F71" s="325"/>
-      <c r="G71" s="338"/>
+      <c r="D71" s="326"/>
+      <c r="E71" s="327"/>
+      <c r="F71" s="328"/>
+      <c r="G71" s="340"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
-      <c r="A72" s="330"/>
+      <c r="A72" s="332"/>
       <c r="B72" s="186"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="323"/>
-      <c r="E72" s="324"/>
-      <c r="F72" s="325"/>
-      <c r="G72" s="338"/>
+      <c r="D72" s="326"/>
+      <c r="E72" s="327"/>
+      <c r="F72" s="328"/>
+      <c r="G72" s="340"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
-      <c r="A73" s="330"/>
+      <c r="A73" s="332"/>
       <c r="B73" s="186"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="323"/>
-      <c r="E73" s="324"/>
-      <c r="F73" s="325"/>
-      <c r="G73" s="338"/>
+      <c r="D73" s="326"/>
+      <c r="E73" s="327"/>
+      <c r="F73" s="328"/>
+      <c r="G73" s="340"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
-      <c r="A74" s="330"/>
+      <c r="A74" s="332"/>
       <c r="B74" s="186"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="323"/>
-      <c r="E74" s="324"/>
-      <c r="F74" s="325"/>
-      <c r="G74" s="338"/>
+      <c r="D74" s="326"/>
+      <c r="E74" s="327"/>
+      <c r="F74" s="328"/>
+      <c r="G74" s="340"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
-      <c r="A75" s="330"/>
+      <c r="A75" s="332"/>
       <c r="B75" s="186"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="323"/>
-      <c r="E75" s="324"/>
-      <c r="F75" s="325"/>
-      <c r="G75" s="338"/>
+      <c r="D75" s="326"/>
+      <c r="E75" s="327"/>
+      <c r="F75" s="328"/>
+      <c r="G75" s="340"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
-      <c r="A76" s="330"/>
+      <c r="A76" s="332"/>
       <c r="B76" s="186"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="323"/>
-      <c r="E76" s="324"/>
-      <c r="F76" s="325"/>
-      <c r="G76" s="338"/>
+      <c r="D76" s="326"/>
+      <c r="E76" s="327"/>
+      <c r="F76" s="328"/>
+      <c r="G76" s="340"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
-      <c r="A77" s="330"/>
+      <c r="A77" s="332"/>
       <c r="B77" s="186"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="323"/>
-      <c r="E77" s="324"/>
-      <c r="F77" s="325"/>
-      <c r="G77" s="338"/>
+      <c r="D77" s="326"/>
+      <c r="E77" s="327"/>
+      <c r="F77" s="328"/>
+      <c r="G77" s="340"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
-      <c r="A78" s="330"/>
+      <c r="A78" s="332"/>
       <c r="B78" s="186"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="323"/>
-      <c r="E78" s="324"/>
-      <c r="F78" s="325"/>
-      <c r="G78" s="338"/>
+      <c r="D78" s="326"/>
+      <c r="E78" s="327"/>
+      <c r="F78" s="328"/>
+      <c r="G78" s="340"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
-      <c r="A79" s="330"/>
+      <c r="A79" s="332"/>
       <c r="B79" s="186"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="323"/>
-      <c r="E79" s="324"/>
-      <c r="F79" s="325"/>
-      <c r="G79" s="338"/>
+      <c r="D79" s="326"/>
+      <c r="E79" s="327"/>
+      <c r="F79" s="328"/>
+      <c r="G79" s="340"/>
     </row>
     <row r="80" spans="1:7" ht="15.75">
-      <c r="A80" s="330"/>
+      <c r="A80" s="332"/>
       <c r="B80" s="186"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="323"/>
-      <c r="E80" s="324"/>
-      <c r="F80" s="325"/>
-      <c r="G80" s="338"/>
+      <c r="D80" s="326"/>
+      <c r="E80" s="327"/>
+      <c r="F80" s="328"/>
+      <c r="G80" s="340"/>
     </row>
     <row r="81" spans="1:7" ht="15.75">
-      <c r="A81" s="330"/>
+      <c r="A81" s="332"/>
       <c r="B81" s="186"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="323"/>
-      <c r="E81" s="324"/>
-      <c r="F81" s="325"/>
-      <c r="G81" s="338"/>
+      <c r="D81" s="326"/>
+      <c r="E81" s="327"/>
+      <c r="F81" s="328"/>
+      <c r="G81" s="340"/>
     </row>
     <row r="82" spans="1:7" ht="15.75">
-      <c r="A82" s="330"/>
+      <c r="A82" s="332"/>
       <c r="B82" s="186"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="323"/>
-      <c r="E82" s="324"/>
-      <c r="F82" s="325"/>
-      <c r="G82" s="338"/>
+      <c r="D82" s="326"/>
+      <c r="E82" s="327"/>
+      <c r="F82" s="328"/>
+      <c r="G82" s="340"/>
     </row>
     <row r="83" spans="1:7" ht="15.75">
-      <c r="A83" s="330"/>
+      <c r="A83" s="332"/>
       <c r="B83" s="186"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="323"/>
-      <c r="E83" s="324"/>
-      <c r="F83" s="325"/>
-      <c r="G83" s="338"/>
+      <c r="D83" s="326"/>
+      <c r="E83" s="327"/>
+      <c r="F83" s="328"/>
+      <c r="G83" s="340"/>
     </row>
     <row r="84" spans="1:7" ht="15.75">
-      <c r="A84" s="330"/>
+      <c r="A84" s="332"/>
       <c r="B84" s="186"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="323"/>
-      <c r="E84" s="324"/>
-      <c r="F84" s="325"/>
-      <c r="G84" s="338"/>
+      <c r="D84" s="326"/>
+      <c r="E84" s="327"/>
+      <c r="F84" s="328"/>
+      <c r="G84" s="340"/>
     </row>
     <row r="85" spans="1:7" ht="15.75">
-      <c r="A85" s="330"/>
+      <c r="A85" s="332"/>
       <c r="B85" s="186"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="323"/>
-      <c r="E85" s="324"/>
-      <c r="F85" s="325"/>
-      <c r="G85" s="338"/>
+      <c r="D85" s="326"/>
+      <c r="E85" s="327"/>
+      <c r="F85" s="328"/>
+      <c r="G85" s="340"/>
     </row>
     <row r="86" spans="1:7" ht="15.75">
-      <c r="A86" s="330"/>
+      <c r="A86" s="332"/>
       <c r="B86" s="186"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="323"/>
-      <c r="E86" s="324"/>
-      <c r="F86" s="325"/>
-      <c r="G86" s="338"/>
+      <c r="D86" s="326"/>
+      <c r="E86" s="327"/>
+      <c r="F86" s="328"/>
+      <c r="G86" s="340"/>
     </row>
     <row r="87" spans="1:7" ht="15.75">
-      <c r="A87" s="330"/>
+      <c r="A87" s="332"/>
       <c r="B87" s="186"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="323"/>
-      <c r="E87" s="324"/>
-      <c r="F87" s="325"/>
-      <c r="G87" s="338"/>
+      <c r="D87" s="326"/>
+      <c r="E87" s="327"/>
+      <c r="F87" s="328"/>
+      <c r="G87" s="340"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
-      <c r="A88" s="330"/>
+      <c r="A88" s="332"/>
       <c r="B88" s="186"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="323"/>
-      <c r="E88" s="324"/>
-      <c r="F88" s="325"/>
-      <c r="G88" s="338"/>
+      <c r="D88" s="326"/>
+      <c r="E88" s="327"/>
+      <c r="F88" s="328"/>
+      <c r="G88" s="340"/>
     </row>
     <row r="89" spans="1:7" ht="15.75">
-      <c r="A89" s="330"/>
+      <c r="A89" s="332"/>
       <c r="B89" s="186"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="323"/>
-      <c r="E89" s="324"/>
-      <c r="F89" s="325"/>
-      <c r="G89" s="338"/>
+      <c r="D89" s="326"/>
+      <c r="E89" s="327"/>
+      <c r="F89" s="328"/>
+      <c r="G89" s="340"/>
     </row>
     <row r="90" spans="1:7" ht="15.75">
-      <c r="A90" s="330"/>
+      <c r="A90" s="332"/>
       <c r="B90" s="186"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="323"/>
-      <c r="E90" s="324"/>
-      <c r="F90" s="325"/>
-      <c r="G90" s="338"/>
+      <c r="D90" s="326"/>
+      <c r="E90" s="327"/>
+      <c r="F90" s="328"/>
+      <c r="G90" s="340"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
-      <c r="A91" s="330"/>
+      <c r="A91" s="332"/>
       <c r="B91" s="186"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="323"/>
-      <c r="E91" s="324"/>
-      <c r="F91" s="325"/>
-      <c r="G91" s="338"/>
+      <c r="D91" s="326"/>
+      <c r="E91" s="327"/>
+      <c r="F91" s="328"/>
+      <c r="G91" s="340"/>
     </row>
     <row r="92" spans="1:7" ht="15.75">
-      <c r="A92" s="330"/>
+      <c r="A92" s="332"/>
       <c r="B92" s="186"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="323"/>
-      <c r="E92" s="324"/>
-      <c r="F92" s="325"/>
-      <c r="G92" s="338"/>
+      <c r="D92" s="326"/>
+      <c r="E92" s="327"/>
+      <c r="F92" s="328"/>
+      <c r="G92" s="340"/>
     </row>
     <row r="93" spans="1:7" ht="15.75">
-      <c r="A93" s="330"/>
+      <c r="A93" s="332"/>
       <c r="B93" s="186"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="323"/>
-      <c r="E93" s="324"/>
-      <c r="F93" s="325"/>
-      <c r="G93" s="338"/>
+      <c r="D93" s="326"/>
+      <c r="E93" s="327"/>
+      <c r="F93" s="328"/>
+      <c r="G93" s="340"/>
     </row>
     <row r="94" spans="1:7" ht="15.75">
-      <c r="A94" s="330"/>
+      <c r="A94" s="332"/>
       <c r="B94" s="186"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="323"/>
-      <c r="E94" s="324"/>
-      <c r="F94" s="325"/>
-      <c r="G94" s="338"/>
+      <c r="D94" s="326"/>
+      <c r="E94" s="327"/>
+      <c r="F94" s="328"/>
+      <c r="G94" s="340"/>
     </row>
     <row r="95" spans="1:7" ht="15.75">
-      <c r="A95" s="330"/>
+      <c r="A95" s="332"/>
       <c r="B95" s="186"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="323"/>
-      <c r="E95" s="324"/>
-      <c r="F95" s="325"/>
-      <c r="G95" s="338"/>
+      <c r="D95" s="326"/>
+      <c r="E95" s="327"/>
+      <c r="F95" s="328"/>
+      <c r="G95" s="340"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
-      <c r="A96" s="330"/>
+      <c r="A96" s="332"/>
       <c r="B96" s="186"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="323"/>
-      <c r="E96" s="324"/>
-      <c r="F96" s="325"/>
-      <c r="G96" s="338"/>
+      <c r="D96" s="326"/>
+      <c r="E96" s="327"/>
+      <c r="F96" s="328"/>
+      <c r="G96" s="340"/>
     </row>
     <row r="97" spans="1:7" ht="15.75">
-      <c r="A97" s="330"/>
+      <c r="A97" s="332"/>
       <c r="B97" s="186"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="323"/>
-      <c r="E97" s="324"/>
-      <c r="F97" s="325"/>
-      <c r="G97" s="338"/>
+      <c r="D97" s="326"/>
+      <c r="E97" s="327"/>
+      <c r="F97" s="328"/>
+      <c r="G97" s="340"/>
     </row>
     <row r="98" spans="1:7" ht="15.75">
-      <c r="A98" s="330"/>
+      <c r="A98" s="332"/>
       <c r="B98" s="186"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="323"/>
-      <c r="E98" s="324"/>
-      <c r="F98" s="325"/>
-      <c r="G98" s="338"/>
+      <c r="D98" s="326"/>
+      <c r="E98" s="327"/>
+      <c r="F98" s="328"/>
+      <c r="G98" s="340"/>
     </row>
     <row r="99" spans="1:7" ht="15.75">
-      <c r="A99" s="330"/>
+      <c r="A99" s="332"/>
       <c r="B99" s="186"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="323"/>
-      <c r="E99" s="324"/>
-      <c r="F99" s="325"/>
-      <c r="G99" s="338"/>
+      <c r="D99" s="326"/>
+      <c r="E99" s="327"/>
+      <c r="F99" s="328"/>
+      <c r="G99" s="340"/>
     </row>
     <row r="100" spans="1:7" ht="15.75">
-      <c r="A100" s="330"/>
+      <c r="A100" s="332"/>
       <c r="B100" s="186"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="323"/>
-      <c r="E100" s="324"/>
-      <c r="F100" s="325"/>
-      <c r="G100" s="338"/>
+      <c r="D100" s="326"/>
+      <c r="E100" s="327"/>
+      <c r="F100" s="328"/>
+      <c r="G100" s="340"/>
     </row>
     <row r="101" spans="1:7" ht="15.75">
-      <c r="A101" s="330"/>
+      <c r="A101" s="332"/>
       <c r="B101" s="187"/>
       <c r="C101" s="58"/>
-      <c r="D101" s="323"/>
-      <c r="E101" s="324"/>
-      <c r="F101" s="325"/>
-      <c r="G101" s="338"/>
+      <c r="D101" s="326"/>
+      <c r="E101" s="327"/>
+      <c r="F101" s="328"/>
+      <c r="G101" s="340"/>
     </row>
     <row r="102" spans="1:7" ht="15.75">
-      <c r="A102" s="330"/>
+      <c r="A102" s="332"/>
       <c r="B102" s="187"/>
       <c r="C102" s="58"/>
-      <c r="D102" s="323"/>
-      <c r="E102" s="324"/>
-      <c r="F102" s="325"/>
-      <c r="G102" s="338"/>
+      <c r="D102" s="326"/>
+      <c r="E102" s="327"/>
+      <c r="F102" s="328"/>
+      <c r="G102" s="340"/>
     </row>
     <row r="103" spans="1:7" ht="15.75">
-      <c r="A103" s="330"/>
+      <c r="A103" s="332"/>
       <c r="B103" s="187"/>
       <c r="C103" s="58"/>
-      <c r="D103" s="323"/>
-      <c r="E103" s="324"/>
-      <c r="F103" s="325"/>
-      <c r="G103" s="338"/>
+      <c r="D103" s="326"/>
+      <c r="E103" s="327"/>
+      <c r="F103" s="328"/>
+      <c r="G103" s="340"/>
     </row>
     <row r="104" spans="1:7" ht="15.75">
-      <c r="A104" s="330"/>
+      <c r="A104" s="332"/>
       <c r="B104" s="187"/>
       <c r="C104" s="58"/>
-      <c r="D104" s="323"/>
-      <c r="E104" s="324"/>
-      <c r="F104" s="325"/>
-      <c r="G104" s="338"/>
+      <c r="D104" s="326"/>
+      <c r="E104" s="327"/>
+      <c r="F104" s="328"/>
+      <c r="G104" s="340"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="330"/>
+      <c r="A105" s="332"/>
       <c r="B105" s="187"/>
       <c r="C105" s="58"/>
-      <c r="D105" s="323"/>
-      <c r="E105" s="324"/>
-      <c r="F105" s="325"/>
-      <c r="G105" s="338"/>
+      <c r="D105" s="326"/>
+      <c r="E105" s="327"/>
+      <c r="F105" s="328"/>
+      <c r="G105" s="340"/>
     </row>
     <row r="106" spans="1:7" ht="15.75">
-      <c r="A106" s="330"/>
+      <c r="A106" s="332"/>
       <c r="B106" s="187"/>
       <c r="C106" s="58"/>
-      <c r="D106" s="323"/>
-      <c r="E106" s="324"/>
-      <c r="F106" s="325"/>
-      <c r="G106" s="338"/>
+      <c r="D106" s="326"/>
+      <c r="E106" s="327"/>
+      <c r="F106" s="328"/>
+      <c r="G106" s="340"/>
     </row>
     <row r="107" spans="1:7" ht="15.75">
-      <c r="A107" s="330"/>
+      <c r="A107" s="332"/>
       <c r="B107" s="187"/>
       <c r="C107" s="58"/>
-      <c r="D107" s="323"/>
-      <c r="E107" s="324"/>
-      <c r="F107" s="325"/>
-      <c r="G107" s="338"/>
+      <c r="D107" s="326"/>
+      <c r="E107" s="327"/>
+      <c r="F107" s="328"/>
+      <c r="G107" s="340"/>
     </row>
     <row r="108" spans="1:7" ht="15.75">
-      <c r="A108" s="330"/>
+      <c r="A108" s="332"/>
       <c r="B108" s="187"/>
       <c r="C108" s="58"/>
-      <c r="D108" s="323"/>
-      <c r="E108" s="324"/>
-      <c r="F108" s="325"/>
-      <c r="G108" s="338"/>
+      <c r="D108" s="326"/>
+      <c r="E108" s="327"/>
+      <c r="F108" s="328"/>
+      <c r="G108" s="340"/>
     </row>
     <row r="109" spans="1:7" ht="15.75">
-      <c r="A109" s="330"/>
+      <c r="A109" s="332"/>
       <c r="B109" s="187"/>
       <c r="C109" s="58"/>
-      <c r="D109" s="323"/>
-      <c r="E109" s="324"/>
-      <c r="F109" s="325"/>
-      <c r="G109" s="338"/>
+      <c r="D109" s="326"/>
+      <c r="E109" s="327"/>
+      <c r="F109" s="328"/>
+      <c r="G109" s="340"/>
     </row>
     <row r="110" spans="1:7" ht="15.75">
-      <c r="A110" s="330"/>
+      <c r="A110" s="332"/>
       <c r="B110" s="187"/>
       <c r="C110" s="58"/>
-      <c r="D110" s="323"/>
-      <c r="E110" s="324"/>
-      <c r="F110" s="325"/>
-      <c r="G110" s="338"/>
+      <c r="D110" s="326"/>
+      <c r="E110" s="327"/>
+      <c r="F110" s="328"/>
+      <c r="G110" s="340"/>
     </row>
     <row r="111" spans="1:7" ht="15.75">
-      <c r="A111" s="330"/>
+      <c r="A111" s="332"/>
       <c r="B111" s="187"/>
       <c r="C111" s="58"/>
-      <c r="D111" s="323"/>
-      <c r="E111" s="324"/>
-      <c r="F111" s="325"/>
-      <c r="G111" s="338"/>
+      <c r="D111" s="326"/>
+      <c r="E111" s="327"/>
+      <c r="F111" s="328"/>
+      <c r="G111" s="340"/>
     </row>
     <row r="112" spans="1:7" ht="15.75">
-      <c r="A112" s="330"/>
+      <c r="A112" s="332"/>
       <c r="B112" s="187"/>
       <c r="C112" s="58"/>
-      <c r="D112" s="323"/>
-      <c r="E112" s="324"/>
-      <c r="F112" s="325"/>
-      <c r="G112" s="338"/>
+      <c r="D112" s="326"/>
+      <c r="E112" s="327"/>
+      <c r="F112" s="328"/>
+      <c r="G112" s="340"/>
     </row>
     <row r="113" spans="1:7" ht="15.75">
-      <c r="A113" s="330"/>
+      <c r="A113" s="332"/>
       <c r="B113" s="187"/>
       <c r="C113" s="58"/>
-      <c r="D113" s="323"/>
-      <c r="E113" s="324"/>
-      <c r="F113" s="325"/>
-      <c r="G113" s="338"/>
+      <c r="D113" s="326"/>
+      <c r="E113" s="327"/>
+      <c r="F113" s="328"/>
+      <c r="G113" s="340"/>
     </row>
     <row r="114" spans="1:7" ht="15.75">
-      <c r="A114" s="330"/>
+      <c r="A114" s="332"/>
       <c r="B114" s="187"/>
       <c r="C114" s="58"/>
-      <c r="D114" s="323"/>
-      <c r="E114" s="324"/>
-      <c r="F114" s="325"/>
-      <c r="G114" s="338"/>
+      <c r="D114" s="326"/>
+      <c r="E114" s="327"/>
+      <c r="F114" s="328"/>
+      <c r="G114" s="340"/>
     </row>
     <row r="115" spans="1:7" ht="15.75">
-      <c r="A115" s="330"/>
+      <c r="A115" s="332"/>
       <c r="B115" s="187"/>
       <c r="C115" s="58"/>
-      <c r="D115" s="323"/>
-      <c r="E115" s="324"/>
-      <c r="F115" s="325"/>
-      <c r="G115" s="338"/>
+      <c r="D115" s="326"/>
+      <c r="E115" s="327"/>
+      <c r="F115" s="328"/>
+      <c r="G115" s="340"/>
     </row>
     <row r="116" spans="1:7" ht="15.75">
-      <c r="A116" s="330"/>
+      <c r="A116" s="332"/>
       <c r="B116" s="187"/>
       <c r="C116" s="58"/>
-      <c r="D116" s="323"/>
-      <c r="E116" s="324"/>
-      <c r="F116" s="325"/>
-      <c r="G116" s="338"/>
+      <c r="D116" s="326"/>
+      <c r="E116" s="327"/>
+      <c r="F116" s="328"/>
+      <c r="G116" s="340"/>
     </row>
     <row r="117" spans="1:7" ht="15.75">
-      <c r="A117" s="330"/>
+      <c r="A117" s="332"/>
       <c r="B117" s="187"/>
       <c r="C117" s="58"/>
-      <c r="D117" s="323"/>
-      <c r="E117" s="324"/>
-      <c r="F117" s="325"/>
-      <c r="G117" s="338"/>
+      <c r="D117" s="326"/>
+      <c r="E117" s="327"/>
+      <c r="F117" s="328"/>
+      <c r="G117" s="340"/>
     </row>
     <row r="118" spans="1:7" ht="15.75">
-      <c r="A118" s="330"/>
+      <c r="A118" s="332"/>
       <c r="B118" s="187"/>
       <c r="C118" s="58"/>
-      <c r="D118" s="323"/>
-      <c r="E118" s="324"/>
-      <c r="F118" s="325"/>
-      <c r="G118" s="338"/>
+      <c r="D118" s="326"/>
+      <c r="E118" s="327"/>
+      <c r="F118" s="328"/>
+      <c r="G118" s="340"/>
     </row>
     <row r="119" spans="1:7" ht="15.75">
-      <c r="A119" s="330"/>
+      <c r="A119" s="332"/>
       <c r="B119" s="187"/>
       <c r="C119" s="58"/>
-      <c r="D119" s="323"/>
-      <c r="E119" s="324"/>
-      <c r="F119" s="325"/>
-      <c r="G119" s="338"/>
+      <c r="D119" s="326"/>
+      <c r="E119" s="327"/>
+      <c r="F119" s="328"/>
+      <c r="G119" s="340"/>
     </row>
     <row r="120" spans="1:7" ht="15.75">
-      <c r="A120" s="330"/>
+      <c r="A120" s="332"/>
       <c r="B120" s="187"/>
       <c r="C120" s="58"/>
-      <c r="D120" s="323"/>
-      <c r="E120" s="324"/>
-      <c r="F120" s="325"/>
-      <c r="G120" s="338"/>
+      <c r="D120" s="326"/>
+      <c r="E120" s="327"/>
+      <c r="F120" s="328"/>
+      <c r="G120" s="340"/>
     </row>
     <row r="121" spans="1:7" ht="15.75">
-      <c r="A121" s="330"/>
+      <c r="A121" s="332"/>
       <c r="B121" s="187"/>
       <c r="C121" s="58"/>
-      <c r="D121" s="323"/>
-      <c r="E121" s="324"/>
-      <c r="F121" s="325"/>
-      <c r="G121" s="338"/>
+      <c r="D121" s="326"/>
+      <c r="E121" s="327"/>
+      <c r="F121" s="328"/>
+      <c r="G121" s="340"/>
     </row>
     <row r="122" spans="1:7" ht="15.75">
-      <c r="A122" s="330"/>
+      <c r="A122" s="332"/>
       <c r="B122" s="187"/>
       <c r="C122" s="58"/>
-      <c r="D122" s="323"/>
-      <c r="E122" s="324"/>
-      <c r="F122" s="325"/>
-      <c r="G122" s="338"/>
+      <c r="D122" s="326"/>
+      <c r="E122" s="327"/>
+      <c r="F122" s="328"/>
+      <c r="G122" s="340"/>
     </row>
     <row r="123" spans="1:7" ht="15.75">
-      <c r="A123" s="330"/>
+      <c r="A123" s="332"/>
       <c r="B123" s="187"/>
       <c r="C123" s="58"/>
-      <c r="D123" s="323"/>
-      <c r="E123" s="324"/>
-      <c r="F123" s="325"/>
-      <c r="G123" s="338"/>
+      <c r="D123" s="326"/>
+      <c r="E123" s="327"/>
+      <c r="F123" s="328"/>
+      <c r="G123" s="340"/>
     </row>
     <row r="124" spans="1:7" ht="15.75">
-      <c r="A124" s="330"/>
+      <c r="A124" s="332"/>
       <c r="B124" s="187"/>
       <c r="C124" s="58"/>
-      <c r="D124" s="323"/>
-      <c r="E124" s="324"/>
-      <c r="F124" s="325"/>
-      <c r="G124" s="338"/>
+      <c r="D124" s="326"/>
+      <c r="E124" s="327"/>
+      <c r="F124" s="328"/>
+      <c r="G124" s="340"/>
     </row>
     <row r="125" spans="1:7" ht="15.75">
-      <c r="A125" s="330"/>
+      <c r="A125" s="332"/>
       <c r="B125" s="187"/>
       <c r="C125" s="58"/>
-      <c r="D125" s="323"/>
-      <c r="E125" s="324"/>
-      <c r="F125" s="325"/>
-      <c r="G125" s="338"/>
+      <c r="D125" s="326"/>
+      <c r="E125" s="327"/>
+      <c r="F125" s="328"/>
+      <c r="G125" s="340"/>
     </row>
     <row r="126" spans="1:7" ht="15.75">
-      <c r="A126" s="330"/>
+      <c r="A126" s="332"/>
       <c r="B126" s="187"/>
       <c r="C126" s="58"/>
-      <c r="D126" s="323"/>
-      <c r="E126" s="324"/>
-      <c r="F126" s="325"/>
-      <c r="G126" s="338"/>
+      <c r="D126" s="326"/>
+      <c r="E126" s="327"/>
+      <c r="F126" s="328"/>
+      <c r="G126" s="340"/>
     </row>
     <row r="127" spans="1:7" ht="15.75">
-      <c r="A127" s="330"/>
+      <c r="A127" s="332"/>
       <c r="B127" s="187"/>
       <c r="C127" s="58"/>
-      <c r="D127" s="323"/>
-      <c r="E127" s="324"/>
-      <c r="F127" s="325"/>
-      <c r="G127" s="338"/>
+      <c r="D127" s="326"/>
+      <c r="E127" s="327"/>
+      <c r="F127" s="328"/>
+      <c r="G127" s="340"/>
     </row>
     <row r="128" spans="1:7" ht="15.75">
-      <c r="A128" s="330"/>
+      <c r="A128" s="332"/>
       <c r="B128" s="187"/>
       <c r="C128" s="58"/>
-      <c r="D128" s="323"/>
-      <c r="E128" s="324"/>
-      <c r="F128" s="325"/>
-      <c r="G128" s="338"/>
+      <c r="D128" s="326"/>
+      <c r="E128" s="327"/>
+      <c r="F128" s="328"/>
+      <c r="G128" s="340"/>
     </row>
     <row r="129" spans="1:7" ht="15.75">
-      <c r="A129" s="330"/>
+      <c r="A129" s="332"/>
       <c r="B129" s="187"/>
       <c r="C129" s="58"/>
-      <c r="D129" s="323"/>
-      <c r="E129" s="324"/>
-      <c r="F129" s="325"/>
-      <c r="G129" s="338"/>
+      <c r="D129" s="326"/>
+      <c r="E129" s="327"/>
+      <c r="F129" s="328"/>
+      <c r="G129" s="340"/>
     </row>
     <row r="130" spans="1:7" ht="15.75">
-      <c r="A130" s="330"/>
+      <c r="A130" s="332"/>
       <c r="B130" s="187"/>
       <c r="C130" s="58"/>
-      <c r="D130" s="323"/>
-      <c r="E130" s="324"/>
-      <c r="F130" s="325"/>
-      <c r="G130" s="338"/>
+      <c r="D130" s="326"/>
+      <c r="E130" s="327"/>
+      <c r="F130" s="328"/>
+      <c r="G130" s="340"/>
     </row>
     <row r="131" spans="1:7" ht="15.75">
-      <c r="A131" s="330"/>
+      <c r="A131" s="332"/>
       <c r="B131" s="187"/>
       <c r="C131" s="58"/>
-      <c r="D131" s="323"/>
-      <c r="E131" s="324"/>
-      <c r="F131" s="325"/>
-      <c r="G131" s="338"/>
+      <c r="D131" s="326"/>
+      <c r="E131" s="327"/>
+      <c r="F131" s="328"/>
+      <c r="G131" s="340"/>
     </row>
     <row r="132" spans="1:7" ht="15.75">
-      <c r="A132" s="330"/>
+      <c r="A132" s="332"/>
       <c r="B132" s="187"/>
       <c r="C132" s="58"/>
-      <c r="D132" s="323"/>
-      <c r="E132" s="324"/>
-      <c r="F132" s="325"/>
-      <c r="G132" s="338"/>
+      <c r="D132" s="326"/>
+      <c r="E132" s="327"/>
+      <c r="F132" s="328"/>
+      <c r="G132" s="340"/>
     </row>
     <row r="133" spans="1:7" ht="15.75">
-      <c r="A133" s="330"/>
+      <c r="A133" s="332"/>
       <c r="B133" s="187"/>
       <c r="C133" s="58"/>
-      <c r="D133" s="323"/>
-      <c r="E133" s="324"/>
-      <c r="F133" s="325"/>
-      <c r="G133" s="338"/>
+      <c r="D133" s="326"/>
+      <c r="E133" s="327"/>
+      <c r="F133" s="328"/>
+      <c r="G133" s="340"/>
     </row>
     <row r="134" spans="1:7" ht="15.75">
-      <c r="A134" s="330"/>
+      <c r="A134" s="332"/>
       <c r="B134" s="187"/>
       <c r="C134" s="58"/>
-      <c r="D134" s="323"/>
-      <c r="E134" s="324"/>
-      <c r="F134" s="325"/>
-      <c r="G134" s="338"/>
+      <c r="D134" s="326"/>
+      <c r="E134" s="327"/>
+      <c r="F134" s="328"/>
+      <c r="G134" s="340"/>
     </row>
     <row r="135" spans="1:7" ht="15.75">
-      <c r="A135" s="330"/>
+      <c r="A135" s="332"/>
       <c r="B135" s="187"/>
       <c r="C135" s="58"/>
-      <c r="D135" s="323"/>
-      <c r="E135" s="324"/>
-      <c r="F135" s="325"/>
-      <c r="G135" s="338"/>
+      <c r="D135" s="326"/>
+      <c r="E135" s="327"/>
+      <c r="F135" s="328"/>
+      <c r="G135" s="340"/>
     </row>
     <row r="136" spans="1:7" ht="15.75">
-      <c r="A136" s="330"/>
+      <c r="A136" s="332"/>
       <c r="B136" s="187"/>
       <c r="C136" s="58"/>
-      <c r="D136" s="323"/>
-      <c r="E136" s="324"/>
-      <c r="F136" s="325"/>
-      <c r="G136" s="338"/>
+      <c r="D136" s="326"/>
+      <c r="E136" s="327"/>
+      <c r="F136" s="328"/>
+      <c r="G136" s="340"/>
     </row>
     <row r="137" spans="1:7" ht="15.75">
-      <c r="A137" s="330"/>
+      <c r="A137" s="332"/>
       <c r="B137" s="187"/>
       <c r="C137" s="58"/>
-      <c r="D137" s="323"/>
-      <c r="E137" s="324"/>
-      <c r="F137" s="325"/>
-      <c r="G137" s="338"/>
+      <c r="D137" s="326"/>
+      <c r="E137" s="327"/>
+      <c r="F137" s="328"/>
+      <c r="G137" s="340"/>
     </row>
     <row r="138" spans="1:7" ht="15.75">
-      <c r="A138" s="330"/>
+      <c r="A138" s="332"/>
       <c r="B138" s="187"/>
       <c r="C138" s="58"/>
-      <c r="D138" s="323"/>
-      <c r="E138" s="324"/>
-      <c r="F138" s="325"/>
-      <c r="G138" s="338"/>
+      <c r="D138" s="326"/>
+      <c r="E138" s="327"/>
+      <c r="F138" s="328"/>
+      <c r="G138" s="340"/>
     </row>
     <row r="139" spans="1:7" ht="15.75">
-      <c r="A139" s="330"/>
+      <c r="A139" s="332"/>
       <c r="B139" s="187"/>
       <c r="C139" s="58"/>
-      <c r="D139" s="323"/>
-      <c r="E139" s="324"/>
-      <c r="F139" s="325"/>
-      <c r="G139" s="338"/>
+      <c r="D139" s="326"/>
+      <c r="E139" s="327"/>
+      <c r="F139" s="328"/>
+      <c r="G139" s="340"/>
     </row>
     <row r="140" spans="1:7" ht="15.75">
-      <c r="A140" s="330"/>
+      <c r="A140" s="332"/>
       <c r="B140" s="187"/>
       <c r="C140" s="58"/>
-      <c r="D140" s="323"/>
-      <c r="E140" s="324"/>
-      <c r="F140" s="325"/>
-      <c r="G140" s="338"/>
+      <c r="D140" s="326"/>
+      <c r="E140" s="327"/>
+      <c r="F140" s="328"/>
+      <c r="G140" s="340"/>
     </row>
     <row r="141" spans="1:7" ht="15.75">
-      <c r="A141" s="330"/>
+      <c r="A141" s="332"/>
       <c r="B141" s="187"/>
       <c r="C141" s="58"/>
-      <c r="D141" s="323"/>
-      <c r="E141" s="324"/>
-      <c r="F141" s="325"/>
-      <c r="G141" s="338"/>
+      <c r="D141" s="326"/>
+      <c r="E141" s="327"/>
+      <c r="F141" s="328"/>
+      <c r="G141" s="340"/>
     </row>
     <row r="142" spans="1:7" ht="15.75">
-      <c r="A142" s="330"/>
+      <c r="A142" s="332"/>
       <c r="B142" s="187"/>
       <c r="C142" s="58"/>
-      <c r="D142" s="323"/>
-      <c r="E142" s="324"/>
-      <c r="F142" s="325"/>
-      <c r="G142" s="338"/>
+      <c r="D142" s="326"/>
+      <c r="E142" s="327"/>
+      <c r="F142" s="328"/>
+      <c r="G142" s="340"/>
     </row>
     <row r="143" spans="1:7" ht="15.75">
-      <c r="A143" s="330"/>
+      <c r="A143" s="332"/>
       <c r="B143" s="187"/>
       <c r="C143" s="58"/>
-      <c r="D143" s="323"/>
-      <c r="E143" s="324"/>
-      <c r="F143" s="325"/>
-      <c r="G143" s="338"/>
+      <c r="D143" s="326"/>
+      <c r="E143" s="327"/>
+      <c r="F143" s="328"/>
+      <c r="G143" s="340"/>
     </row>
     <row r="144" spans="1:7" ht="15.75">
-      <c r="A144" s="330"/>
+      <c r="A144" s="332"/>
       <c r="B144" s="187"/>
       <c r="C144" s="58"/>
-      <c r="D144" s="323"/>
-      <c r="E144" s="324"/>
-      <c r="F144" s="325"/>
-      <c r="G144" s="338"/>
+      <c r="D144" s="326"/>
+      <c r="E144" s="327"/>
+      <c r="F144" s="328"/>
+      <c r="G144" s="340"/>
     </row>
     <row r="145" spans="1:7" ht="15.75">
-      <c r="A145" s="330"/>
+      <c r="A145" s="332"/>
       <c r="B145" s="187"/>
       <c r="C145" s="58"/>
-      <c r="D145" s="323"/>
-      <c r="E145" s="324"/>
-      <c r="F145" s="325"/>
-      <c r="G145" s="338"/>
+      <c r="D145" s="326"/>
+      <c r="E145" s="327"/>
+      <c r="F145" s="328"/>
+      <c r="G145" s="340"/>
     </row>
     <row r="146" spans="1:7" ht="15.75">
-      <c r="A146" s="330"/>
+      <c r="A146" s="332"/>
       <c r="B146" s="187"/>
       <c r="C146" s="58"/>
-      <c r="D146" s="323"/>
-      <c r="E146" s="324"/>
-      <c r="F146" s="325"/>
-      <c r="G146" s="338"/>
+      <c r="D146" s="326"/>
+      <c r="E146" s="327"/>
+      <c r="F146" s="328"/>
+      <c r="G146" s="340"/>
     </row>
     <row r="147" spans="1:7" ht="15.75">
-      <c r="A147" s="330"/>
+      <c r="A147" s="332"/>
       <c r="B147" s="187"/>
       <c r="C147" s="58"/>
-      <c r="D147" s="323"/>
-      <c r="E147" s="324"/>
-      <c r="F147" s="325"/>
-      <c r="G147" s="338"/>
+      <c r="D147" s="326"/>
+      <c r="E147" s="327"/>
+      <c r="F147" s="328"/>
+      <c r="G147" s="340"/>
     </row>
     <row r="148" spans="1:7" ht="15.75">
-      <c r="A148" s="330"/>
+      <c r="A148" s="332"/>
       <c r="B148" s="187"/>
       <c r="C148" s="58"/>
-      <c r="D148" s="323"/>
-      <c r="E148" s="324"/>
-      <c r="F148" s="325"/>
-      <c r="G148" s="338"/>
+      <c r="D148" s="326"/>
+      <c r="E148" s="327"/>
+      <c r="F148" s="328"/>
+      <c r="G148" s="340"/>
     </row>
     <row r="149" spans="1:7" ht="15.75">
-      <c r="A149" s="330"/>
+      <c r="A149" s="332"/>
       <c r="B149" s="187"/>
       <c r="C149" s="58"/>
-      <c r="D149" s="323"/>
-      <c r="E149" s="324"/>
-      <c r="F149" s="325"/>
-      <c r="G149" s="338"/>
+      <c r="D149" s="326"/>
+      <c r="E149" s="327"/>
+      <c r="F149" s="328"/>
+      <c r="G149" s="340"/>
     </row>
     <row r="150" spans="1:7" ht="15.75">
-      <c r="A150" s="330"/>
+      <c r="A150" s="332"/>
       <c r="B150" s="187"/>
       <c r="C150" s="58"/>
-      <c r="D150" s="323"/>
-      <c r="E150" s="324"/>
-      <c r="F150" s="325"/>
-      <c r="G150" s="338"/>
+      <c r="D150" s="326"/>
+      <c r="E150" s="327"/>
+      <c r="F150" s="328"/>
+      <c r="G150" s="340"/>
     </row>
     <row r="151" spans="1:7" ht="15.75">
-      <c r="A151" s="330"/>
+      <c r="A151" s="332"/>
       <c r="B151" s="187"/>
       <c r="C151" s="58"/>
-      <c r="D151" s="323"/>
-      <c r="E151" s="324"/>
-      <c r="F151" s="325"/>
-      <c r="G151" s="338"/>
+      <c r="D151" s="326"/>
+      <c r="E151" s="327"/>
+      <c r="F151" s="328"/>
+      <c r="G151" s="340"/>
     </row>
     <row r="152" spans="1:7" ht="15.75">
-      <c r="A152" s="330"/>
+      <c r="A152" s="332"/>
       <c r="B152" s="187"/>
       <c r="C152" s="58"/>
-      <c r="D152" s="323"/>
-      <c r="E152" s="324"/>
-      <c r="F152" s="325"/>
-      <c r="G152" s="338"/>
+      <c r="D152" s="326"/>
+      <c r="E152" s="327"/>
+      <c r="F152" s="328"/>
+      <c r="G152" s="340"/>
     </row>
     <row r="153" spans="1:7" ht="15.75">
-      <c r="A153" s="330"/>
+      <c r="A153" s="332"/>
       <c r="B153" s="187"/>
       <c r="C153" s="58"/>
-      <c r="D153" s="323"/>
-      <c r="E153" s="324"/>
-      <c r="F153" s="325"/>
-      <c r="G153" s="338"/>
+      <c r="D153" s="326"/>
+      <c r="E153" s="327"/>
+      <c r="F153" s="328"/>
+      <c r="G153" s="340"/>
     </row>
     <row r="154" spans="1:7" ht="15.75">
-      <c r="A154" s="330"/>
+      <c r="A154" s="332"/>
       <c r="B154" s="187"/>
       <c r="C154" s="58"/>
-      <c r="D154" s="323"/>
-      <c r="E154" s="324"/>
-      <c r="F154" s="325"/>
-      <c r="G154" s="338"/>
+      <c r="D154" s="326"/>
+      <c r="E154" s="327"/>
+      <c r="F154" s="328"/>
+      <c r="G154" s="340"/>
     </row>
     <row r="155" spans="1:7" ht="15.75">
-      <c r="A155" s="330"/>
+      <c r="A155" s="332"/>
       <c r="B155" s="187"/>
       <c r="C155" s="58"/>
-      <c r="D155" s="323"/>
-      <c r="E155" s="324"/>
-      <c r="F155" s="325"/>
-      <c r="G155" s="338"/>
+      <c r="D155" s="326"/>
+      <c r="E155" s="327"/>
+      <c r="F155" s="328"/>
+      <c r="G155" s="340"/>
     </row>
     <row r="156" spans="1:7" ht="15.75">
-      <c r="A156" s="330"/>
+      <c r="A156" s="332"/>
       <c r="B156" s="187"/>
       <c r="C156" s="58"/>
-      <c r="D156" s="323"/>
-      <c r="E156" s="324"/>
-      <c r="F156" s="325"/>
-      <c r="G156" s="338"/>
+      <c r="D156" s="326"/>
+      <c r="E156" s="327"/>
+      <c r="F156" s="328"/>
+      <c r="G156" s="340"/>
     </row>
     <row r="157" spans="1:7" ht="15.75">
-      <c r="A157" s="330"/>
+      <c r="A157" s="332"/>
       <c r="B157" s="187"/>
       <c r="C157" s="58"/>
-      <c r="D157" s="323"/>
-      <c r="E157" s="324"/>
-      <c r="F157" s="325"/>
-      <c r="G157" s="338"/>
+      <c r="D157" s="326"/>
+      <c r="E157" s="327"/>
+      <c r="F157" s="328"/>
+      <c r="G157" s="340"/>
     </row>
     <row r="158" spans="1:7" ht="15.75">
-      <c r="A158" s="330"/>
+      <c r="A158" s="332"/>
       <c r="B158" s="187"/>
       <c r="C158" s="58"/>
-      <c r="D158" s="323"/>
-      <c r="E158" s="324"/>
-      <c r="F158" s="325"/>
-      <c r="G158" s="338"/>
+      <c r="D158" s="326"/>
+      <c r="E158" s="327"/>
+      <c r="F158" s="328"/>
+      <c r="G158" s="340"/>
     </row>
     <row r="159" spans="1:7" ht="15.75">
-      <c r="A159" s="330"/>
+      <c r="A159" s="332"/>
       <c r="B159" s="187"/>
       <c r="C159" s="58"/>
-      <c r="D159" s="323"/>
-      <c r="E159" s="324"/>
-      <c r="F159" s="325"/>
-      <c r="G159" s="338"/>
+      <c r="D159" s="326"/>
+      <c r="E159" s="327"/>
+      <c r="F159" s="328"/>
+      <c r="G159" s="340"/>
     </row>
     <row r="160" spans="1:7" ht="15.75">
-      <c r="A160" s="330"/>
+      <c r="A160" s="332"/>
       <c r="B160" s="187"/>
       <c r="C160" s="58"/>
-      <c r="D160" s="323"/>
-      <c r="E160" s="324"/>
-      <c r="F160" s="325"/>
-      <c r="G160" s="338"/>
+      <c r="D160" s="326"/>
+      <c r="E160" s="327"/>
+      <c r="F160" s="328"/>
+      <c r="G160" s="340"/>
     </row>
     <row r="161" spans="1:7" ht="15.75">
-      <c r="A161" s="330"/>
+      <c r="A161" s="332"/>
       <c r="B161" s="187"/>
       <c r="C161" s="58"/>
-      <c r="D161" s="323"/>
-      <c r="E161" s="324"/>
-      <c r="F161" s="325"/>
-      <c r="G161" s="338"/>
+      <c r="D161" s="326"/>
+      <c r="E161" s="327"/>
+      <c r="F161" s="328"/>
+      <c r="G161" s="340"/>
     </row>
     <row r="162" spans="1:7" ht="15.75">
-      <c r="A162" s="330"/>
+      <c r="A162" s="332"/>
       <c r="B162" s="187"/>
       <c r="C162" s="58"/>
-      <c r="D162" s="323"/>
-      <c r="E162" s="324"/>
-      <c r="F162" s="325"/>
-      <c r="G162" s="338"/>
+      <c r="D162" s="326"/>
+      <c r="E162" s="327"/>
+      <c r="F162" s="328"/>
+      <c r="G162" s="340"/>
     </row>
     <row r="163" spans="1:7" ht="15.75">
-      <c r="A163" s="330"/>
+      <c r="A163" s="332"/>
       <c r="B163" s="187"/>
       <c r="C163" s="58"/>
-      <c r="D163" s="323"/>
-      <c r="E163" s="324"/>
-      <c r="F163" s="325"/>
-      <c r="G163" s="338"/>
+      <c r="D163" s="326"/>
+      <c r="E163" s="327"/>
+      <c r="F163" s="328"/>
+      <c r="G163" s="340"/>
     </row>
     <row r="164" spans="1:7" ht="15.75">
-      <c r="A164" s="330"/>
+      <c r="A164" s="332"/>
       <c r="B164" s="187"/>
       <c r="C164" s="58"/>
-      <c r="D164" s="323"/>
-      <c r="E164" s="324"/>
-      <c r="F164" s="325"/>
-      <c r="G164" s="338"/>
+      <c r="D164" s="326"/>
+      <c r="E164" s="327"/>
+      <c r="F164" s="328"/>
+      <c r="G164" s="340"/>
     </row>
     <row r="165" spans="1:7" ht="15.75">
-      <c r="A165" s="330"/>
+      <c r="A165" s="332"/>
       <c r="B165" s="187"/>
       <c r="C165" s="58"/>
-      <c r="D165" s="323"/>
-      <c r="E165" s="324"/>
-      <c r="F165" s="325"/>
-      <c r="G165" s="338"/>
+      <c r="D165" s="326"/>
+      <c r="E165" s="327"/>
+      <c r="F165" s="328"/>
+      <c r="G165" s="340"/>
     </row>
     <row r="166" spans="1:7" ht="15.75">
-      <c r="A166" s="330"/>
+      <c r="A166" s="332"/>
       <c r="B166" s="187"/>
       <c r="C166" s="58"/>
-      <c r="D166" s="323"/>
-      <c r="E166" s="324"/>
-      <c r="F166" s="325"/>
-      <c r="G166" s="338"/>
+      <c r="D166" s="326"/>
+      <c r="E166" s="327"/>
+      <c r="F166" s="328"/>
+      <c r="G166" s="340"/>
     </row>
     <row r="167" spans="1:7" ht="15.75">
-      <c r="A167" s="330"/>
+      <c r="A167" s="332"/>
       <c r="B167" s="187"/>
       <c r="C167" s="58"/>
-      <c r="D167" s="323"/>
-      <c r="E167" s="324"/>
-      <c r="F167" s="325"/>
-      <c r="G167" s="338"/>
+      <c r="D167" s="326"/>
+      <c r="E167" s="327"/>
+      <c r="F167" s="328"/>
+      <c r="G167" s="340"/>
     </row>
     <row r="168" spans="1:7" ht="15.75">
-      <c r="A168" s="330"/>
+      <c r="A168" s="332"/>
       <c r="B168" s="187"/>
       <c r="C168" s="58"/>
-      <c r="D168" s="323"/>
-      <c r="E168" s="324"/>
-      <c r="F168" s="325"/>
-      <c r="G168" s="338"/>
+      <c r="D168" s="326"/>
+      <c r="E168" s="327"/>
+      <c r="F168" s="328"/>
+      <c r="G168" s="340"/>
     </row>
     <row r="169" spans="1:7" ht="15.75">
-      <c r="A169" s="330"/>
+      <c r="A169" s="332"/>
       <c r="B169" s="187"/>
       <c r="C169" s="58"/>
-      <c r="D169" s="323"/>
-      <c r="E169" s="324"/>
-      <c r="F169" s="325"/>
-      <c r="G169" s="338"/>
+      <c r="D169" s="326"/>
+      <c r="E169" s="327"/>
+      <c r="F169" s="328"/>
+      <c r="G169" s="340"/>
     </row>
     <row r="170" spans="1:7" ht="15.75">
-      <c r="A170" s="330"/>
+      <c r="A170" s="332"/>
       <c r="B170" s="187"/>
       <c r="C170" s="58"/>
-      <c r="D170" s="323"/>
-      <c r="E170" s="324"/>
-      <c r="F170" s="325"/>
-      <c r="G170" s="338"/>
+      <c r="D170" s="326"/>
+      <c r="E170" s="327"/>
+      <c r="F170" s="328"/>
+      <c r="G170" s="340"/>
     </row>
     <row r="171" spans="1:7" ht="15.75">
-      <c r="A171" s="330"/>
+      <c r="A171" s="332"/>
       <c r="B171" s="187"/>
       <c r="C171" s="58"/>
-      <c r="D171" s="323"/>
-      <c r="E171" s="324"/>
-      <c r="F171" s="325"/>
-      <c r="G171" s="338"/>
+      <c r="D171" s="326"/>
+      <c r="E171" s="327"/>
+      <c r="F171" s="328"/>
+      <c r="G171" s="340"/>
     </row>
     <row r="172" spans="1:7" ht="15.75">
-      <c r="A172" s="330"/>
+      <c r="A172" s="332"/>
       <c r="B172" s="187"/>
       <c r="C172" s="58"/>
-      <c r="D172" s="323"/>
-      <c r="E172" s="324"/>
-      <c r="F172" s="325"/>
-      <c r="G172" s="338"/>
+      <c r="D172" s="326"/>
+      <c r="E172" s="327"/>
+      <c r="F172" s="328"/>
+      <c r="G172" s="340"/>
     </row>
     <row r="173" spans="1:7" ht="15.75">
-      <c r="A173" s="330"/>
+      <c r="A173" s="332"/>
       <c r="B173" s="187"/>
       <c r="C173" s="58"/>
-      <c r="D173" s="323"/>
-      <c r="E173" s="324"/>
-      <c r="F173" s="325"/>
-      <c r="G173" s="338"/>
+      <c r="D173" s="326"/>
+      <c r="E173" s="327"/>
+      <c r="F173" s="328"/>
+      <c r="G173" s="340"/>
     </row>
     <row r="174" spans="1:7" ht="15.75">
-      <c r="A174" s="330"/>
+      <c r="A174" s="332"/>
       <c r="B174" s="187"/>
       <c r="C174" s="58"/>
-      <c r="D174" s="323"/>
-      <c r="E174" s="324"/>
-      <c r="F174" s="325"/>
-      <c r="G174" s="338"/>
+      <c r="D174" s="326"/>
+      <c r="E174" s="327"/>
+      <c r="F174" s="328"/>
+      <c r="G174" s="340"/>
     </row>
     <row r="175" spans="1:7" ht="15.75">
-      <c r="A175" s="330"/>
+      <c r="A175" s="332"/>
       <c r="B175" s="187"/>
       <c r="C175" s="58"/>
-      <c r="D175" s="323"/>
-      <c r="E175" s="324"/>
-      <c r="F175" s="325"/>
-      <c r="G175" s="338"/>
+      <c r="D175" s="326"/>
+      <c r="E175" s="327"/>
+      <c r="F175" s="328"/>
+      <c r="G175" s="340"/>
     </row>
     <row r="176" spans="1:7" ht="15.75">
-      <c r="A176" s="330"/>
+      <c r="A176" s="332"/>
       <c r="B176" s="187"/>
       <c r="C176" s="58"/>
-      <c r="D176" s="323"/>
-      <c r="E176" s="324"/>
-      <c r="F176" s="325"/>
-      <c r="G176" s="338"/>
+      <c r="D176" s="326"/>
+      <c r="E176" s="327"/>
+      <c r="F176" s="328"/>
+      <c r="G176" s="340"/>
     </row>
     <row r="177" spans="1:7" ht="15.75">
-      <c r="A177" s="330"/>
+      <c r="A177" s="332"/>
       <c r="B177" s="187"/>
       <c r="C177" s="58"/>
-      <c r="D177" s="323"/>
-      <c r="E177" s="324"/>
-      <c r="F177" s="325"/>
-      <c r="G177" s="338"/>
+      <c r="D177" s="326"/>
+      <c r="E177" s="327"/>
+      <c r="F177" s="328"/>
+      <c r="G177" s="340"/>
     </row>
     <row r="178" spans="1:7" ht="15.75">
-      <c r="A178" s="330"/>
+      <c r="A178" s="332"/>
       <c r="B178" s="187"/>
       <c r="C178" s="58"/>
-      <c r="D178" s="323"/>
-      <c r="E178" s="324"/>
-      <c r="F178" s="325"/>
-      <c r="G178" s="338"/>
+      <c r="D178" s="326"/>
+      <c r="E178" s="327"/>
+      <c r="F178" s="328"/>
+      <c r="G178" s="340"/>
     </row>
     <row r="179" spans="1:7" ht="15.75">
-      <c r="A179" s="330"/>
+      <c r="A179" s="332"/>
       <c r="B179" s="187"/>
       <c r="C179" s="58"/>
-      <c r="D179" s="323"/>
-      <c r="E179" s="324"/>
-      <c r="F179" s="325"/>
-      <c r="G179" s="338"/>
+      <c r="D179" s="326"/>
+      <c r="E179" s="327"/>
+      <c r="F179" s="328"/>
+      <c r="G179" s="340"/>
     </row>
     <row r="180" spans="1:7" ht="15.75">
-      <c r="A180" s="330"/>
+      <c r="A180" s="332"/>
       <c r="B180" s="187"/>
       <c r="C180" s="58"/>
-      <c r="D180" s="323"/>
-      <c r="E180" s="324"/>
-      <c r="F180" s="325"/>
-      <c r="G180" s="338"/>
+      <c r="D180" s="326"/>
+      <c r="E180" s="327"/>
+      <c r="F180" s="328"/>
+      <c r="G180" s="340"/>
     </row>
     <row r="181" spans="1:7" ht="15.75">
-      <c r="A181" s="330"/>
+      <c r="A181" s="332"/>
       <c r="B181" s="187"/>
       <c r="C181" s="58"/>
-      <c r="D181" s="323"/>
-      <c r="E181" s="324"/>
-      <c r="F181" s="325"/>
-      <c r="G181" s="338"/>
+      <c r="D181" s="326"/>
+      <c r="E181" s="327"/>
+      <c r="F181" s="328"/>
+      <c r="G181" s="340"/>
     </row>
     <row r="182" spans="1:7" ht="15.75">
-      <c r="A182" s="330"/>
+      <c r="A182" s="332"/>
       <c r="B182" s="187"/>
       <c r="C182" s="58"/>
-      <c r="D182" s="323"/>
-      <c r="E182" s="324"/>
-      <c r="F182" s="325"/>
-      <c r="G182" s="338"/>
+      <c r="D182" s="326"/>
+      <c r="E182" s="327"/>
+      <c r="F182" s="328"/>
+      <c r="G182" s="340"/>
     </row>
     <row r="183" spans="1:7" ht="15.75">
-      <c r="A183" s="330"/>
+      <c r="A183" s="332"/>
       <c r="B183" s="187"/>
       <c r="C183" s="58"/>
-      <c r="D183" s="323"/>
-      <c r="E183" s="324"/>
-      <c r="F183" s="325"/>
-      <c r="G183" s="338"/>
+      <c r="D183" s="326"/>
+      <c r="E183" s="327"/>
+      <c r="F183" s="328"/>
+      <c r="G183" s="340"/>
     </row>
     <row r="184" spans="1:7" ht="15.75">
-      <c r="A184" s="330"/>
+      <c r="A184" s="332"/>
       <c r="B184" s="187"/>
       <c r="C184" s="58"/>
-      <c r="D184" s="323"/>
-      <c r="E184" s="324"/>
-      <c r="F184" s="325"/>
-      <c r="G184" s="338"/>
+      <c r="D184" s="326"/>
+      <c r="E184" s="327"/>
+      <c r="F184" s="328"/>
+      <c r="G184" s="340"/>
     </row>
     <row r="185" spans="1:7" ht="15.75">
-      <c r="A185" s="330"/>
+      <c r="A185" s="332"/>
       <c r="B185" s="187"/>
       <c r="C185" s="58"/>
-      <c r="D185" s="323"/>
-      <c r="E185" s="324"/>
-      <c r="F185" s="325"/>
-      <c r="G185" s="338"/>
+      <c r="D185" s="326"/>
+      <c r="E185" s="327"/>
+      <c r="F185" s="328"/>
+      <c r="G185" s="340"/>
     </row>
     <row r="186" spans="1:7" ht="15.75">
-      <c r="A186" s="330"/>
+      <c r="A186" s="332"/>
       <c r="B186" s="187"/>
       <c r="C186" s="58"/>
-      <c r="D186" s="323"/>
-      <c r="E186" s="324"/>
-      <c r="F186" s="325"/>
-      <c r="G186" s="338"/>
+      <c r="D186" s="326"/>
+      <c r="E186" s="327"/>
+      <c r="F186" s="328"/>
+      <c r="G186" s="340"/>
     </row>
     <row r="187" spans="1:7" ht="15.75">
-      <c r="A187" s="330"/>
+      <c r="A187" s="332"/>
       <c r="B187" s="187"/>
       <c r="C187" s="58"/>
-      <c r="D187" s="323"/>
-      <c r="E187" s="324"/>
-      <c r="F187" s="325"/>
-      <c r="G187" s="338"/>
+      <c r="D187" s="326"/>
+      <c r="E187" s="327"/>
+      <c r="F187" s="328"/>
+      <c r="G187" s="340"/>
     </row>
     <row r="188" spans="1:7" ht="15.75">
-      <c r="A188" s="330"/>
+      <c r="A188" s="332"/>
       <c r="B188" s="187"/>
       <c r="C188" s="58"/>
-      <c r="D188" s="323"/>
-      <c r="E188" s="324"/>
-      <c r="F188" s="325"/>
-      <c r="G188" s="338"/>
+      <c r="D188" s="326"/>
+      <c r="E188" s="327"/>
+      <c r="F188" s="328"/>
+      <c r="G188" s="340"/>
     </row>
     <row r="189" spans="1:7" ht="15.75">
-      <c r="A189" s="330"/>
+      <c r="A189" s="332"/>
       <c r="B189" s="187"/>
       <c r="C189" s="58"/>
-      <c r="D189" s="323"/>
-      <c r="E189" s="324"/>
-      <c r="F189" s="325"/>
-      <c r="G189" s="338"/>
+      <c r="D189" s="326"/>
+      <c r="E189" s="327"/>
+      <c r="F189" s="328"/>
+      <c r="G189" s="340"/>
     </row>
     <row r="190" spans="1:7" ht="15.75">
-      <c r="A190" s="330"/>
+      <c r="A190" s="332"/>
       <c r="B190" s="187"/>
       <c r="C190" s="58"/>
-      <c r="D190" s="323"/>
-      <c r="E190" s="324"/>
-      <c r="F190" s="325"/>
-      <c r="G190" s="338"/>
+      <c r="D190" s="326"/>
+      <c r="E190" s="327"/>
+      <c r="F190" s="328"/>
+      <c r="G190" s="340"/>
     </row>
     <row r="191" spans="1:7" ht="15.75">
-      <c r="A191" s="330"/>
+      <c r="A191" s="332"/>
       <c r="B191" s="187"/>
       <c r="C191" s="58"/>
-      <c r="D191" s="323"/>
-      <c r="E191" s="324"/>
-      <c r="F191" s="325"/>
-      <c r="G191" s="338"/>
+      <c r="D191" s="326"/>
+      <c r="E191" s="327"/>
+      <c r="F191" s="328"/>
+      <c r="G191" s="340"/>
     </row>
     <row r="192" spans="1:7" ht="15.75">
-      <c r="A192" s="330"/>
+      <c r="A192" s="332"/>
       <c r="B192" s="187"/>
       <c r="C192" s="58"/>
-      <c r="D192" s="323"/>
-      <c r="E192" s="324"/>
-      <c r="F192" s="325"/>
-      <c r="G192" s="338"/>
+      <c r="D192" s="326"/>
+      <c r="E192" s="327"/>
+      <c r="F192" s="328"/>
+      <c r="G192" s="340"/>
     </row>
     <row r="193" spans="1:7" ht="15.75">
-      <c r="A193" s="330"/>
+      <c r="A193" s="332"/>
       <c r="B193" s="187"/>
       <c r="C193" s="58"/>
-      <c r="D193" s="323"/>
-      <c r="E193" s="324"/>
-      <c r="F193" s="325"/>
-      <c r="G193" s="338"/>
+      <c r="D193" s="326"/>
+      <c r="E193" s="327"/>
+      <c r="F193" s="328"/>
+      <c r="G193" s="340"/>
     </row>
     <row r="194" spans="1:7" ht="15.75">
-      <c r="A194" s="330"/>
+      <c r="A194" s="332"/>
       <c r="B194" s="187"/>
       <c r="C194" s="58"/>
-      <c r="D194" s="323"/>
-      <c r="E194" s="324"/>
-      <c r="F194" s="325"/>
-      <c r="G194" s="338"/>
+      <c r="D194" s="326"/>
+      <c r="E194" s="327"/>
+      <c r="F194" s="328"/>
+      <c r="G194" s="340"/>
     </row>
     <row r="195" spans="1:7" ht="15.75">
-      <c r="A195" s="330"/>
+      <c r="A195" s="332"/>
       <c r="B195" s="187"/>
       <c r="C195" s="58"/>
-      <c r="D195" s="323"/>
-      <c r="E195" s="324"/>
-      <c r="F195" s="325"/>
-      <c r="G195" s="338"/>
+      <c r="D195" s="326"/>
+      <c r="E195" s="327"/>
+      <c r="F195" s="328"/>
+      <c r="G195" s="340"/>
     </row>
     <row r="196" spans="1:7" ht="15.75">
-      <c r="A196" s="330"/>
+      <c r="A196" s="332"/>
       <c r="B196" s="187"/>
       <c r="C196" s="58"/>
-      <c r="D196" s="323"/>
-      <c r="E196" s="324"/>
-      <c r="F196" s="325"/>
-      <c r="G196" s="338"/>
+      <c r="D196" s="326"/>
+      <c r="E196" s="327"/>
+      <c r="F196" s="328"/>
+      <c r="G196" s="340"/>
     </row>
     <row r="197" spans="1:7" ht="15.75">
-      <c r="A197" s="330"/>
+      <c r="A197" s="332"/>
       <c r="B197" s="187"/>
       <c r="C197" s="58"/>
-      <c r="D197" s="323"/>
-      <c r="E197" s="324"/>
-      <c r="F197" s="325"/>
-      <c r="G197" s="338"/>
+      <c r="D197" s="326"/>
+      <c r="E197" s="327"/>
+      <c r="F197" s="328"/>
+      <c r="G197" s="340"/>
     </row>
     <row r="198" spans="1:7" ht="15.75">
-      <c r="A198" s="330"/>
+      <c r="A198" s="332"/>
       <c r="B198" s="187"/>
       <c r="C198" s="58"/>
-      <c r="D198" s="323"/>
-      <c r="E198" s="324"/>
-      <c r="F198" s="325"/>
-      <c r="G198" s="338"/>
+      <c r="D198" s="326"/>
+      <c r="E198" s="327"/>
+      <c r="F198" s="328"/>
+      <c r="G198" s="340"/>
     </row>
     <row r="199" spans="1:7" ht="15.75">
-      <c r="A199" s="330"/>
+      <c r="A199" s="332"/>
       <c r="B199" s="187"/>
       <c r="C199" s="58"/>
-      <c r="D199" s="323"/>
-      <c r="E199" s="324"/>
-      <c r="F199" s="325"/>
-      <c r="G199" s="338"/>
+      <c r="D199" s="326"/>
+      <c r="E199" s="327"/>
+      <c r="F199" s="328"/>
+      <c r="G199" s="340"/>
     </row>
     <row r="200" spans="1:7" ht="15.75">
-      <c r="A200" s="330"/>
+      <c r="A200" s="332"/>
       <c r="B200" s="187"/>
       <c r="C200" s="58"/>
-      <c r="D200" s="323"/>
-      <c r="E200" s="324"/>
-      <c r="F200" s="325"/>
-      <c r="G200" s="338"/>
+      <c r="D200" s="326"/>
+      <c r="E200" s="327"/>
+      <c r="F200" s="328"/>
+      <c r="G200" s="340"/>
     </row>
     <row r="201" spans="1:7" ht="15.75">
-      <c r="A201" s="330"/>
+      <c r="A201" s="332"/>
       <c r="B201" s="187"/>
       <c r="C201" s="58"/>
-      <c r="D201" s="323"/>
-      <c r="E201" s="324"/>
-      <c r="F201" s="325"/>
-      <c r="G201" s="338"/>
+      <c r="D201" s="326"/>
+      <c r="E201" s="327"/>
+      <c r="F201" s="328"/>
+      <c r="G201" s="340"/>
     </row>
     <row r="202" spans="1:7" ht="15.75">
-      <c r="A202" s="330"/>
+      <c r="A202" s="332"/>
       <c r="B202" s="187"/>
       <c r="C202" s="58"/>
-      <c r="D202" s="323"/>
-      <c r="E202" s="324"/>
-      <c r="F202" s="325"/>
-      <c r="G202" s="338"/>
+      <c r="D202" s="326"/>
+      <c r="E202" s="327"/>
+      <c r="F202" s="328"/>
+      <c r="G202" s="340"/>
     </row>
     <row r="203" spans="1:7" ht="15.75">
-      <c r="A203" s="330"/>
+      <c r="A203" s="332"/>
       <c r="B203" s="187"/>
       <c r="C203" s="58"/>
-      <c r="D203" s="323"/>
-      <c r="E203" s="324"/>
-      <c r="F203" s="325"/>
-      <c r="G203" s="338"/>
+      <c r="D203" s="326"/>
+      <c r="E203" s="327"/>
+      <c r="F203" s="328"/>
+      <c r="G203" s="340"/>
     </row>
     <row r="204" spans="1:7" ht="15.75">
-      <c r="A204" s="330"/>
+      <c r="A204" s="332"/>
       <c r="B204" s="187"/>
       <c r="C204" s="58"/>
-      <c r="D204" s="323"/>
-      <c r="E204" s="324"/>
-      <c r="F204" s="325"/>
-      <c r="G204" s="338"/>
+      <c r="D204" s="326"/>
+      <c r="E204" s="327"/>
+      <c r="F204" s="328"/>
+      <c r="G204" s="340"/>
     </row>
     <row r="205" spans="1:7" ht="15.75">
-      <c r="A205" s="330"/>
+      <c r="A205" s="332"/>
       <c r="B205" s="187"/>
       <c r="C205" s="58"/>
-      <c r="D205" s="323"/>
-      <c r="E205" s="324"/>
-      <c r="F205" s="325"/>
-      <c r="G205" s="338"/>
+      <c r="D205" s="326"/>
+      <c r="E205" s="327"/>
+      <c r="F205" s="328"/>
+      <c r="G205" s="340"/>
     </row>
     <row r="206" spans="1:7" ht="15.75">
-      <c r="A206" s="330"/>
+      <c r="A206" s="332"/>
       <c r="B206" s="187"/>
       <c r="C206" s="58"/>
-      <c r="D206" s="323"/>
-      <c r="E206" s="324"/>
-      <c r="F206" s="325"/>
-      <c r="G206" s="338"/>
+      <c r="D206" s="326"/>
+      <c r="E206" s="327"/>
+      <c r="F206" s="328"/>
+      <c r="G206" s="340"/>
     </row>
     <row r="207" spans="1:7" ht="15.75">
-      <c r="A207" s="330"/>
+      <c r="A207" s="332"/>
       <c r="B207" s="187"/>
       <c r="C207" s="58"/>
-      <c r="D207" s="323"/>
-      <c r="E207" s="324"/>
-      <c r="F207" s="325"/>
-      <c r="G207" s="338"/>
+      <c r="D207" s="326"/>
+      <c r="E207" s="327"/>
+      <c r="F207" s="328"/>
+      <c r="G207" s="340"/>
     </row>
     <row r="208" spans="1:7" ht="15.75">
-      <c r="A208" s="330"/>
+      <c r="A208" s="332"/>
       <c r="B208" s="187"/>
       <c r="C208" s="58"/>
-      <c r="D208" s="323"/>
-      <c r="E208" s="324"/>
-      <c r="F208" s="325"/>
-      <c r="G208" s="338"/>
+      <c r="D208" s="326"/>
+      <c r="E208" s="327"/>
+      <c r="F208" s="328"/>
+      <c r="G208" s="340"/>
     </row>
     <row r="209" spans="1:7" ht="15.75">
-      <c r="A209" s="330"/>
+      <c r="A209" s="332"/>
       <c r="B209" s="187"/>
       <c r="C209" s="58"/>
-      <c r="D209" s="323"/>
-      <c r="E209" s="324"/>
-      <c r="F209" s="325"/>
-      <c r="G209" s="338"/>
+      <c r="D209" s="326"/>
+      <c r="E209" s="327"/>
+      <c r="F209" s="328"/>
+      <c r="G209" s="340"/>
     </row>
     <row r="210" spans="1:7" ht="15.75">
-      <c r="A210" s="330"/>
+      <c r="A210" s="332"/>
       <c r="B210" s="187"/>
       <c r="C210" s="58"/>
-      <c r="D210" s="323"/>
-      <c r="E210" s="324"/>
-      <c r="F210" s="325"/>
-      <c r="G210" s="338"/>
+      <c r="D210" s="326"/>
+      <c r="E210" s="327"/>
+      <c r="F210" s="328"/>
+      <c r="G210" s="340"/>
     </row>
     <row r="211" spans="1:7" ht="15.75">
-      <c r="A211" s="330"/>
+      <c r="A211" s="332"/>
       <c r="B211" s="187"/>
       <c r="C211" s="58"/>
-      <c r="D211" s="323"/>
-      <c r="E211" s="324"/>
-      <c r="F211" s="325"/>
-      <c r="G211" s="338"/>
+      <c r="D211" s="326"/>
+      <c r="E211" s="327"/>
+      <c r="F211" s="328"/>
+      <c r="G211" s="340"/>
     </row>
     <row r="212" spans="1:7" ht="15.75">
-      <c r="A212" s="330"/>
+      <c r="A212" s="332"/>
       <c r="B212" s="187"/>
       <c r="C212" s="58"/>
-      <c r="D212" s="323"/>
-      <c r="E212" s="324"/>
-      <c r="F212" s="325"/>
-      <c r="G212" s="338"/>
+      <c r="D212" s="326"/>
+      <c r="E212" s="327"/>
+      <c r="F212" s="328"/>
+      <c r="G212" s="340"/>
     </row>
     <row r="213" spans="1:7" ht="15.75">
-      <c r="A213" s="330"/>
+      <c r="A213" s="332"/>
       <c r="B213" s="187"/>
       <c r="C213" s="58"/>
-      <c r="D213" s="323"/>
-      <c r="E213" s="324"/>
-      <c r="F213" s="325"/>
-      <c r="G213" s="338"/>
+      <c r="D213" s="326"/>
+      <c r="E213" s="327"/>
+      <c r="F213" s="328"/>
+      <c r="G213" s="340"/>
     </row>
     <row r="214" spans="1:7" ht="15.75">
-      <c r="A214" s="330"/>
+      <c r="A214" s="332"/>
       <c r="B214" s="187"/>
       <c r="C214" s="58"/>
-      <c r="D214" s="323"/>
-      <c r="E214" s="324"/>
-      <c r="F214" s="325"/>
-      <c r="G214" s="338"/>
+      <c r="D214" s="326"/>
+      <c r="E214" s="327"/>
+      <c r="F214" s="328"/>
+      <c r="G214" s="340"/>
     </row>
     <row r="215" spans="1:7" ht="15.75">
-      <c r="A215" s="330"/>
+      <c r="A215" s="332"/>
       <c r="B215" s="187"/>
       <c r="C215" s="58"/>
-      <c r="D215" s="323"/>
-      <c r="E215" s="324"/>
-      <c r="F215" s="325"/>
-      <c r="G215" s="338"/>
+      <c r="D215" s="326"/>
+      <c r="E215" s="327"/>
+      <c r="F215" s="328"/>
+      <c r="G215" s="340"/>
     </row>
     <row r="216" spans="1:7" ht="15.75">
-      <c r="A216" s="330"/>
+      <c r="A216" s="332"/>
       <c r="B216" s="187"/>
       <c r="C216" s="58"/>
-      <c r="D216" s="323"/>
-      <c r="E216" s="324"/>
-      <c r="F216" s="325"/>
-      <c r="G216" s="338"/>
+      <c r="D216" s="326"/>
+      <c r="E216" s="327"/>
+      <c r="F216" s="328"/>
+      <c r="G216" s="340"/>
     </row>
     <row r="217" spans="1:7" ht="15.75">
-      <c r="A217" s="330"/>
+      <c r="A217" s="332"/>
       <c r="B217" s="187"/>
       <c r="C217" s="58"/>
-      <c r="D217" s="323"/>
-      <c r="E217" s="324"/>
-      <c r="F217" s="325"/>
-      <c r="G217" s="338"/>
+      <c r="D217" s="326"/>
+      <c r="E217" s="327"/>
+      <c r="F217" s="328"/>
+      <c r="G217" s="340"/>
     </row>
     <row r="218" spans="1:7" ht="15.75">
-      <c r="A218" s="330"/>
+      <c r="A218" s="332"/>
       <c r="B218" s="187"/>
       <c r="C218" s="58"/>
-      <c r="D218" s="323"/>
-      <c r="E218" s="324"/>
-      <c r="F218" s="325"/>
-      <c r="G218" s="338"/>
+      <c r="D218" s="326"/>
+      <c r="E218" s="327"/>
+      <c r="F218" s="328"/>
+      <c r="G218" s="340"/>
     </row>
     <row r="219" spans="1:7" ht="15.75">
-      <c r="A219" s="330"/>
+      <c r="A219" s="332"/>
       <c r="B219" s="187"/>
       <c r="C219" s="58"/>
-      <c r="D219" s="323"/>
-      <c r="E219" s="324"/>
-      <c r="F219" s="325"/>
-      <c r="G219" s="338"/>
+      <c r="D219" s="326"/>
+      <c r="E219" s="327"/>
+      <c r="F219" s="328"/>
+      <c r="G219" s="340"/>
     </row>
     <row r="220" spans="1:7" ht="15.75">
-      <c r="A220" s="330"/>
+      <c r="A220" s="332"/>
       <c r="B220" s="187"/>
       <c r="C220" s="58"/>
-      <c r="D220" s="323"/>
-      <c r="E220" s="324"/>
-      <c r="F220" s="325"/>
-      <c r="G220" s="338"/>
+      <c r="D220" s="326"/>
+      <c r="E220" s="327"/>
+      <c r="F220" s="328"/>
+      <c r="G220" s="340"/>
     </row>
     <row r="221" spans="1:7" ht="15.75">
-      <c r="A221" s="330"/>
+      <c r="A221" s="332"/>
       <c r="B221" s="187"/>
       <c r="C221" s="58"/>
-      <c r="D221" s="323"/>
-      <c r="E221" s="324"/>
-      <c r="F221" s="325"/>
-      <c r="G221" s="338"/>
+      <c r="D221" s="326"/>
+      <c r="E221" s="327"/>
+      <c r="F221" s="328"/>
+      <c r="G221" s="340"/>
     </row>
     <row r="222" spans="1:7" ht="15.75">
-      <c r="A222" s="330"/>
+      <c r="A222" s="332"/>
       <c r="B222" s="187"/>
       <c r="C222" s="58"/>
-      <c r="D222" s="323"/>
-      <c r="E222" s="324"/>
-      <c r="F222" s="325"/>
-      <c r="G222" s="338"/>
+      <c r="D222" s="326"/>
+      <c r="E222" s="327"/>
+      <c r="F222" s="328"/>
+      <c r="G222" s="340"/>
     </row>
     <row r="223" spans="1:7" ht="15.75">
-      <c r="A223" s="330"/>
+      <c r="A223" s="332"/>
       <c r="B223" s="187"/>
       <c r="C223" s="58"/>
-      <c r="D223" s="323"/>
-      <c r="E223" s="324"/>
-      <c r="F223" s="325"/>
-      <c r="G223" s="338"/>
+      <c r="D223" s="326"/>
+      <c r="E223" s="327"/>
+      <c r="F223" s="328"/>
+      <c r="G223" s="340"/>
     </row>
     <row r="224" spans="1:7" ht="15.75">
-      <c r="A224" s="330"/>
+      <c r="A224" s="332"/>
       <c r="B224" s="187"/>
       <c r="C224" s="58"/>
-      <c r="D224" s="323"/>
-      <c r="E224" s="324"/>
-      <c r="F224" s="325"/>
-      <c r="G224" s="338"/>
+      <c r="D224" s="326"/>
+      <c r="E224" s="327"/>
+      <c r="F224" s="328"/>
+      <c r="G224" s="340"/>
     </row>
     <row r="225" spans="1:7" ht="15.75">
-      <c r="A225" s="330"/>
+      <c r="A225" s="332"/>
       <c r="B225" s="187"/>
       <c r="C225" s="58"/>
-      <c r="D225" s="323"/>
-      <c r="E225" s="324"/>
-      <c r="F225" s="325"/>
-      <c r="G225" s="338"/>
+      <c r="D225" s="326"/>
+      <c r="E225" s="327"/>
+      <c r="F225" s="328"/>
+      <c r="G225" s="340"/>
     </row>
     <row r="226" spans="1:7" ht="15.75">
-      <c r="A226" s="330"/>
+      <c r="A226" s="332"/>
       <c r="B226" s="187"/>
       <c r="C226" s="58"/>
-      <c r="D226" s="323"/>
-      <c r="E226" s="324"/>
-      <c r="F226" s="325"/>
-      <c r="G226" s="338"/>
+      <c r="D226" s="326"/>
+      <c r="E226" s="327"/>
+      <c r="F226" s="328"/>
+      <c r="G226" s="340"/>
     </row>
     <row r="227" spans="1:7" ht="15.75">
-      <c r="A227" s="330"/>
+      <c r="A227" s="332"/>
       <c r="B227" s="187"/>
       <c r="C227" s="58"/>
-      <c r="D227" s="323"/>
-      <c r="E227" s="324"/>
-      <c r="F227" s="325"/>
-      <c r="G227" s="338"/>
+      <c r="D227" s="326"/>
+      <c r="E227" s="327"/>
+      <c r="F227" s="328"/>
+      <c r="G227" s="340"/>
     </row>
     <row r="228" spans="1:7" ht="15.75">
-      <c r="A228" s="330"/>
+      <c r="A228" s="332"/>
       <c r="B228" s="187"/>
       <c r="C228" s="58"/>
-      <c r="D228" s="323"/>
-      <c r="E228" s="324"/>
-      <c r="F228" s="325"/>
-      <c r="G228" s="338"/>
+      <c r="D228" s="326"/>
+      <c r="E228" s="327"/>
+      <c r="F228" s="328"/>
+      <c r="G228" s="340"/>
     </row>
     <row r="229" spans="1:7" ht="15.75">
-      <c r="A229" s="330"/>
+      <c r="A229" s="332"/>
       <c r="B229" s="187"/>
       <c r="C229" s="58"/>
-      <c r="D229" s="323"/>
-      <c r="E229" s="324"/>
-      <c r="F229" s="325"/>
-      <c r="G229" s="338"/>
+      <c r="D229" s="326"/>
+      <c r="E229" s="327"/>
+      <c r="F229" s="328"/>
+      <c r="G229" s="340"/>
     </row>
     <row r="230" spans="1:7" ht="15.75">
-      <c r="A230" s="330"/>
+      <c r="A230" s="332"/>
       <c r="B230" s="187"/>
       <c r="C230" s="58"/>
-      <c r="D230" s="323"/>
-      <c r="E230" s="324"/>
-      <c r="F230" s="325"/>
-      <c r="G230" s="338"/>
+      <c r="D230" s="326"/>
+      <c r="E230" s="327"/>
+      <c r="F230" s="328"/>
+      <c r="G230" s="340"/>
     </row>
     <row r="231" spans="1:7" ht="15.75">
-      <c r="A231" s="330"/>
+      <c r="A231" s="332"/>
       <c r="B231" s="187"/>
       <c r="C231" s="58"/>
-      <c r="D231" s="323"/>
-      <c r="E231" s="324"/>
-      <c r="F231" s="325"/>
-      <c r="G231" s="338"/>
+      <c r="D231" s="326"/>
+      <c r="E231" s="327"/>
+      <c r="F231" s="328"/>
+      <c r="G231" s="340"/>
     </row>
     <row r="232" spans="1:7" ht="15.75">
-      <c r="A232" s="330"/>
+      <c r="A232" s="332"/>
       <c r="B232" s="187"/>
       <c r="C232" s="58"/>
-      <c r="D232" s="323"/>
-      <c r="E232" s="324"/>
-      <c r="F232" s="325"/>
-      <c r="G232" s="338"/>
+      <c r="D232" s="326"/>
+      <c r="E232" s="327"/>
+      <c r="F232" s="328"/>
+      <c r="G232" s="340"/>
     </row>
     <row r="233" spans="1:7" ht="15.75">
-      <c r="A233" s="330"/>
+      <c r="A233" s="332"/>
       <c r="B233" s="187"/>
       <c r="C233" s="58"/>
-      <c r="D233" s="323"/>
-      <c r="E233" s="324"/>
-      <c r="F233" s="325"/>
-      <c r="G233" s="338"/>
+      <c r="D233" s="326"/>
+      <c r="E233" s="327"/>
+      <c r="F233" s="328"/>
+      <c r="G233" s="340"/>
     </row>
     <row r="234" spans="1:7" ht="15.75">
-      <c r="A234" s="330"/>
+      <c r="A234" s="332"/>
       <c r="B234" s="187"/>
       <c r="C234" s="58"/>
-      <c r="D234" s="323"/>
-      <c r="E234" s="324"/>
-      <c r="F234" s="325"/>
-      <c r="G234" s="338"/>
+      <c r="D234" s="326"/>
+      <c r="E234" s="327"/>
+      <c r="F234" s="328"/>
+      <c r="G234" s="340"/>
     </row>
     <row r="235" spans="1:7" ht="15.75">
-      <c r="A235" s="330"/>
+      <c r="A235" s="332"/>
       <c r="B235" s="187"/>
       <c r="C235" s="58"/>
-      <c r="D235" s="323"/>
-      <c r="E235" s="324"/>
-      <c r="F235" s="325"/>
-      <c r="G235" s="338"/>
+      <c r="D235" s="326"/>
+      <c r="E235" s="327"/>
+      <c r="F235" s="328"/>
+      <c r="G235" s="340"/>
     </row>
     <row r="236" spans="1:7" ht="15.75">
-      <c r="A236" s="330"/>
+      <c r="A236" s="332"/>
       <c r="B236" s="187"/>
       <c r="C236" s="58"/>
-      <c r="D236" s="323"/>
-      <c r="E236" s="324"/>
-      <c r="F236" s="325"/>
-      <c r="G236" s="338"/>
+      <c r="D236" s="326"/>
+      <c r="E236" s="327"/>
+      <c r="F236" s="328"/>
+      <c r="G236" s="340"/>
     </row>
     <row r="237" spans="1:7" ht="15.75">
-      <c r="A237" s="330"/>
+      <c r="A237" s="332"/>
       <c r="B237" s="187"/>
       <c r="C237" s="58"/>
-      <c r="D237" s="323"/>
-      <c r="E237" s="324"/>
-      <c r="F237" s="325"/>
-      <c r="G237" s="338"/>
+      <c r="D237" s="326"/>
+      <c r="E237" s="327"/>
+      <c r="F237" s="328"/>
+      <c r="G237" s="340"/>
     </row>
     <row r="238" spans="1:7" ht="15.75">
-      <c r="A238" s="330"/>
+      <c r="A238" s="332"/>
       <c r="B238" s="187"/>
       <c r="C238" s="58"/>
-      <c r="D238" s="323"/>
-      <c r="E238" s="324"/>
-      <c r="F238" s="325"/>
-      <c r="G238" s="338"/>
+      <c r="D238" s="326"/>
+      <c r="E238" s="327"/>
+      <c r="F238" s="328"/>
+      <c r="G238" s="340"/>
     </row>
     <row r="239" spans="1:7" ht="15.75">
-      <c r="A239" s="330"/>
+      <c r="A239" s="332"/>
       <c r="B239" s="187"/>
       <c r="C239" s="58"/>
-      <c r="D239" s="323"/>
-      <c r="E239" s="324"/>
-      <c r="F239" s="325"/>
-      <c r="G239" s="338"/>
+      <c r="D239" s="326"/>
+      <c r="E239" s="327"/>
+      <c r="F239" s="328"/>
+      <c r="G239" s="340"/>
     </row>
     <row r="240" spans="1:7" ht="15.75">
-      <c r="A240" s="330"/>
+      <c r="A240" s="332"/>
       <c r="B240" s="187"/>
       <c r="C240" s="58"/>
-      <c r="D240" s="323"/>
-      <c r="E240" s="324"/>
-      <c r="F240" s="325"/>
-      <c r="G240" s="338"/>
+      <c r="D240" s="326"/>
+      <c r="E240" s="327"/>
+      <c r="F240" s="328"/>
+      <c r="G240" s="340"/>
     </row>
     <row r="241" spans="1:7" ht="15.75">
-      <c r="A241" s="330"/>
+      <c r="A241" s="332"/>
       <c r="B241" s="187"/>
       <c r="C241" s="58"/>
-      <c r="D241" s="323"/>
-      <c r="E241" s="324"/>
-      <c r="F241" s="325"/>
-      <c r="G241" s="338"/>
+      <c r="D241" s="326"/>
+      <c r="E241" s="327"/>
+      <c r="F241" s="328"/>
+      <c r="G241" s="340"/>
     </row>
     <row r="242" spans="1:7" ht="15.75">
-      <c r="A242" s="330"/>
+      <c r="A242" s="332"/>
       <c r="B242" s="187"/>
       <c r="C242" s="58"/>
-      <c r="D242" s="323"/>
-      <c r="E242" s="324"/>
-      <c r="F242" s="325"/>
-      <c r="G242" s="338"/>
+      <c r="D242" s="326"/>
+      <c r="E242" s="327"/>
+      <c r="F242" s="328"/>
+      <c r="G242" s="340"/>
     </row>
     <row r="243" spans="1:7" ht="15.75">
-      <c r="A243" s="330"/>
+      <c r="A243" s="332"/>
       <c r="B243" s="187"/>
       <c r="C243" s="58"/>
-      <c r="D243" s="323"/>
-      <c r="E243" s="324"/>
-      <c r="F243" s="325"/>
-      <c r="G243" s="338"/>
+      <c r="D243" s="326"/>
+      <c r="E243" s="327"/>
+      <c r="F243" s="328"/>
+      <c r="G243" s="340"/>
     </row>
     <row r="244" spans="1:7" ht="15.75">
-      <c r="A244" s="330"/>
+      <c r="A244" s="332"/>
       <c r="B244" s="187"/>
       <c r="C244" s="58"/>
-      <c r="D244" s="323"/>
-      <c r="E244" s="324"/>
-      <c r="F244" s="325"/>
-      <c r="G244" s="338"/>
+      <c r="D244" s="326"/>
+      <c r="E244" s="327"/>
+      <c r="F244" s="328"/>
+      <c r="G244" s="340"/>
     </row>
     <row r="245" spans="1:7" ht="15.75">
-      <c r="A245" s="330"/>
+      <c r="A245" s="332"/>
       <c r="B245" s="187"/>
       <c r="C245" s="58"/>
-      <c r="D245" s="323"/>
-      <c r="E245" s="324"/>
-      <c r="F245" s="325"/>
-      <c r="G245" s="338"/>
+      <c r="D245" s="326"/>
+      <c r="E245" s="327"/>
+      <c r="F245" s="328"/>
+      <c r="G245" s="340"/>
     </row>
     <row r="246" spans="1:7" ht="15.75">
-      <c r="A246" s="330"/>
+      <c r="A246" s="332"/>
       <c r="B246" s="187"/>
       <c r="C246" s="58"/>
-      <c r="D246" s="323"/>
-      <c r="E246" s="324"/>
-      <c r="F246" s="325"/>
-      <c r="G246" s="338"/>
+      <c r="D246" s="326"/>
+      <c r="E246" s="327"/>
+      <c r="F246" s="328"/>
+      <c r="G246" s="340"/>
     </row>
     <row r="247" spans="1:7" ht="15.75">
-      <c r="A247" s="330"/>
+      <c r="A247" s="332"/>
       <c r="B247" s="187"/>
       <c r="C247" s="58"/>
-      <c r="D247" s="323"/>
-      <c r="E247" s="324"/>
-      <c r="F247" s="325"/>
-      <c r="G247" s="338"/>
+      <c r="D247" s="326"/>
+      <c r="E247" s="327"/>
+      <c r="F247" s="328"/>
+      <c r="G247" s="340"/>
     </row>
     <row r="248" spans="1:7" ht="15.75">
-      <c r="A248" s="330"/>
+      <c r="A248" s="332"/>
       <c r="B248" s="187"/>
       <c r="C248" s="58"/>
-      <c r="D248" s="323"/>
-      <c r="E248" s="324"/>
-      <c r="F248" s="325"/>
-      <c r="G248" s="338"/>
+      <c r="D248" s="326"/>
+      <c r="E248" s="327"/>
+      <c r="F248" s="328"/>
+      <c r="G248" s="340"/>
     </row>
     <row r="249" spans="1:7" ht="15.75">
-      <c r="A249" s="330"/>
+      <c r="A249" s="332"/>
       <c r="B249" s="187"/>
       <c r="C249" s="58"/>
-      <c r="D249" s="323"/>
-      <c r="E249" s="324"/>
-      <c r="F249" s="325"/>
-      <c r="G249" s="338"/>
+      <c r="D249" s="326"/>
+      <c r="E249" s="327"/>
+      <c r="F249" s="328"/>
+      <c r="G249" s="340"/>
     </row>
     <row r="250" spans="1:7" ht="15.75">
-      <c r="A250" s="330"/>
+      <c r="A250" s="332"/>
       <c r="B250" s="187"/>
       <c r="C250" s="58"/>
-      <c r="D250" s="323"/>
-      <c r="E250" s="324"/>
-      <c r="F250" s="325"/>
-      <c r="G250" s="338"/>
+      <c r="D250" s="326"/>
+      <c r="E250" s="327"/>
+      <c r="F250" s="328"/>
+      <c r="G250" s="340"/>
     </row>
     <row r="251" spans="1:7" ht="15.75">
-      <c r="A251" s="330"/>
+      <c r="A251" s="332"/>
       <c r="B251" s="187"/>
       <c r="C251" s="58"/>
-      <c r="D251" s="323"/>
-      <c r="E251" s="324"/>
-      <c r="F251" s="325"/>
-      <c r="G251" s="338"/>
+      <c r="D251" s="326"/>
+      <c r="E251" s="327"/>
+      <c r="F251" s="328"/>
+      <c r="G251" s="340"/>
     </row>
     <row r="252" spans="1:7" ht="15.75">
-      <c r="A252" s="330"/>
+      <c r="A252" s="332"/>
       <c r="B252" s="187"/>
       <c r="C252" s="58"/>
-      <c r="D252" s="323"/>
-      <c r="E252" s="324"/>
-      <c r="F252" s="325"/>
-      <c r="G252" s="338"/>
+      <c r="D252" s="326"/>
+      <c r="E252" s="327"/>
+      <c r="F252" s="328"/>
+      <c r="G252" s="340"/>
     </row>
     <row r="253" spans="1:7" ht="15.75">
-      <c r="A253" s="330"/>
+      <c r="A253" s="332"/>
       <c r="B253" s="187"/>
       <c r="C253" s="58"/>
-      <c r="D253" s="323"/>
-      <c r="E253" s="324"/>
-      <c r="F253" s="325"/>
-      <c r="G253" s="338"/>
+      <c r="D253" s="326"/>
+      <c r="E253" s="327"/>
+      <c r="F253" s="328"/>
+      <c r="G253" s="340"/>
     </row>
     <row r="254" spans="1:7" ht="15.75">
-      <c r="A254" s="330"/>
+      <c r="A254" s="332"/>
       <c r="B254" s="187"/>
       <c r="C254" s="58"/>
-      <c r="D254" s="323"/>
-      <c r="E254" s="324"/>
-      <c r="F254" s="325"/>
-      <c r="G254" s="338"/>
+      <c r="D254" s="326"/>
+      <c r="E254" s="327"/>
+      <c r="F254" s="328"/>
+      <c r="G254" s="340"/>
     </row>
     <row r="255" spans="1:7" ht="15.75">
-      <c r="A255" s="330"/>
+      <c r="A255" s="332"/>
       <c r="B255" s="187"/>
       <c r="C255" s="58"/>
-      <c r="D255" s="323"/>
-      <c r="E255" s="324"/>
-      <c r="F255" s="325"/>
-      <c r="G255" s="338"/>
+      <c r="D255" s="326"/>
+      <c r="E255" s="327"/>
+      <c r="F255" s="328"/>
+      <c r="G255" s="340"/>
     </row>
     <row r="256" spans="1:7" ht="15.75">
-      <c r="A256" s="330"/>
+      <c r="A256" s="332"/>
       <c r="B256" s="187"/>
       <c r="C256" s="58"/>
-      <c r="D256" s="323"/>
-      <c r="E256" s="324"/>
-      <c r="F256" s="325"/>
-      <c r="G256" s="338"/>
+      <c r="D256" s="326"/>
+      <c r="E256" s="327"/>
+      <c r="F256" s="328"/>
+      <c r="G256" s="340"/>
     </row>
     <row r="257" spans="1:7" ht="15.75">
-      <c r="A257" s="330"/>
+      <c r="A257" s="332"/>
       <c r="B257" s="187"/>
       <c r="C257" s="58"/>
-      <c r="D257" s="323"/>
-      <c r="E257" s="324"/>
-      <c r="F257" s="325"/>
-      <c r="G257" s="338"/>
+      <c r="D257" s="326"/>
+      <c r="E257" s="327"/>
+      <c r="F257" s="328"/>
+      <c r="G257" s="340"/>
     </row>
     <row r="258" spans="1:7" ht="15.75">
-      <c r="A258" s="330"/>
+      <c r="A258" s="332"/>
       <c r="B258" s="187"/>
       <c r="C258" s="58"/>
-      <c r="D258" s="323"/>
-      <c r="E258" s="324"/>
-      <c r="F258" s="325"/>
-      <c r="G258" s="338"/>
+      <c r="D258" s="326"/>
+      <c r="E258" s="327"/>
+      <c r="F258" s="328"/>
+      <c r="G258" s="340"/>
     </row>
     <row r="259" spans="1:7" ht="15.75">
-      <c r="A259" s="330"/>
+      <c r="A259" s="332"/>
       <c r="B259" s="187"/>
       <c r="C259" s="58"/>
-      <c r="D259" s="323"/>
-      <c r="E259" s="324"/>
-      <c r="F259" s="325"/>
-      <c r="G259" s="338"/>
+      <c r="D259" s="326"/>
+      <c r="E259" s="327"/>
+      <c r="F259" s="328"/>
+      <c r="G259" s="340"/>
     </row>
     <row r="260" spans="1:7" ht="15.75">
-      <c r="A260" s="330"/>
+      <c r="A260" s="332"/>
       <c r="B260" s="187"/>
       <c r="C260" s="58"/>
-      <c r="D260" s="323"/>
-      <c r="E260" s="324"/>
-      <c r="F260" s="325"/>
-      <c r="G260" s="338"/>
+      <c r="D260" s="326"/>
+      <c r="E260" s="327"/>
+      <c r="F260" s="328"/>
+      <c r="G260" s="340"/>
     </row>
     <row r="261" spans="1:7" ht="15.75">
-      <c r="A261" s="330"/>
+      <c r="A261" s="332"/>
       <c r="B261" s="187"/>
       <c r="C261" s="58"/>
-      <c r="D261" s="323"/>
-      <c r="E261" s="324"/>
-      <c r="F261" s="325"/>
-      <c r="G261" s="338"/>
+      <c r="D261" s="326"/>
+      <c r="E261" s="327"/>
+      <c r="F261" s="328"/>
+      <c r="G261" s="340"/>
     </row>
     <row r="262" spans="1:7" ht="15.75">
-      <c r="A262" s="330"/>
+      <c r="A262" s="332"/>
       <c r="B262" s="187"/>
       <c r="C262" s="58"/>
-      <c r="D262" s="323"/>
-      <c r="E262" s="324"/>
-      <c r="F262" s="325"/>
-      <c r="G262" s="338"/>
+      <c r="D262" s="326"/>
+      <c r="E262" s="327"/>
+      <c r="F262" s="328"/>
+      <c r="G262" s="340"/>
     </row>
     <row r="263" spans="1:7" ht="15.75">
-      <c r="A263" s="330"/>
+      <c r="A263" s="332"/>
       <c r="B263" s="187"/>
       <c r="C263" s="58"/>
-      <c r="D263" s="323"/>
-      <c r="E263" s="324"/>
-      <c r="F263" s="325"/>
-      <c r="G263" s="338"/>
+      <c r="D263" s="326"/>
+      <c r="E263" s="327"/>
+      <c r="F263" s="328"/>
+      <c r="G263" s="340"/>
     </row>
     <row r="264" spans="1:7" ht="15.75">
-      <c r="A264" s="330"/>
+      <c r="A264" s="332"/>
       <c r="B264" s="187"/>
       <c r="C264" s="58"/>
-      <c r="D264" s="323"/>
-      <c r="E264" s="324"/>
-      <c r="F264" s="325"/>
-      <c r="G264" s="338"/>
+      <c r="D264" s="326"/>
+      <c r="E264" s="327"/>
+      <c r="F264" s="328"/>
+      <c r="G264" s="340"/>
     </row>
     <row r="265" spans="1:7" ht="15.75">
-      <c r="A265" s="330"/>
+      <c r="A265" s="332"/>
       <c r="B265" s="187"/>
       <c r="C265" s="58"/>
-      <c r="D265" s="323"/>
-      <c r="E265" s="324"/>
-      <c r="F265" s="325"/>
-      <c r="G265" s="338"/>
+      <c r="D265" s="326"/>
+      <c r="E265" s="327"/>
+      <c r="F265" s="328"/>
+      <c r="G265" s="340"/>
     </row>
     <row r="266" spans="1:7" ht="15.75">
-      <c r="A266" s="330"/>
+      <c r="A266" s="332"/>
       <c r="B266" s="187"/>
       <c r="C266" s="58"/>
-      <c r="D266" s="323"/>
-      <c r="E266" s="324"/>
-      <c r="F266" s="325"/>
-      <c r="G266" s="338"/>
+      <c r="D266" s="326"/>
+      <c r="E266" s="327"/>
+      <c r="F266" s="328"/>
+      <c r="G266" s="340"/>
     </row>
     <row r="267" spans="1:7" ht="15.75">
-      <c r="A267" s="330"/>
+      <c r="A267" s="332"/>
       <c r="B267" s="187"/>
       <c r="C267" s="58"/>
-      <c r="D267" s="323"/>
-      <c r="E267" s="324"/>
-      <c r="F267" s="325"/>
-      <c r="G267" s="338"/>
+      <c r="D267" s="326"/>
+      <c r="E267" s="327"/>
+      <c r="F267" s="328"/>
+      <c r="G267" s="340"/>
     </row>
     <row r="268" spans="1:7" ht="15.75">
-      <c r="A268" s="330"/>
+      <c r="A268" s="332"/>
       <c r="B268" s="187"/>
       <c r="C268" s="58"/>
-      <c r="D268" s="323"/>
-      <c r="E268" s="324"/>
-      <c r="F268" s="325"/>
-      <c r="G268" s="338"/>
+      <c r="D268" s="326"/>
+      <c r="E268" s="327"/>
+      <c r="F268" s="328"/>
+      <c r="G268" s="340"/>
     </row>
     <row r="269" spans="1:7" ht="15.75">
-      <c r="A269" s="330"/>
+      <c r="A269" s="332"/>
       <c r="B269" s="187"/>
       <c r="C269" s="58"/>
-      <c r="D269" s="323"/>
-      <c r="E269" s="324"/>
-      <c r="F269" s="325"/>
-      <c r="G269" s="338"/>
+      <c r="D269" s="326"/>
+      <c r="E269" s="327"/>
+      <c r="F269" s="328"/>
+      <c r="G269" s="340"/>
     </row>
     <row r="270" spans="1:7" ht="15.75">
-      <c r="A270" s="330"/>
+      <c r="A270" s="332"/>
       <c r="B270" s="187"/>
       <c r="C270" s="58"/>
-      <c r="D270" s="323"/>
-      <c r="E270" s="324"/>
-      <c r="F270" s="325"/>
-      <c r="G270" s="338"/>
+      <c r="D270" s="326"/>
+      <c r="E270" s="327"/>
+      <c r="F270" s="328"/>
+      <c r="G270" s="340"/>
     </row>
     <row r="271" spans="1:7" ht="15.75">
-      <c r="A271" s="330"/>
+      <c r="A271" s="332"/>
       <c r="B271" s="187"/>
       <c r="C271" s="58"/>
-      <c r="D271" s="323"/>
-      <c r="E271" s="324"/>
-      <c r="F271" s="325"/>
-      <c r="G271" s="338"/>
+      <c r="D271" s="326"/>
+      <c r="E271" s="327"/>
+      <c r="F271" s="328"/>
+      <c r="G271" s="340"/>
     </row>
     <row r="272" spans="1:7" ht="15.75">
-      <c r="A272" s="330"/>
+      <c r="A272" s="332"/>
       <c r="B272" s="187"/>
       <c r="C272" s="58"/>
-      <c r="D272" s="323"/>
-      <c r="E272" s="324"/>
-      <c r="F272" s="325"/>
-      <c r="G272" s="338"/>
+      <c r="D272" s="326"/>
+      <c r="E272" s="327"/>
+      <c r="F272" s="328"/>
+      <c r="G272" s="340"/>
     </row>
     <row r="273" spans="1:7" ht="15.75">
-      <c r="A273" s="330"/>
+      <c r="A273" s="332"/>
       <c r="B273" s="187"/>
       <c r="C273" s="58"/>
-      <c r="D273" s="323"/>
-      <c r="E273" s="324"/>
-      <c r="F273" s="325"/>
-      <c r="G273" s="338"/>
+      <c r="D273" s="326"/>
+      <c r="E273" s="327"/>
+      <c r="F273" s="328"/>
+      <c r="G273" s="340"/>
     </row>
     <row r="274" spans="1:7" ht="15.75">
-      <c r="A274" s="330"/>
+      <c r="A274" s="332"/>
       <c r="B274" s="187"/>
       <c r="C274" s="58"/>
-      <c r="D274" s="323"/>
-      <c r="E274" s="324"/>
-      <c r="F274" s="325"/>
-      <c r="G274" s="338"/>
+      <c r="D274" s="326"/>
+      <c r="E274" s="327"/>
+      <c r="F274" s="328"/>
+      <c r="G274" s="340"/>
     </row>
     <row r="275" spans="1:7" ht="15.75">
-      <c r="A275" s="330"/>
+      <c r="A275" s="332"/>
       <c r="B275" s="187"/>
       <c r="C275" s="58"/>
-      <c r="D275" s="323"/>
-      <c r="E275" s="324"/>
-      <c r="F275" s="325"/>
-      <c r="G275" s="338"/>
+      <c r="D275" s="326"/>
+      <c r="E275" s="327"/>
+      <c r="F275" s="328"/>
+      <c r="G275" s="340"/>
     </row>
     <row r="276" spans="1:7" ht="15.75">
-      <c r="A276" s="330"/>
+      <c r="A276" s="332"/>
       <c r="B276" s="187"/>
       <c r="C276" s="58"/>
-      <c r="D276" s="323"/>
-      <c r="E276" s="324"/>
-      <c r="F276" s="325"/>
-      <c r="G276" s="338"/>
+      <c r="D276" s="326"/>
+      <c r="E276" s="327"/>
+      <c r="F276" s="328"/>
+      <c r="G276" s="340"/>
     </row>
     <row r="277" spans="1:7" ht="15.75">
-      <c r="A277" s="330"/>
+      <c r="A277" s="332"/>
       <c r="B277" s="187"/>
       <c r="C277" s="58"/>
-      <c r="D277" s="323"/>
-      <c r="E277" s="324"/>
-      <c r="F277" s="325"/>
-      <c r="G277" s="338"/>
+      <c r="D277" s="326"/>
+      <c r="E277" s="327"/>
+      <c r="F277" s="328"/>
+      <c r="G277" s="340"/>
     </row>
     <row r="278" spans="1:7" ht="15.75">
-      <c r="A278" s="330"/>
+      <c r="A278" s="332"/>
       <c r="B278" s="187"/>
       <c r="C278" s="58"/>
-      <c r="D278" s="323"/>
-      <c r="E278" s="324"/>
-      <c r="F278" s="325"/>
-      <c r="G278" s="338"/>
+      <c r="D278" s="326"/>
+      <c r="E278" s="327"/>
+      <c r="F278" s="328"/>
+      <c r="G278" s="340"/>
     </row>
     <row r="279" spans="1:7" ht="15.75">
-      <c r="A279" s="330"/>
+      <c r="A279" s="332"/>
       <c r="B279" s="187"/>
       <c r="C279" s="58"/>
-      <c r="D279" s="323"/>
-      <c r="E279" s="324"/>
-      <c r="F279" s="325"/>
-      <c r="G279" s="338"/>
+      <c r="D279" s="326"/>
+      <c r="E279" s="327"/>
+      <c r="F279" s="328"/>
+      <c r="G279" s="340"/>
     </row>
     <row r="280" spans="1:7" ht="15.75">
-      <c r="A280" s="330"/>
+      <c r="A280" s="332"/>
       <c r="B280" s="187"/>
       <c r="C280" s="58"/>
-      <c r="D280" s="323"/>
-      <c r="E280" s="324"/>
-      <c r="F280" s="325"/>
-      <c r="G280" s="338"/>
+      <c r="D280" s="326"/>
+      <c r="E280" s="327"/>
+      <c r="F280" s="328"/>
+      <c r="G280" s="340"/>
     </row>
     <row r="281" spans="1:7" ht="15.75">
-      <c r="A281" s="330"/>
+      <c r="A281" s="332"/>
       <c r="B281" s="187"/>
       <c r="C281" s="58"/>
-      <c r="D281" s="323"/>
-      <c r="E281" s="324"/>
-      <c r="F281" s="325"/>
-      <c r="G281" s="338"/>
+      <c r="D281" s="326"/>
+      <c r="E281" s="327"/>
+      <c r="F281" s="328"/>
+      <c r="G281" s="340"/>
     </row>
     <row r="282" spans="1:7" ht="15.75">
-      <c r="A282" s="330"/>
+      <c r="A282" s="332"/>
       <c r="B282" s="187"/>
       <c r="C282" s="58"/>
-      <c r="D282" s="323"/>
-      <c r="E282" s="324"/>
-      <c r="F282" s="325"/>
-      <c r="G282" s="338"/>
+      <c r="D282" s="326"/>
+      <c r="E282" s="327"/>
+      <c r="F282" s="328"/>
+      <c r="G282" s="340"/>
     </row>
     <row r="283" spans="1:7" ht="15.75">
-      <c r="A283" s="330"/>
+      <c r="A283" s="332"/>
       <c r="B283" s="187"/>
       <c r="C283" s="58"/>
-      <c r="D283" s="323"/>
-      <c r="E283" s="324"/>
-      <c r="F283" s="325"/>
-      <c r="G283" s="338"/>
+      <c r="D283" s="326"/>
+      <c r="E283" s="327"/>
+      <c r="F283" s="328"/>
+      <c r="G283" s="340"/>
     </row>
     <row r="284" spans="1:7" ht="15.75">
-      <c r="A284" s="330"/>
+      <c r="A284" s="332"/>
       <c r="B284" s="187"/>
       <c r="C284" s="58"/>
-      <c r="D284" s="323"/>
-      <c r="E284" s="324"/>
-      <c r="F284" s="325"/>
-      <c r="G284" s="338"/>
+      <c r="D284" s="326"/>
+      <c r="E284" s="327"/>
+      <c r="F284" s="328"/>
+      <c r="G284" s="340"/>
     </row>
     <row r="285" spans="1:7" ht="15.75">
-      <c r="A285" s="330"/>
+      <c r="A285" s="332"/>
       <c r="B285" s="187"/>
       <c r="C285" s="58"/>
-      <c r="D285" s="323"/>
-      <c r="E285" s="324"/>
-      <c r="F285" s="325"/>
-      <c r="G285" s="338"/>
+      <c r="D285" s="326"/>
+      <c r="E285" s="327"/>
+      <c r="F285" s="328"/>
+      <c r="G285" s="340"/>
     </row>
     <row r="286" spans="1:7" ht="15.75">
-      <c r="A286" s="330"/>
+      <c r="A286" s="332"/>
       <c r="B286" s="187"/>
       <c r="C286" s="58"/>
-      <c r="D286" s="323"/>
-      <c r="E286" s="324"/>
-      <c r="F286" s="325"/>
-      <c r="G286" s="338"/>
+      <c r="D286" s="326"/>
+      <c r="E286" s="327"/>
+      <c r="F286" s="328"/>
+      <c r="G286" s="340"/>
     </row>
     <row r="287" spans="1:7" ht="15.75">
-      <c r="A287" s="330"/>
+      <c r="A287" s="332"/>
       <c r="B287" s="187"/>
       <c r="C287" s="58"/>
-      <c r="D287" s="323"/>
-      <c r="E287" s="324"/>
-      <c r="F287" s="325"/>
-      <c r="G287" s="338"/>
+      <c r="D287" s="326"/>
+      <c r="E287" s="327"/>
+      <c r="F287" s="328"/>
+      <c r="G287" s="340"/>
     </row>
     <row r="288" spans="1:7" ht="15.75">
-      <c r="A288" s="330"/>
+      <c r="A288" s="332"/>
       <c r="B288" s="187"/>
       <c r="C288" s="58"/>
-      <c r="D288" s="323"/>
-      <c r="E288" s="324"/>
-      <c r="F288" s="325"/>
-      <c r="G288" s="338"/>
+      <c r="D288" s="326"/>
+      <c r="E288" s="327"/>
+      <c r="F288" s="328"/>
+      <c r="G288" s="340"/>
     </row>
     <row r="289" spans="1:8" ht="15.75">
-      <c r="A289" s="330"/>
+      <c r="A289" s="332"/>
       <c r="B289" s="187"/>
       <c r="C289" s="58"/>
-      <c r="D289" s="323"/>
-      <c r="E289" s="324"/>
-      <c r="F289" s="325"/>
-      <c r="G289" s="338"/>
+      <c r="D289" s="326"/>
+      <c r="E289" s="327"/>
+      <c r="F289" s="328"/>
+      <c r="G289" s="340"/>
     </row>
     <row r="290" spans="1:8" ht="15.75">
-      <c r="A290" s="330"/>
+      <c r="A290" s="332"/>
       <c r="B290" s="187"/>
       <c r="C290" s="58"/>
-      <c r="D290" s="323"/>
-      <c r="E290" s="324"/>
-      <c r="F290" s="325"/>
-      <c r="G290" s="338"/>
+      <c r="D290" s="326"/>
+      <c r="E290" s="327"/>
+      <c r="F290" s="328"/>
+      <c r="G290" s="340"/>
     </row>
     <row r="291" spans="1:8" ht="15.75">
-      <c r="A291" s="330"/>
+      <c r="A291" s="332"/>
       <c r="B291" s="187"/>
       <c r="C291" s="58"/>
-      <c r="D291" s="323"/>
-      <c r="E291" s="324"/>
-      <c r="F291" s="325"/>
-      <c r="G291" s="338"/>
+      <c r="D291" s="326"/>
+      <c r="E291" s="327"/>
+      <c r="F291" s="328"/>
+      <c r="G291" s="340"/>
     </row>
     <row r="292" spans="1:8" ht="15.75">
-      <c r="A292" s="330"/>
+      <c r="A292" s="332"/>
       <c r="B292" s="187"/>
       <c r="C292" s="58"/>
-      <c r="D292" s="323"/>
-      <c r="E292" s="324"/>
-      <c r="F292" s="325"/>
-      <c r="G292" s="338"/>
+      <c r="D292" s="326"/>
+      <c r="E292" s="327"/>
+      <c r="F292" s="328"/>
+      <c r="G292" s="340"/>
     </row>
     <row r="293" spans="1:8" ht="15.75">
-      <c r="A293" s="330"/>
+      <c r="A293" s="332"/>
       <c r="B293" s="187"/>
       <c r="C293" s="58"/>
-      <c r="D293" s="323"/>
-      <c r="E293" s="324"/>
-      <c r="F293" s="325"/>
-      <c r="G293" s="338"/>
+      <c r="D293" s="326"/>
+      <c r="E293" s="327"/>
+      <c r="F293" s="328"/>
+      <c r="G293" s="340"/>
     </row>
     <row r="294" spans="1:8" ht="15.75">
-      <c r="A294" s="330"/>
+      <c r="A294" s="332"/>
       <c r="B294" s="187"/>
       <c r="C294" s="58"/>
-      <c r="D294" s="323"/>
-      <c r="E294" s="324"/>
-      <c r="F294" s="325"/>
-      <c r="G294" s="338"/>
+      <c r="D294" s="326"/>
+      <c r="E294" s="327"/>
+      <c r="F294" s="328"/>
+      <c r="G294" s="340"/>
     </row>
     <row r="295" spans="1:8" ht="15.75">
-      <c r="A295" s="330"/>
+      <c r="A295" s="332"/>
       <c r="B295" s="187"/>
       <c r="C295" s="58"/>
-      <c r="D295" s="323"/>
-      <c r="E295" s="324"/>
-      <c r="F295" s="325"/>
-      <c r="G295" s="338"/>
+      <c r="D295" s="326"/>
+      <c r="E295" s="327"/>
+      <c r="F295" s="328"/>
+      <c r="G295" s="340"/>
     </row>
     <row r="296" spans="1:8" ht="15.75">
-      <c r="A296" s="330"/>
+      <c r="A296" s="332"/>
       <c r="B296" s="187"/>
       <c r="C296" s="58"/>
-      <c r="D296" s="323"/>
-      <c r="E296" s="324"/>
-      <c r="F296" s="325"/>
-      <c r="G296" s="338"/>
+      <c r="D296" s="326"/>
+      <c r="E296" s="327"/>
+      <c r="F296" s="328"/>
+      <c r="G296" s="340"/>
     </row>
     <row r="297" spans="1:8" ht="15.75">
-      <c r="A297" s="330"/>
+      <c r="A297" s="332"/>
       <c r="B297" s="187"/>
       <c r="C297" s="58"/>
-      <c r="D297" s="323"/>
-      <c r="E297" s="324"/>
-      <c r="F297" s="325"/>
-      <c r="G297" s="338"/>
+      <c r="D297" s="326"/>
+      <c r="E297" s="327"/>
+      <c r="F297" s="328"/>
+      <c r="G297" s="340"/>
     </row>
     <row r="298" spans="1:8" ht="15.75">
-      <c r="A298" s="330"/>
+      <c r="A298" s="332"/>
       <c r="B298" s="187"/>
       <c r="C298" s="58"/>
-      <c r="D298" s="323"/>
-      <c r="E298" s="324"/>
-      <c r="F298" s="325"/>
-      <c r="G298" s="338"/>
+      <c r="D298" s="326"/>
+      <c r="E298" s="327"/>
+      <c r="F298" s="328"/>
+      <c r="G298" s="340"/>
     </row>
     <row r="299" spans="1:8" ht="15.75">
-      <c r="A299" s="330"/>
+      <c r="A299" s="332"/>
       <c r="B299" s="187"/>
       <c r="C299" s="58"/>
-      <c r="D299" s="323"/>
-      <c r="E299" s="324"/>
-      <c r="F299" s="325"/>
-      <c r="G299" s="338"/>
+      <c r="D299" s="326"/>
+      <c r="E299" s="327"/>
+      <c r="F299" s="328"/>
+      <c r="G299" s="340"/>
     </row>
     <row r="300" spans="1:8" ht="15.75">
-      <c r="A300" s="330"/>
+      <c r="A300" s="332"/>
       <c r="B300" s="187"/>
       <c r="C300" s="58"/>
-      <c r="D300" s="323"/>
-      <c r="E300" s="324"/>
-      <c r="F300" s="325"/>
-      <c r="G300" s="338"/>
+      <c r="D300" s="326"/>
+      <c r="E300" s="327"/>
+      <c r="F300" s="328"/>
+      <c r="G300" s="340"/>
     </row>
     <row r="301" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A301" s="331"/>
-      <c r="B301" s="326" t="s">
+      <c r="A301" s="333"/>
+      <c r="B301" s="343" t="s">
         <v>36</v>
       </c>
-      <c r="C301" s="326"/>
-      <c r="D301" s="326"/>
-      <c r="E301" s="326"/>
-      <c r="F301" s="326"/>
-      <c r="G301" s="339"/>
+      <c r="C301" s="343"/>
+      <c r="D301" s="343"/>
+      <c r="E301" s="343"/>
+      <c r="F301" s="343"/>
+      <c r="G301" s="341"/>
     </row>
     <row r="302" spans="1:8" ht="13.5" thickTop="1">
       <c r="D302" s="184" t="s">
@@ -65900,45 +65927,247 @@
     </row>
   </sheetData>
   <sheetProtection password="C453" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0"/>
-  <mergeCells count="302">
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A301"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G2:G301"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
+  <mergeCells count="301">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="D293:F293"/>
+    <mergeCell ref="D294:F294"/>
+    <mergeCell ref="D295:F295"/>
+    <mergeCell ref="D296:F296"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="D298:F298"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D281:F281"/>
+    <mergeCell ref="D282:F282"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="D284:F284"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="D269:F269"/>
+    <mergeCell ref="D270:F270"/>
+    <mergeCell ref="D271:F271"/>
+    <mergeCell ref="D272:F272"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="D268:F268"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="D280:F280"/>
+    <mergeCell ref="D257:F257"/>
+    <mergeCell ref="D258:F258"/>
+    <mergeCell ref="D259:F259"/>
+    <mergeCell ref="D260:F260"/>
+    <mergeCell ref="D261:F261"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="D248:F248"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D204:F204"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
@@ -65963,246 +66192,43 @@
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="D204:F204"/>
-    <mergeCell ref="D205:F205"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="D225:F225"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="D239:F239"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="D257:F257"/>
-    <mergeCell ref="D258:F258"/>
-    <mergeCell ref="D259:F259"/>
-    <mergeCell ref="D260:F260"/>
-    <mergeCell ref="D261:F261"/>
-    <mergeCell ref="D262:F262"/>
-    <mergeCell ref="D275:F275"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="D246:F246"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="D248:F248"/>
-    <mergeCell ref="D249:F249"/>
-    <mergeCell ref="D250:F250"/>
-    <mergeCell ref="D251:F251"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="D290:F290"/>
-    <mergeCell ref="D276:F276"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="D265:F265"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="D269:F269"/>
-    <mergeCell ref="D270:F270"/>
-    <mergeCell ref="D271:F271"/>
-    <mergeCell ref="D272:F272"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="D267:F267"/>
-    <mergeCell ref="D268:F268"/>
-    <mergeCell ref="D277:F277"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="D280:F280"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="D300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="D293:F293"/>
-    <mergeCell ref="D294:F294"/>
-    <mergeCell ref="D295:F295"/>
-    <mergeCell ref="D296:F296"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="D298:F298"/>
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="D292:F292"/>
-    <mergeCell ref="D281:F281"/>
-    <mergeCell ref="D282:F282"/>
-    <mergeCell ref="D283:F283"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="D285:F285"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A301"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:G301"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="73"/>
   <hyperlinks>
